--- a/consort/manual.xlsx
+++ b/consort/manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/consort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A28BB05-A34C-8F4D-A01A-B332A597D26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921D633B-66A1-2F4E-A3C7-DEDE3644C3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{A7967165-CAA9-764E-B8A7-5F77B1A90245}"/>
+    <workbookView xWindow="11840" yWindow="3440" windowWidth="28800" windowHeight="16480" xr2:uid="{A7967165-CAA9-764E-B8A7-5F77B1A90245}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="1083">
   <si>
     <t>intervention check</t>
   </si>
@@ -3115,9 +3115,6 @@
     <t xml:space="preserve">final include in final excel already </t>
   </si>
   <si>
-    <t>\</t>
-  </si>
-  <si>
     <t>CIS</t>
   </si>
   <si>
@@ -3343,9 +3340,6 @@
     <t>NCT02430532</t>
   </si>
   <si>
-    <t>first in ppms</t>
-  </si>
-  <si>
     <t>NCT01743651</t>
   </si>
   <si>
@@ -3440,6 +3434,9 @@
   </si>
   <si>
     <t>NCT01524250</t>
+  </si>
+  <si>
+    <t>NCT01838668:</t>
   </si>
 </sst>
 </file>
@@ -3612,7 +3609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3648,6 +3645,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4070,8 +4068,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:GY547"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="D550" sqref="D550"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="103" workbookViewId="0">
+      <selection activeCell="K259" sqref="K259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4508,7 +4506,7 @@
       <c r="GX1" s="11"/>
       <c r="GY1" s="11"/>
     </row>
-    <row r="2" spans="1:207" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -4546,7 +4544,7 @@
       <c r="DA2" s="2"/>
       <c r="DC2" s="2"/>
     </row>
-    <row r="3" spans="1:207" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -4572,7 +4570,7 @@
       <c r="DA3" s="2"/>
       <c r="DC3" s="2"/>
     </row>
-    <row r="4" spans="1:207" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -4610,7 +4608,7 @@
       <c r="DA4" s="2"/>
       <c r="DC4" s="2"/>
     </row>
-    <row r="5" spans="1:207" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:207" ht="23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -4654,7 +4652,7 @@
       <c r="DA5" s="2"/>
       <c r="DC5" s="2"/>
     </row>
-    <row r="6" spans="1:207" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:207" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -4698,7 +4696,7 @@
       <c r="DA6" s="2"/>
       <c r="DC6" s="2"/>
     </row>
-    <row r="7" spans="1:207" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -4736,7 +4734,7 @@
       <c r="DA7" s="2"/>
       <c r="DC7" s="2"/>
     </row>
-    <row r="8" spans="1:207" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -4774,7 +4772,7 @@
       <c r="DA8" s="2"/>
       <c r="DC8" s="2"/>
     </row>
-    <row r="9" spans="1:207" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -4812,7 +4810,7 @@
       <c r="DA9" s="2"/>
       <c r="DC9" s="2"/>
     </row>
-    <row r="10" spans="1:207" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -4853,7 +4851,7 @@
       <c r="DA10" s="2"/>
       <c r="DC10" s="2"/>
     </row>
-    <row r="11" spans="1:207" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -4894,7 +4892,7 @@
       <c r="DA11" s="2"/>
       <c r="DC11" s="2"/>
     </row>
-    <row r="12" spans="1:207" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -4932,7 +4930,7 @@
       <c r="DA12" s="2"/>
       <c r="DC12" s="2"/>
     </row>
-    <row r="13" spans="1:207" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -4970,7 +4968,7 @@
       <c r="DA13" s="2"/>
       <c r="DC13" s="2"/>
     </row>
-    <row r="14" spans="1:207" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -5043,7 +5041,7 @@
       <c r="DA15" s="2"/>
       <c r="DC15" s="2"/>
     </row>
-    <row r="16" spans="1:207" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -5092,7 +5090,7 @@
       <c r="DA17" s="2"/>
       <c r="DC17" s="2"/>
     </row>
-    <row r="18" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -5133,7 +5131,7 @@
       <c r="DA18" s="2"/>
       <c r="DC18" s="2"/>
     </row>
-    <row r="19" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -5171,7 +5169,7 @@
       <c r="DA19" s="2"/>
       <c r="DC19" s="2"/>
     </row>
-    <row r="20" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -5212,7 +5210,7 @@
       <c r="DA20" s="2"/>
       <c r="DC20" s="2"/>
     </row>
-    <row r="21" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -5238,7 +5236,7 @@
       <c r="DA21" s="2"/>
       <c r="DC21" s="2"/>
     </row>
-    <row r="22" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -5267,7 +5265,7 @@
       <c r="DA22" s="2"/>
       <c r="DC22" s="2"/>
     </row>
-    <row r="23" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -5308,7 +5306,7 @@
       <c r="DA23" s="2"/>
       <c r="DC23" s="2"/>
     </row>
-    <row r="24" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -5334,7 +5332,7 @@
       <c r="DA24" s="2"/>
       <c r="DC24" s="2"/>
     </row>
-    <row r="25" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -5378,7 +5376,7 @@
       <c r="DA25" s="2"/>
       <c r="DC25" s="2"/>
     </row>
-    <row r="26" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -5419,7 +5417,7 @@
       <c r="DA26" s="2"/>
       <c r="DC26" s="2"/>
     </row>
-    <row r="27" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -5445,7 +5443,7 @@
       <c r="DA27" s="2"/>
       <c r="DC27" s="2"/>
     </row>
-    <row r="28" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>120</v>
       </c>
@@ -5494,7 +5492,7 @@
       <c r="DA29" s="2"/>
       <c r="DC29" s="2"/>
     </row>
-    <row r="30" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -5533,7 +5531,7 @@
       <c r="DA30" s="2"/>
       <c r="DC30" s="2"/>
     </row>
-    <row r="31" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>126</v>
       </c>
@@ -5580,7 +5578,7 @@
       <c r="DA31" s="2"/>
       <c r="DC31" s="2"/>
     </row>
-    <row r="32" spans="1:107" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:107" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -5633,7 +5631,7 @@
       <c r="DA33" s="2"/>
       <c r="DC33" s="2"/>
     </row>
-    <row r="34" spans="1:107" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:107" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -5668,7 +5666,7 @@
       <c r="DA34" s="2"/>
       <c r="DC34" s="2"/>
     </row>
-    <row r="35" spans="1:107" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:107" ht="23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -5735,7 +5733,7 @@
       <c r="DA36" s="2"/>
       <c r="DC36" s="2"/>
     </row>
-    <row r="37" spans="1:107" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:107" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -5764,7 +5762,7 @@
       <c r="DA37" s="2"/>
       <c r="DC37" s="2"/>
     </row>
-    <row r="38" spans="1:107" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:107" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -5793,7 +5791,7 @@
       <c r="DA38" s="2"/>
       <c r="DC38" s="2"/>
     </row>
-    <row r="39" spans="1:107" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:107" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -5835,7 +5833,7 @@
       <c r="DA39" s="2"/>
       <c r="DC39" s="2"/>
     </row>
-    <row r="40" spans="1:107" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:107" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -5870,7 +5868,7 @@
       <c r="DA40" s="2"/>
       <c r="DC40" s="2"/>
     </row>
-    <row r="41" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -5917,7 +5915,7 @@
       <c r="DA42" s="2"/>
       <c r="DC42" s="2"/>
     </row>
-    <row r="43" spans="1:107" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:107" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -5956,7 +5954,7 @@
       <c r="DA43" s="2"/>
       <c r="DC43" s="2"/>
     </row>
-    <row r="44" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -5993,7 +5991,7 @@
       <c r="DA44" s="2"/>
       <c r="DC44" s="2"/>
     </row>
-    <row r="45" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>162</v>
       </c>
@@ -6031,7 +6029,7 @@
       <c r="DA45" s="2"/>
       <c r="DC45" s="2"/>
     </row>
-    <row r="46" spans="1:107" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:107" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>164</v>
       </c>
@@ -6060,7 +6058,7 @@
       <c r="DA46" s="2"/>
       <c r="DC46" s="2"/>
     </row>
-    <row r="47" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -6095,7 +6093,7 @@
       <c r="DA47" s="2"/>
       <c r="DC47" s="2"/>
     </row>
-    <row r="48" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>168</v>
       </c>
@@ -6996,7 +6994,7 @@
       <c r="DA107" s="2"/>
       <c r="DC107" s="2"/>
     </row>
-    <row r="108" spans="1:107" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:107" ht="19" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>231</v>
       </c>
@@ -7027,7 +7025,7 @@
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
     </row>
-    <row r="109" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>234</v>
       </c>
@@ -7068,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>237</v>
       </c>
@@ -7107,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:107" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>239</v>
       </c>
@@ -7136,7 +7134,7 @@
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
     </row>
-    <row r="112" spans="1:107" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:107" ht="19" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>241</v>
       </c>
@@ -7167,7 +7165,7 @@
       <c r="N112" s="11"/>
       <c r="O112" s="11"/>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>243</v>
       </c>
@@ -7206,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>245</v>
       </c>
@@ -7245,7 +7243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>247</v>
       </c>
@@ -7284,7 +7282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>249</v>
       </c>
@@ -7319,7 +7317,7 @@
       <c r="N116" s="11"/>
       <c r="O116" s="11"/>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
         <v>253</v>
       </c>
@@ -7360,7 +7358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
         <v>255</v>
       </c>
@@ -7422,7 +7420,7 @@
       <c r="N119" s="11"/>
       <c r="O119" s="11"/>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
         <v>258</v>
       </c>
@@ -7461,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>260</v>
       </c>
@@ -7500,7 +7498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
         <v>262</v>
       </c>
@@ -7539,7 +7537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
         <v>264</v>
       </c>
@@ -7570,7 +7568,7 @@
       <c r="N123" s="11"/>
       <c r="O123" s="11"/>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
         <v>266</v>
       </c>
@@ -7613,7 +7611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
         <v>268</v>
       </c>
@@ -7730,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
         <v>273</v>
       </c>
@@ -7761,7 +7759,7 @@
       <c r="N128" s="11"/>
       <c r="O128" s="11"/>
     </row>
-    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
         <v>276</v>
       </c>
@@ -7823,7 +7821,7 @@
       <c r="N130" s="11"/>
       <c r="O130" s="11"/>
     </row>
-    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
         <v>279</v>
       </c>
@@ -7862,7 +7860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>281</v>
       </c>
@@ -7901,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>283</v>
       </c>
@@ -7959,7 +7957,7 @@
       <c r="N134" s="11"/>
       <c r="O134" s="11"/>
     </row>
-    <row r="135" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
         <v>286</v>
       </c>
@@ -8013,7 +8011,7 @@
       <c r="N136" s="11"/>
       <c r="O136" s="11"/>
     </row>
-    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
         <v>287</v>
       </c>
@@ -8052,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
         <v>291</v>
       </c>
@@ -8091,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>293</v>
       </c>
@@ -8130,7 +8128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
         <v>295</v>
       </c>
@@ -8169,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>296</v>
       </c>
@@ -8208,7 +8206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
         <v>298</v>
       </c>
@@ -8249,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
         <v>299</v>
       </c>
@@ -8288,7 +8286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>301</v>
       </c>
@@ -8327,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
         <v>303</v>
       </c>
@@ -8366,7 +8364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
         <v>305</v>
       </c>
@@ -8409,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
         <v>306</v>
       </c>
@@ -8448,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
         <v>308</v>
       </c>
@@ -8545,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
         <v>315</v>
       </c>
@@ -8597,7 +8595,7 @@
       <c r="N152" s="11"/>
       <c r="O152" s="11"/>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
         <v>318</v>
       </c>
@@ -8640,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
         <v>320</v>
       </c>
@@ -8673,7 +8671,7 @@
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
         <v>323</v>
       </c>
@@ -8779,7 +8777,7 @@
       <c r="N158" s="11"/>
       <c r="O158" s="11"/>
     </row>
-    <row r="159" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>329</v>
       </c>
@@ -8837,7 +8835,7 @@
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
         <v>335</v>
       </c>
@@ -8870,7 +8868,7 @@
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
         <v>337</v>
       </c>
@@ -8901,7 +8899,7 @@
       <c r="N162" s="11"/>
       <c r="O162" s="11"/>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
         <v>340</v>
       </c>
@@ -8932,7 +8930,7 @@
       <c r="N163" s="11"/>
       <c r="O163" s="11"/>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
         <v>342</v>
       </c>
@@ -8986,7 +8984,7 @@
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
         <v>346</v>
       </c>
@@ -9017,7 +9015,7 @@
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
         <v>348</v>
       </c>
@@ -9050,7 +9048,7 @@
       <c r="N167" s="11"/>
       <c r="O167" s="11"/>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
         <v>351</v>
       </c>
@@ -9081,7 +9079,7 @@
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
         <v>354</v>
       </c>
@@ -9213,7 +9211,7 @@
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
     </row>
-    <row r="173" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
         <v>360</v>
       </c>
@@ -9263,7 +9261,7 @@
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
     </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
         <v>352</v>
       </c>
@@ -9302,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="s">
         <v>364</v>
       </c>
@@ -9335,7 +9333,7 @@
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
     </row>
-    <row r="177" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
         <v>366</v>
       </c>
@@ -9366,7 +9364,7 @@
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
         <v>369</v>
       </c>
@@ -9444,7 +9442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
         <v>372</v>
       </c>
@@ -9475,7 +9473,7 @@
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
     </row>
-    <row r="181" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
         <v>374</v>
       </c>
@@ -9506,7 +9504,7 @@
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
     </row>
-    <row r="182" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
         <v>373</v>
       </c>
@@ -9537,7 +9535,7 @@
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
     </row>
-    <row r="183" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
         <v>379</v>
       </c>
@@ -9568,7 +9566,7 @@
       <c r="N183" s="11"/>
       <c r="O183" s="11"/>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="s">
         <v>381</v>
       </c>
@@ -9607,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
         <v>367</v>
       </c>
@@ -9685,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
         <v>385</v>
       </c>
@@ -9744,7 +9742,7 @@
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
     </row>
-    <row r="189" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
         <v>388</v>
       </c>
@@ -9773,7 +9771,7 @@
       <c r="N189" s="11"/>
       <c r="O189" s="11"/>
     </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
         <v>389</v>
       </c>
@@ -9812,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
         <v>391</v>
       </c>
@@ -9843,7 +9841,7 @@
       <c r="N191" s="11"/>
       <c r="O191" s="11"/>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>394</v>
       </c>
@@ -9874,7 +9872,7 @@
       <c r="N192" s="11"/>
       <c r="O192" s="11"/>
     </row>
-    <row r="193" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
         <v>396</v>
       </c>
@@ -9932,7 +9930,7 @@
       <c r="N194" s="11"/>
       <c r="O194" s="11"/>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
         <v>402</v>
       </c>
@@ -9973,7 +9971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
         <v>405</v>
       </c>
@@ -10029,7 +10027,7 @@
       <c r="N197" s="11"/>
       <c r="O197" s="11"/>
     </row>
-    <row r="198" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
         <v>410</v>
       </c>
@@ -10060,7 +10058,7 @@
       <c r="N198" s="11"/>
       <c r="O198" s="11"/>
     </row>
-    <row r="199" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
         <v>413</v>
       </c>
@@ -10091,7 +10089,7 @@
       <c r="N199" s="11"/>
       <c r="O199" s="11"/>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
         <v>415</v>
       </c>
@@ -10132,7 +10130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
         <v>418</v>
       </c>
@@ -10171,7 +10169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
         <v>420</v>
       </c>
@@ -10202,7 +10200,7 @@
       <c r="N202" s="11"/>
       <c r="O202" s="11"/>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="s">
         <v>422</v>
       </c>
@@ -10235,7 +10233,7 @@
       <c r="N203" s="11"/>
       <c r="O203" s="11"/>
     </row>
-    <row r="204" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
         <v>424</v>
       </c>
@@ -10293,7 +10291,7 @@
       <c r="N205" s="11"/>
       <c r="O205" s="11"/>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
         <v>428</v>
       </c>
@@ -10324,7 +10322,7 @@
       <c r="N206" s="11"/>
       <c r="O206" s="11"/>
     </row>
-    <row r="207" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="s">
         <v>430</v>
       </c>
@@ -10355,7 +10353,7 @@
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
     </row>
-    <row r="208" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="s">
         <v>433</v>
       </c>
@@ -10499,7 +10497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" s="11" t="s">
         <v>441</v>
       </c>
@@ -10538,7 +10536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" s="11" t="s">
         <v>443</v>
       </c>
@@ -10577,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" s="11" t="s">
         <v>445</v>
       </c>
@@ -10610,7 +10608,7 @@
       <c r="N214" s="11"/>
       <c r="O214" s="11"/>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" s="11" t="s">
         <v>447</v>
       </c>
@@ -10649,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
         <v>449</v>
       </c>
@@ -10682,7 +10680,7 @@
       <c r="N216" s="11"/>
       <c r="O216" s="11"/>
     </row>
-    <row r="217" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="s">
         <v>451</v>
       </c>
@@ -10715,7 +10713,7 @@
       <c r="N217" s="11"/>
       <c r="O217" s="11"/>
     </row>
-    <row r="218" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A218" s="11" t="s">
         <v>453</v>
       </c>
@@ -10767,7 +10765,7 @@
       <c r="N219" s="11"/>
       <c r="O219" s="11"/>
     </row>
-    <row r="220" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A220" s="11" t="s">
         <v>456</v>
       </c>
@@ -10798,7 +10796,7 @@
       <c r="N220" s="11"/>
       <c r="O220" s="11"/>
     </row>
-    <row r="221" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
         <v>459</v>
       </c>
@@ -10829,7 +10827,7 @@
       <c r="N221" s="11"/>
       <c r="O221" s="11"/>
     </row>
-    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" s="11" t="s">
         <v>462</v>
       </c>
@@ -10881,7 +10879,7 @@
       <c r="N223" s="11"/>
       <c r="O223" s="11"/>
     </row>
-    <row r="224" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A224" s="11" t="s">
         <v>466</v>
       </c>
@@ -10912,7 +10910,7 @@
       <c r="N224" s="11"/>
       <c r="O224" s="11"/>
     </row>
-    <row r="225" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A225" s="11" t="s">
         <v>469</v>
       </c>
@@ -10943,7 +10941,7 @@
       <c r="N225" s="11"/>
       <c r="O225" s="11"/>
     </row>
-    <row r="226" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A226" s="11" t="s">
         <v>471</v>
       </c>
@@ -10974,7 +10972,7 @@
       <c r="N226" s="11"/>
       <c r="O226" s="11"/>
     </row>
-    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" s="11" t="s">
         <v>473</v>
       </c>
@@ -11005,7 +11003,7 @@
       <c r="N227" s="11"/>
       <c r="O227" s="11"/>
     </row>
-    <row r="228" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A228" s="11" t="s">
         <v>476</v>
       </c>
@@ -11036,7 +11034,7 @@
       <c r="N228" s="11"/>
       <c r="O228" s="11"/>
     </row>
-    <row r="229" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A229" s="11" t="s">
         <v>479</v>
       </c>
@@ -11067,7 +11065,7 @@
       <c r="N229" s="11"/>
       <c r="O229" s="11"/>
     </row>
-    <row r="230" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A230" s="11" t="s">
         <v>330</v>
       </c>
@@ -11098,7 +11096,7 @@
       <c r="N230" s="11"/>
       <c r="O230" s="11"/>
     </row>
-    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231" s="11" t="s">
         <v>483</v>
       </c>
@@ -11129,7 +11127,7 @@
       <c r="N231" s="11"/>
       <c r="O231" s="11"/>
     </row>
-    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" s="11" t="s">
         <v>486</v>
       </c>
@@ -11168,7 +11166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233" s="11" t="s">
         <v>488</v>
       </c>
@@ -11409,7 +11407,7 @@
       <c r="N241" s="11"/>
       <c r="O241" s="11"/>
     </row>
-    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242" s="11" t="s">
         <v>499</v>
       </c>
@@ -11477,7 +11475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" s="11" t="s">
         <v>501</v>
       </c>
@@ -11560,7 +11558,7 @@
       <c r="N246" s="11"/>
       <c r="O246" s="11"/>
     </row>
-    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" s="11" t="s">
         <v>505</v>
       </c>
@@ -11591,7 +11589,7 @@
       <c r="N247" s="11"/>
       <c r="O247" s="11"/>
     </row>
-    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248" s="11" t="s">
         <v>508</v>
       </c>
@@ -11630,7 +11628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" s="11" t="s">
         <v>510</v>
       </c>
@@ -11811,7 +11809,7 @@
       <c r="N255" s="11"/>
       <c r="O255" s="11"/>
     </row>
-    <row r="256" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A256" s="11" t="s">
         <v>518</v>
       </c>
@@ -11888,7 +11886,7 @@
       <c r="N258" s="11"/>
       <c r="O258" s="11"/>
     </row>
-    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259" s="11" t="s">
         <v>522</v>
       </c>
@@ -11904,7 +11902,7 @@
       </c>
       <c r="F259" s="11"/>
       <c r="G259" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259" s="11">
         <v>1</v>
@@ -11912,10 +11910,10 @@
       <c r="I259" s="11">
         <v>1</v>
       </c>
-      <c r="J259" s="1"/>
-      <c r="K259" s="11" t="s">
-        <v>975</v>
-      </c>
+      <c r="J259" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K259" s="11"/>
       <c r="L259" s="11"/>
       <c r="M259" s="1" t="s">
         <v>524</v>
@@ -12029,7 +12027,7 @@
       <c r="N263" s="11"/>
       <c r="O263" s="11"/>
     </row>
-    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264" s="11" t="s">
         <v>529</v>
       </c>
@@ -12060,7 +12058,7 @@
       <c r="N264" s="11"/>
       <c r="O264" s="11"/>
     </row>
-    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265" s="11" t="s">
         <v>532</v>
       </c>
@@ -12091,7 +12089,7 @@
       <c r="N265" s="11"/>
       <c r="O265" s="11"/>
     </row>
-    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A266" s="11" t="s">
         <v>534</v>
       </c>
@@ -12155,7 +12153,7 @@
       <c r="N267" s="11"/>
       <c r="O267" s="11"/>
     </row>
-    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268" s="11" t="s">
         <v>539</v>
       </c>
@@ -12209,7 +12207,7 @@
       <c r="N269" s="11"/>
       <c r="O269" s="11"/>
     </row>
-    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A270" s="11" t="s">
         <v>542</v>
       </c>
@@ -12323,7 +12321,7 @@
       <c r="N273" s="11"/>
       <c r="O273" s="11"/>
     </row>
-    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274" s="11" t="s">
         <v>546</v>
       </c>
@@ -12402,7 +12400,7 @@
       <c r="N276" s="11"/>
       <c r="O276" s="11"/>
     </row>
-    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277" s="11" t="s">
         <v>550</v>
       </c>
@@ -12433,7 +12431,7 @@
       <c r="N277" s="11"/>
       <c r="O277" s="11"/>
     </row>
-    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278" s="11" t="s">
         <v>552</v>
       </c>
@@ -12514,7 +12512,7 @@
       <c r="N280" s="11"/>
       <c r="O280" s="11"/>
     </row>
-    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A281" s="11" t="s">
         <v>556</v>
       </c>
@@ -12734,7 +12732,7 @@
       <c r="N288" s="11"/>
       <c r="O288" s="11"/>
     </row>
-    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289" s="11" t="s">
         <v>565</v>
       </c>
@@ -12772,7 +12770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A290" s="11" t="s">
         <v>568</v>
       </c>
@@ -12829,7 +12827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A292" s="11" t="s">
         <v>572</v>
       </c>
@@ -12871,7 +12869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293" s="11" t="s">
         <v>573</v>
       </c>
@@ -12907,7 +12905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294" s="11" t="s">
         <v>574</v>
       </c>
@@ -12932,7 +12930,7 @@
       </c>
       <c r="K294" s="11"/>
     </row>
-    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A295" s="11" t="s">
         <v>576</v>
       </c>
@@ -12972,7 +12970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A296" s="11" t="s">
         <v>580</v>
       </c>
@@ -13000,7 +12998,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A297" s="11" t="s">
         <v>583</v>
       </c>
@@ -13028,7 +13026,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A298" s="11" t="s">
         <v>115</v>
       </c>
@@ -13083,7 +13081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A300" s="11" t="s">
         <v>588</v>
       </c>
@@ -13126,7 +13124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A301" s="11" t="s">
         <v>119</v>
       </c>
@@ -13162,7 +13160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A302" s="11" t="s">
         <v>591</v>
       </c>
@@ -13201,7 +13199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A303" s="11" t="s">
         <v>593</v>
       </c>
@@ -13228,7 +13226,7 @@
       </c>
       <c r="K303" s="11"/>
     </row>
-    <row r="304" spans="1:19" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="23" x14ac:dyDescent="0.25">
       <c r="A304" s="11" t="s">
         <v>596</v>
       </c>
@@ -13258,7 +13256,7 @@
       <c r="K304" s="11"/>
       <c r="M304" s="16"/>
     </row>
-    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305" s="11" t="s">
         <v>598</v>
       </c>
@@ -13294,7 +13292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306" s="11" t="s">
         <v>600</v>
       </c>
@@ -13330,7 +13328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" ht="20" x14ac:dyDescent="0.2">
       <c r="A307" s="11" t="s">
         <v>602</v>
       </c>
@@ -13372,7 +13370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A308" s="11" t="s">
         <v>604</v>
       </c>
@@ -13408,7 +13406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A309" s="11" t="s">
         <v>606</v>
       </c>
@@ -13444,7 +13442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="23" x14ac:dyDescent="0.25">
       <c r="A310" s="11" t="s">
         <v>608</v>
       </c>
@@ -13479,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311" s="11" t="s">
         <v>242</v>
       </c>
@@ -13518,7 +13516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="23" x14ac:dyDescent="0.25">
       <c r="A312" s="11" t="s">
         <v>612</v>
       </c>
@@ -13548,7 +13546,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A313" s="11" t="s">
         <v>616</v>
       </c>
@@ -13576,7 +13574,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A314" s="11" t="s">
         <v>619</v>
       </c>
@@ -13603,7 +13601,7 @@
       </c>
       <c r="K314" s="11"/>
     </row>
-    <row r="315" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A315" s="11" t="s">
         <v>622</v>
       </c>
@@ -13628,7 +13626,7 @@
       </c>
       <c r="K315" s="11"/>
     </row>
-    <row r="316" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A316" s="11" t="s">
         <v>624</v>
       </c>
@@ -13671,7 +13669,7 @@
         <v>0</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G317" s="11">
         <v>0</v>
@@ -13790,7 +13788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="23" x14ac:dyDescent="0.25">
       <c r="A321" s="11" t="s">
         <v>635</v>
       </c>
@@ -13878,7 +13876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A324" s="11" t="s">
         <v>641</v>
       </c>
@@ -13948,7 +13946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A326" s="11" t="s">
         <v>644</v>
       </c>
@@ -13986,7 +13984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A327" s="11" t="s">
         <v>647</v>
       </c>
@@ -14032,7 +14030,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="11"/>
     </row>
-    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A329" s="11" t="s">
         <v>649</v>
       </c>
@@ -14068,7 +14066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A330" s="11" t="s">
         <v>651</v>
       </c>
@@ -14104,7 +14102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A331" s="11" t="s">
         <v>653</v>
       </c>
@@ -14134,7 +14132,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A332" s="11" t="s">
         <v>657</v>
       </c>
@@ -14182,7 +14180,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="23" x14ac:dyDescent="0.25">
       <c r="A334" s="11" t="s">
         <v>662</v>
       </c>
@@ -14231,7 +14229,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="11"/>
     </row>
-    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A336" s="11" t="s">
         <v>666</v>
       </c>
@@ -14266,7 +14264,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" s="20" t="s">
         <v>669</v>
       </c>
@@ -14305,7 +14303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338" s="11" t="s">
         <v>671</v>
       </c>
@@ -14333,7 +14331,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A339" s="11" t="s">
         <v>673</v>
       </c>
@@ -14358,7 +14356,7 @@
       </c>
       <c r="K339" s="11"/>
     </row>
-    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340" s="11" t="s">
         <v>675</v>
       </c>
@@ -14386,7 +14384,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A341" s="11" t="s">
         <v>678</v>
       </c>
@@ -14438,7 +14436,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="11"/>
     </row>
-    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A343" s="11" t="s">
         <v>683</v>
       </c>
@@ -14463,7 +14461,7 @@
       </c>
       <c r="K343" s="11"/>
     </row>
-    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A344" s="11" t="s">
         <v>685</v>
       </c>
@@ -14491,7 +14489,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A345" s="11" t="s">
         <v>687</v>
       </c>
@@ -14519,7 +14517,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A346" s="11" t="s">
         <v>690</v>
       </c>
@@ -14570,7 +14568,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="11"/>
     </row>
-    <row r="348" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A348" s="11" t="s">
         <v>695</v>
       </c>
@@ -14702,7 +14700,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="11"/>
     </row>
-    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A354" s="11" t="s">
         <v>703</v>
       </c>
@@ -14777,7 +14775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A356" s="11" t="s">
         <v>706</v>
       </c>
@@ -14819,7 +14817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A357" s="11" t="s">
         <v>708</v>
       </c>
@@ -14845,7 +14843,7 @@
       <c r="K357" s="11"/>
       <c r="M357" s="16"/>
     </row>
-    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A358" s="11" t="s">
         <v>709</v>
       </c>
@@ -14882,7 +14880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A359" s="11" t="s">
         <v>711</v>
       </c>
@@ -14907,7 +14905,7 @@
       </c>
       <c r="K359" s="11"/>
     </row>
-    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360" s="11" t="s">
         <v>713</v>
       </c>
@@ -14935,7 +14933,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A361" s="11" t="s">
         <v>715</v>
       </c>
@@ -14963,7 +14961,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A362" s="11" t="s">
         <v>717</v>
       </c>
@@ -14988,7 +14986,7 @@
       </c>
       <c r="K362" s="11"/>
     </row>
-    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A363" s="11" t="s">
         <v>718</v>
       </c>
@@ -15014,7 +15012,7 @@
       <c r="K363" s="11"/>
       <c r="M363" s="1"/>
     </row>
-    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A364" s="11" t="s">
         <v>720</v>
       </c>
@@ -15044,7 +15042,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A365" s="11" t="s">
         <v>724</v>
       </c>
@@ -15072,7 +15070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A366" s="11" t="s">
         <v>726</v>
       </c>
@@ -15102,7 +15100,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A367" s="11" t="s">
         <v>730</v>
       </c>
@@ -15130,7 +15128,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A368" s="11" t="s">
         <v>733</v>
       </c>
@@ -15167,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" s="11" t="s">
         <v>735</v>
       </c>
@@ -15596,7 +15594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A388" s="11" t="s">
         <v>756</v>
       </c>
@@ -15624,7 +15622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A389" s="11" t="s">
         <v>758</v>
       </c>
@@ -15649,7 +15647,7 @@
       </c>
       <c r="K389" s="11"/>
     </row>
-    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A390" s="11" t="s">
         <v>760</v>
       </c>
@@ -15705,7 +15703,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="11"/>
     </row>
-    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A392" s="11" t="s">
         <v>763</v>
       </c>
@@ -15741,7 +15739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A393" s="11" t="s">
         <v>765</v>
       </c>
@@ -15766,7 +15764,7 @@
       </c>
       <c r="K393" s="11"/>
     </row>
-    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A394" s="11" t="s">
         <v>766</v>
       </c>
@@ -15794,7 +15792,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A395" s="11" t="s">
         <v>768</v>
       </c>
@@ -15830,7 +15828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A396" s="11" t="s">
         <v>770</v>
       </c>
@@ -15865,7 +15863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A397" s="11" t="s">
         <v>774</v>
       </c>
@@ -15904,7 +15902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398" s="11" t="s">
         <v>777</v>
       </c>
@@ -15954,7 +15952,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="11"/>
     </row>
-    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A400" s="11" t="s">
         <v>780</v>
       </c>
@@ -15979,7 +15977,7 @@
       </c>
       <c r="K400" s="11"/>
     </row>
-    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A401" s="11" t="s">
         <v>781</v>
       </c>
@@ -16007,7 +16005,7 @@
       <c r="K401" s="11"/>
       <c r="M401" s="16"/>
     </row>
-    <row r="402" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A402" s="11" t="s">
         <v>783</v>
       </c>
@@ -16032,7 +16030,7 @@
       </c>
       <c r="K402" s="11"/>
     </row>
-    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A403" s="11" t="s">
         <v>785</v>
       </c>
@@ -16121,7 +16119,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="11"/>
     </row>
-    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A407" s="11" t="s">
         <v>789</v>
       </c>
@@ -16172,7 +16170,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="11"/>
     </row>
-    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A409" s="11" t="s">
         <v>753</v>
       </c>
@@ -16210,7 +16208,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>797</v>
       </c>
@@ -16243,7 +16241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>799</v>
       </c>
@@ -16270,7 +16268,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>802</v>
       </c>
@@ -16303,7 +16301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>804</v>
       </c>
@@ -16329,7 +16327,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>807</v>
       </c>
@@ -16413,7 +16411,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>813</v>
       </c>
@@ -16485,7 +16483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>817</v>
       </c>
@@ -16521,7 +16519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>819</v>
       </c>
@@ -16560,7 +16558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>821</v>
       </c>
@@ -16680,7 +16678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>828</v>
       </c>
@@ -16791,7 +16789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>834</v>
       </c>
@@ -16835,7 +16833,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>838</v>
       </c>
@@ -17017,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A439" s="11" t="s">
         <v>848</v>
       </c>
@@ -17083,7 +17081,7 @@
       <c r="N440" s="11"/>
       <c r="O440" s="11"/>
     </row>
-    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A441" s="11" t="s">
         <v>852</v>
       </c>
@@ -17145,7 +17143,7 @@
       <c r="N442" s="11"/>
       <c r="O442" s="11"/>
     </row>
-    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A443" s="11" t="s">
         <v>855</v>
       </c>
@@ -17205,7 +17203,7 @@
       <c r="N444" s="11"/>
       <c r="O444" s="11"/>
     </row>
-    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A445" s="11" t="s">
         <v>857</v>
       </c>
@@ -17238,7 +17236,7 @@
       <c r="N445" s="11"/>
       <c r="O445" s="11"/>
     </row>
-    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A446" s="11" t="s">
         <v>859</v>
       </c>
@@ -17277,7 +17275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A447" s="11" t="s">
         <v>861</v>
       </c>
@@ -17316,7 +17314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A448" s="11" t="s">
         <v>862</v>
       </c>
@@ -17347,7 +17345,7 @@
       <c r="N448" s="11"/>
       <c r="O448" s="11"/>
     </row>
-    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A449" s="11" t="s">
         <v>865</v>
       </c>
@@ -17378,7 +17376,7 @@
       <c r="N449" s="11"/>
       <c r="O449" s="11"/>
     </row>
-    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A450" s="11" t="s">
         <v>867</v>
       </c>
@@ -17520,7 +17518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A454" s="11" t="s">
         <v>877</v>
       </c>
@@ -17551,7 +17549,7 @@
       <c r="N454" s="11"/>
       <c r="O454" s="11"/>
     </row>
-    <row r="455" spans="1:19" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="23" x14ac:dyDescent="0.25">
       <c r="A455" s="11" t="s">
         <v>880</v>
       </c>
@@ -17584,7 +17582,7 @@
       <c r="N455" s="11"/>
       <c r="O455" s="11"/>
     </row>
-    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A456" s="11" t="s">
         <v>884</v>
       </c>
@@ -17684,7 +17682,7 @@
       <c r="N459" s="11"/>
       <c r="O459" s="11"/>
     </row>
-    <row r="460" spans="1:19" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="23" x14ac:dyDescent="0.25">
       <c r="A460" s="11" t="s">
         <v>891</v>
       </c>
@@ -17719,7 +17717,7 @@
       <c r="N460" s="11"/>
       <c r="O460" s="11"/>
     </row>
-    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A461" s="11" t="s">
         <v>894</v>
       </c>
@@ -17804,7 +17802,7 @@
       <c r="N463" s="11"/>
       <c r="O463" s="11"/>
     </row>
-    <row r="464" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A464" s="11" t="s">
         <v>898</v>
       </c>
@@ -17931,7 +17929,7 @@
       <c r="N468" s="11"/>
       <c r="O468" s="11"/>
     </row>
-    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A469" s="11" t="s">
         <v>64</v>
       </c>
@@ -17960,7 +17958,7 @@
       <c r="N469" s="11"/>
       <c r="O469" s="11"/>
     </row>
-    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A470" s="11" t="s">
         <v>907</v>
       </c>
@@ -18003,7 +18001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A471" s="11" t="s">
         <v>908</v>
       </c>
@@ -18036,7 +18034,7 @@
       <c r="N471" s="11"/>
       <c r="O471" s="11"/>
     </row>
-    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A472" s="11" t="s">
         <v>910</v>
       </c>
@@ -18075,7 +18073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A473" s="11" t="s">
         <v>912</v>
       </c>
@@ -18114,7 +18112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A474" s="11" t="s">
         <v>914</v>
       </c>
@@ -18143,7 +18141,7 @@
       <c r="N474" s="11"/>
       <c r="O474" s="11"/>
     </row>
-    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A475" s="11" t="s">
         <v>915</v>
       </c>
@@ -18174,7 +18172,7 @@
       <c r="N475" s="11"/>
       <c r="O475" s="11"/>
     </row>
-    <row r="476" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A476" s="11" t="s">
         <v>917</v>
       </c>
@@ -18232,7 +18230,7 @@
       <c r="N477" s="11"/>
       <c r="O477" s="11"/>
     </row>
-    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A478" s="11" t="s">
         <v>921</v>
       </c>
@@ -18261,7 +18259,7 @@
       <c r="N478" s="11"/>
       <c r="O478" s="11"/>
     </row>
-    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A479" s="11" t="s">
         <v>923</v>
       </c>
@@ -18317,7 +18315,7 @@
       <c r="N480" s="11"/>
       <c r="O480" s="11"/>
     </row>
-    <row r="481" spans="1:19" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" ht="23" x14ac:dyDescent="0.25">
       <c r="A481" s="11" t="s">
         <v>927</v>
       </c>
@@ -18506,9 +18504,9 @@
       <c r="N487" s="11"/>
       <c r="O487" s="11"/>
     </row>
-    <row r="488" spans="1:19" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -18529,24 +18527,24 @@
         <v>1</v>
       </c>
       <c r="J488" t="s">
+        <v>977</v>
+      </c>
+      <c r="K488" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="K488" s="8" t="s">
+      <c r="M488" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="M488" s="1" t="s">
+      <c r="P488">
+        <v>1</v>
+      </c>
+      <c r="S488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:19" ht="23" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
         <v>980</v>
-      </c>
-      <c r="P488">
-        <v>1</v>
-      </c>
-      <c r="S488">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489" spans="1:19" ht="23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>981</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -18567,18 +18565,18 @@
         <v>1</v>
       </c>
       <c r="J489" t="s">
+        <v>980</v>
+      </c>
+      <c r="K489" s="9" t="s">
         <v>981</v>
       </c>
-      <c r="K489" s="9" t="s">
+      <c r="M489" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="M489" s="1" t="s">
+    </row>
+    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
         <v>983</v>
-      </c>
-    </row>
-    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
-        <v>984</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -18599,16 +18597,16 @@
         <v>1</v>
       </c>
       <c r="J490" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="M490" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="M490" s="1" t="s">
-        <v>986</v>
-      </c>
       <c r="Q490" s="1"/>
     </row>
-    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -18626,9 +18624,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -18649,18 +18647,18 @@
         <v>1</v>
       </c>
       <c r="M492" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="P492">
+        <v>1</v>
+      </c>
+      <c r="S492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
         <v>988</v>
-      </c>
-      <c r="P492">
-        <v>1</v>
-      </c>
-      <c r="S492">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A493" t="s">
-        <v>989</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -18681,13 +18679,13 @@
         <v>1</v>
       </c>
       <c r="K493" t="s">
+        <v>989</v>
+      </c>
+      <c r="L493">
+        <v>1</v>
+      </c>
+      <c r="M493" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="L493">
-        <v>1</v>
-      </c>
-      <c r="M493" s="1" t="s">
-        <v>991</v>
       </c>
       <c r="P493">
         <v>1</v>
@@ -18707,9 +18705,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -18730,30 +18728,30 @@
         <v>1</v>
       </c>
       <c r="M495" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="P495">
+        <v>1</v>
+      </c>
+      <c r="S495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
         <v>993</v>
       </c>
-      <c r="P495">
-        <v>1</v>
-      </c>
-      <c r="S495">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A496" t="s">
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+      <c r="E496">
+        <v>1</v>
+      </c>
+      <c r="F496" t="s">
         <v>994</v>
-      </c>
-      <c r="C496">
-        <v>1</v>
-      </c>
-      <c r="D496">
-        <v>1</v>
-      </c>
-      <c r="E496">
-        <v>1</v>
-      </c>
-      <c r="F496" t="s">
-        <v>995</v>
       </c>
       <c r="H496" t="s">
         <v>271</v>
@@ -18764,7 +18762,7 @@
     </row>
     <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -18785,7 +18783,7 @@
         <v>1</v>
       </c>
       <c r="J497" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L497">
         <v>1</v>
@@ -18803,21 +18801,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
+        <v>997</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+      <c r="E498">
+        <v>1</v>
+      </c>
+      <c r="F498" t="s">
         <v>998</v>
-      </c>
-      <c r="C498">
-        <v>1</v>
-      </c>
-      <c r="D498">
-        <v>1</v>
-      </c>
-      <c r="E498">
-        <v>1</v>
-      </c>
-      <c r="F498" t="s">
-        <v>999</v>
       </c>
       <c r="H498" t="s">
         <v>271</v>
@@ -18826,12 +18824,12 @@
         <v>0</v>
       </c>
       <c r="M498" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="499" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A499" t="s">
-        <v>1001</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -18852,18 +18850,18 @@
         <v>1</v>
       </c>
       <c r="J499" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="K499" s="30" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M499" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="M499" s="1" t="s">
+    </row>
+    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
         <v>1003</v>
-      </c>
-    </row>
-    <row r="500" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A500" t="s">
-        <v>1004</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -18884,18 +18882,18 @@
         <v>1</v>
       </c>
       <c r="M500" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P500">
+        <v>1</v>
+      </c>
+      <c r="S500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
         <v>1005</v>
-      </c>
-      <c r="P500">
-        <v>1</v>
-      </c>
-      <c r="S500">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A501" t="s">
-        <v>1006</v>
       </c>
       <c r="C501">
         <v>1</v>
@@ -18916,25 +18914,25 @@
         <v>1</v>
       </c>
       <c r="J501" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q501" s="1"/>
+    </row>
+    <row r="502" spans="1:19" ht="23" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
         <v>1007</v>
       </c>
-      <c r="Q501" s="1"/>
-    </row>
-    <row r="502" spans="1:19" ht="23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+      <c r="F502" s="9" t="s">
         <v>1008</v>
-      </c>
-      <c r="C502">
-        <v>1</v>
-      </c>
-      <c r="D502">
-        <v>1</v>
-      </c>
-      <c r="E502">
-        <v>1</v>
-      </c>
-      <c r="F502" s="9" t="s">
-        <v>1009</v>
       </c>
       <c r="H502" t="s">
         <v>271</v>
@@ -18943,21 +18941,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="E503">
+        <v>1</v>
+      </c>
+      <c r="F503" t="s">
         <v>1010</v>
-      </c>
-      <c r="C503">
-        <v>1</v>
-      </c>
-      <c r="D503">
-        <v>1</v>
-      </c>
-      <c r="E503">
-        <v>1</v>
-      </c>
-      <c r="F503" t="s">
-        <v>1011</v>
       </c>
       <c r="H503" t="s">
         <v>271</v>
@@ -18968,7 +18966,7 @@
     </row>
     <row r="504" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -18977,12 +18975,12 @@
         <v>271</v>
       </c>
       <c r="K504" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
         <v>1013</v>
-      </c>
-    </row>
-    <row r="505" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A505" t="s">
-        <v>1014</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -19003,16 +19001,16 @@
         <v>1</v>
       </c>
       <c r="J505" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M505" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="M505" s="1" t="s">
+      <c r="Q505" s="1"/>
+    </row>
+    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
         <v>1016</v>
-      </c>
-      <c r="Q505" s="1"/>
-    </row>
-    <row r="506" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A506" t="s">
-        <v>1017</v>
       </c>
       <c r="C506">
         <v>1</v>
@@ -19036,18 +19034,18 @@
         <v>1</v>
       </c>
       <c r="M506" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="P506">
+        <v>1</v>
+      </c>
+      <c r="S506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
         <v>1018</v>
-      </c>
-      <c r="P506">
-        <v>1</v>
-      </c>
-      <c r="S506">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A507" t="s">
-        <v>1019</v>
       </c>
       <c r="C507">
         <v>1</v>
@@ -19074,25 +19072,25 @@
         <v>1</v>
       </c>
       <c r="M507" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="Q507" s="1"/>
+    </row>
+    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
         <v>1020</v>
       </c>
-      <c r="Q507" s="1"/>
-    </row>
-    <row r="508" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A508" t="s">
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+      <c r="E508">
+        <v>1</v>
+      </c>
+      <c r="F508" t="s">
         <v>1021</v>
-      </c>
-      <c r="C508">
-        <v>1</v>
-      </c>
-      <c r="D508">
-        <v>1</v>
-      </c>
-      <c r="E508">
-        <v>1</v>
-      </c>
-      <c r="F508" t="s">
-        <v>1022</v>
       </c>
       <c r="H508" t="s">
         <v>271</v>
@@ -19101,9 +19099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C509">
         <v>1</v>
@@ -19124,18 +19122,18 @@
         <v>1</v>
       </c>
       <c r="M509" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P509">
+        <v>1</v>
+      </c>
+      <c r="S509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
         <v>1024</v>
-      </c>
-      <c r="P509">
-        <v>1</v>
-      </c>
-      <c r="S509">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A510" t="s">
-        <v>1025</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -19156,7 +19154,7 @@
         <v>1</v>
       </c>
       <c r="M510" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="P510">
         <v>1</v>
@@ -19167,7 +19165,7 @@
     </row>
     <row r="511" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C511">
         <v>1</v>
@@ -19188,7 +19186,7 @@
         <v>1</v>
       </c>
       <c r="K511" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="L511">
         <v>1</v>
@@ -19206,9 +19204,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -19229,18 +19227,18 @@
         <v>1</v>
       </c>
       <c r="M512" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="P512">
+        <v>1</v>
+      </c>
+      <c r="S512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
         <v>1029</v>
-      </c>
-      <c r="P512">
-        <v>1</v>
-      </c>
-      <c r="S512">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A513" t="s">
-        <v>1030</v>
       </c>
       <c r="C513">
         <v>1</v>
@@ -19261,7 +19259,7 @@
         <v>1</v>
       </c>
       <c r="M513" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="P513">
         <v>1</v>
@@ -19270,21 +19268,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
+      <c r="E514">
+        <v>1</v>
+      </c>
+      <c r="F514" t="s">
         <v>1031</v>
-      </c>
-      <c r="C514">
-        <v>1</v>
-      </c>
-      <c r="D514">
-        <v>1</v>
-      </c>
-      <c r="E514">
-        <v>1</v>
-      </c>
-      <c r="F514" t="s">
-        <v>1032</v>
       </c>
       <c r="H514" t="s">
         <v>271</v>
@@ -19293,9 +19291,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C515">
         <v>1</v>
@@ -19316,18 +19314,18 @@
         <v>1</v>
       </c>
       <c r="M515" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P515">
+        <v>1</v>
+      </c>
+      <c r="S515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
         <v>1034</v>
-      </c>
-      <c r="P515">
-        <v>1</v>
-      </c>
-      <c r="S515">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A516" t="s">
-        <v>1035</v>
       </c>
       <c r="C516">
         <v>1</v>
@@ -19348,18 +19346,18 @@
         <v>1</v>
       </c>
       <c r="M516" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P516">
+        <v>1</v>
+      </c>
+      <c r="S516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
         <v>1036</v>
-      </c>
-      <c r="P516">
-        <v>1</v>
-      </c>
-      <c r="S516">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A517" t="s">
-        <v>1037</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -19380,7 +19378,7 @@
         <v>1</v>
       </c>
       <c r="M517" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="P517">
         <v>1</v>
@@ -19391,7 +19389,7 @@
     </row>
     <row r="518" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -19400,12 +19398,12 @@
         <v>271</v>
       </c>
       <c r="K518" s="10" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -19414,13 +19412,13 @@
         <v>271</v>
       </c>
       <c r="K519" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A520" t="s">
-        <v>1043</v>
-      </c>
       <c r="C520">
         <v>1</v>
       </c>
@@ -19431,7 +19429,7 @@
         <v>1</v>
       </c>
       <c r="F520" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H520" t="s">
         <v>271</v>
@@ -19440,9 +19438,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C521">
         <v>1</v>
@@ -19463,18 +19461,18 @@
         <v>1</v>
       </c>
       <c r="M521" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P521">
+        <v>1</v>
+      </c>
+      <c r="S521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
         <v>1045</v>
-      </c>
-      <c r="P521">
-        <v>1</v>
-      </c>
-      <c r="S521">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A522" t="s">
-        <v>1046</v>
       </c>
       <c r="C522">
         <v>1</v>
@@ -19495,15 +19493,15 @@
         <v>1</v>
       </c>
       <c r="J522" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K522" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
         <v>1047</v>
-      </c>
-    </row>
-    <row r="523" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A523" t="s">
-        <v>1048</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -19524,7 +19522,7 @@
         <v>1</v>
       </c>
       <c r="M523" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="P523">
         <v>1</v>
@@ -19535,60 +19533,39 @@
     </row>
     <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524">
+        <v>1</v>
+      </c>
+      <c r="E524">
+        <v>1</v>
+      </c>
+      <c r="G524">
+        <v>0</v>
+      </c>
+      <c r="J524" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
         <v>1050</v>
       </c>
-      <c r="C524">
-        <v>1</v>
-      </c>
-      <c r="D524">
-        <v>1</v>
-      </c>
-      <c r="E524">
-        <v>1</v>
-      </c>
-      <c r="G524">
-        <v>1</v>
-      </c>
-      <c r="H524" t="s">
-        <v>271</v>
-      </c>
-      <c r="I524">
-        <v>1</v>
-      </c>
-      <c r="K524" t="s">
+      <c r="C525">
+        <v>1</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="E525">
+        <v>1</v>
+      </c>
+      <c r="F525" t="s">
         <v>1051</v>
-      </c>
-      <c r="L524">
-        <v>1</v>
-      </c>
-      <c r="M524" t="s">
-        <v>871</v>
-      </c>
-      <c r="P524" t="s">
-        <v>271</v>
-      </c>
-      <c r="R524">
-        <v>1</v>
-      </c>
-      <c r="S524">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A525" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C525">
-        <v>1</v>
-      </c>
-      <c r="D525">
-        <v>1</v>
-      </c>
-      <c r="E525">
-        <v>1</v>
-      </c>
-      <c r="F525" t="s">
-        <v>1053</v>
       </c>
       <c r="H525" t="s">
         <v>271</v>
@@ -19597,9 +19574,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C526">
         <v>1</v>
@@ -19611,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="F526" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H526" t="s">
         <v>271</v>
@@ -19620,9 +19597,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C527">
         <v>1</v>
@@ -19634,7 +19611,7 @@
         <v>1</v>
       </c>
       <c r="F527" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H527" t="s">
         <v>271</v>
@@ -19643,9 +19620,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C528">
         <v>1</v>
@@ -19666,7 +19643,7 @@
         <v>1</v>
       </c>
       <c r="M528" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="P528">
         <v>1</v>
@@ -19677,7 +19654,7 @@
     </row>
     <row r="529" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -19688,7 +19665,7 @@
     </row>
     <row r="530" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C530">
         <v>1</v>
@@ -19702,7 +19679,7 @@
     </row>
     <row r="531" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C531">
         <v>1</v>
@@ -19716,7 +19693,7 @@
     </row>
     <row r="532" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -19727,7 +19704,7 @@
     </row>
     <row r="533" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C533">
         <v>1</v>
@@ -19742,12 +19719,12 @@
         <v>271</v>
       </c>
       <c r="K533" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="534" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="534" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C534">
         <v>1</v>
@@ -19764,16 +19741,16 @@
       <c r="I534">
         <v>0</v>
       </c>
-      <c r="K534" s="30" t="s">
-        <v>1065</v>
+      <c r="K534" t="s">
+        <v>1063</v>
       </c>
       <c r="M534" s="19" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="535" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C535">
         <v>1</v>
@@ -19785,7 +19762,7 @@
         <v>1</v>
       </c>
       <c r="F535" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H535" t="s">
         <v>271</v>
@@ -19794,9 +19771,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:19" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C536">
         <v>1</v>
@@ -19814,16 +19791,16 @@
         <v>0</v>
       </c>
       <c r="K536" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M536" s="19" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="Q536">
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>425</v>
       </c>
@@ -19842,19 +19819,19 @@
       <c r="I537">
         <v>0</v>
       </c>
-      <c r="K537" s="30" t="s">
+      <c r="K537" s="31" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M537" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Q537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
         <v>1071</v>
-      </c>
-      <c r="M537" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="Q537">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A538" t="s">
-        <v>1073</v>
       </c>
       <c r="C538">
         <v>1</v>
@@ -19875,7 +19852,7 @@
         <v>1</v>
       </c>
       <c r="M538" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="P538">
         <v>1</v>
@@ -19884,9 +19861,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C539">
         <v>1</v>
@@ -19898,7 +19875,7 @@
         <v>1</v>
       </c>
       <c r="F539" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="H539" t="s">
         <v>271</v>
@@ -19907,9 +19884,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C540">
         <v>1</v>
@@ -19929,7 +19906,7 @@
     </row>
     <row r="541" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C541">
         <v>1</v>
@@ -19946,7 +19923,7 @@
     </row>
     <row r="542" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C542">
         <v>1</v>
@@ -19961,9 +19938,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="543" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C543">
         <v>1</v>
@@ -19975,7 +19952,7 @@
         <v>1</v>
       </c>
       <c r="F543" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="H543" t="s">
         <v>271</v>
@@ -19997,7 +19974,7 @@
     </row>
     <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C545">
         <v>1</v>
@@ -20014,7 +19991,7 @@
     </row>
     <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C546">
         <v>1</v>
@@ -20031,7 +20008,7 @@
     </row>
     <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C547">
         <v>1</v>
@@ -20067,27 +20044,6 @@
         <filter val="NC"/>
         <filter val="NS,NC"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="1"/>
-        <filter val="?"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="17">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:A487 A548:A1048576">
@@ -20383,8 +20339,10 @@
     <hyperlink ref="M528" r:id="rId287" display="https://doi.org/10.1212/nxi.0000000000001148" xr:uid="{FE7AAB69-27CE-DE41-B2CA-437C1CB92387}"/>
     <hyperlink ref="M517" r:id="rId288" display="https://doi.org/10.1007/s00415-014-7264-4" xr:uid="{2527ED9F-3F53-0B48-A9D9-A8F7A592217A}"/>
     <hyperlink ref="M537" r:id="rId289" display="https://doi.org/10.1016/s1474-4422(16)00018-1" xr:uid="{BF8833F5-DB7A-CE4D-B5CE-62B875FBD87E}"/>
+    <hyperlink ref="J524" r:id="rId290" display="https://clinicaltrials.gov/show/NCT01838668" xr:uid="{050B7386-8DA0-7D43-B7A9-1F1E081296D0}"/>
+    <hyperlink ref="J259" r:id="rId291" display="https://clinicaltrials.gov/show/NCT00027300" xr:uid="{3B02B573-9E48-2546-9F9B-0EF2C1E11C49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId290"/>
+  <legacyDrawing r:id="rId292"/>
 </worksheet>
 </file>
--- a/consort/manual.xlsx
+++ b/consort/manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/consort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAEA6B1-BF82-654A-9F98-A547D3F1E44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722F53E0-6FA0-694F-B57B-2BA616A9A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-400" yWindow="560" windowWidth="28800" windowHeight="16480" xr2:uid="{A7967165-CAA9-764E-B8A7-5F77B1A90245}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{A7967165-CAA9-764E-B8A7-5F77B1A90245}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="1094">
   <si>
     <t>intervention check</t>
   </si>
@@ -3449,6 +3449,27 @@
   </si>
   <si>
     <t>iron overload</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/ct2/show/NCT02183688</t>
+  </si>
+  <si>
+    <t>Postictal Central Respiratory Dysfunction</t>
+  </si>
+  <si>
+    <t>call a p2</t>
+  </si>
+  <si>
+    <t>call it a p4</t>
+  </si>
+  <si>
+    <t>plasma exchange</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/ct2/show/NCT00883337</t>
+  </si>
+  <si>
+    <t>and related disorders</t>
   </si>
 </sst>
 </file>
@@ -3621,7 +3642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3651,13 +3672,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3665,27 +3682,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4102,8 +4099,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:GZ547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="103" workbookViewId="0">
-      <selection activeCell="O150" sqref="O150"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="103" workbookViewId="0">
+      <selection activeCell="T259" sqref="T259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4111,7 +4108,6 @@
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="7" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:208" x14ac:dyDescent="0.2">
@@ -4121,10 +4117,10 @@
       <c r="B1" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>229</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -4152,7 +4148,7 @@
       <c r="M1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="10" t="s">
         <v>938</v>
       </c>
       <c r="O1" s="10" t="s">
@@ -4575,7 +4571,6 @@
       <c r="M2" t="s">
         <v>66</v>
       </c>
-      <c r="N2"/>
       <c r="AA2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AE2" s="2"/>
@@ -4602,7 +4597,6 @@
       <c r="K3" t="s">
         <v>69</v>
       </c>
-      <c r="N3"/>
       <c r="AA3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AE3" s="2"/>
@@ -4620,8 +4614,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>68</v>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -4658,8 +4652,8 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>68</v>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -4670,7 +4664,7 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="27" t="s">
         <v>72</v>
       </c>
       <c r="O5" t="s">
@@ -4702,8 +4696,8 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>68</v>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -4714,7 +4708,7 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="27" t="s">
         <v>72</v>
       </c>
       <c r="O6" t="s">
@@ -4746,8 +4740,8 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>68</v>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -4784,8 +4778,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>68</v>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4822,8 +4816,8 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>68</v>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -4860,8 +4854,8 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>68</v>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -4875,7 +4869,7 @@
       <c r="L10" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="N10" t="s">
         <v>84</v>
       </c>
       <c r="Q10">
@@ -4901,8 +4895,8 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>62</v>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
@@ -4942,8 +4936,8 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>68</v>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -4980,8 +4974,8 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>68</v>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -5030,7 +5024,6 @@
       <c r="K14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N14"/>
       <c r="AA14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AE14" s="2"/>
@@ -5048,8 +5041,8 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>68</v>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -5107,7 +5100,6 @@
       <c r="K16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N16"/>
       <c r="AA16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AE16" s="4"/>
@@ -5125,7 +5117,6 @@
       <c r="L17" t="s">
         <v>100</v>
       </c>
-      <c r="N17"/>
       <c r="AA17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AE17" s="2"/>
@@ -5143,8 +5134,8 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>68</v>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -5156,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="N18" s="27" t="s">
+      <c r="N18" s="10" t="s">
         <v>949</v>
       </c>
       <c r="O18" s="6"/>
@@ -5184,8 +5175,8 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
-        <v>68</v>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -5222,8 +5213,8 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
-        <v>68</v>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>105</v>
@@ -5272,7 +5263,6 @@
       <c r="K21" t="s">
         <v>108</v>
       </c>
-      <c r="N21"/>
       <c r="AA21" s="4"/>
       <c r="AC21" s="2"/>
       <c r="AE21" s="2"/>
@@ -5302,7 +5292,6 @@
       <c r="L22" t="s">
         <v>111</v>
       </c>
-      <c r="N22"/>
       <c r="AA22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AE22" s="2"/>
@@ -5320,8 +5309,8 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>68</v>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -5370,7 +5359,6 @@
       <c r="K24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N24"/>
       <c r="AA24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AE24" s="4"/>
@@ -5388,8 +5376,8 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
-        <v>68</v>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -5432,8 +5420,8 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" t="s">
-        <v>68</v>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -5482,7 +5470,6 @@
       <c r="K27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N27"/>
       <c r="AA27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AE27" s="2"/>
@@ -5532,7 +5519,6 @@
       <c r="L29" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="N29"/>
       <c r="AA29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AE29" s="4"/>
@@ -5550,8 +5536,8 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
-        <v>68</v>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -5589,8 +5575,8 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>62</v>
+      <c r="E31">
+        <v>1</v>
       </c>
       <c r="G31" t="s">
         <v>86</v>
@@ -5604,7 +5590,7 @@
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="N31" s="27" t="s">
+      <c r="N31" s="10" t="s">
         <v>955</v>
       </c>
       <c r="O31" s="22" t="s">
@@ -5672,7 +5658,6 @@
       <c r="L33" t="s">
         <v>131</v>
       </c>
-      <c r="N33"/>
       <c r="AA33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AE33" s="4"/>
@@ -5775,7 +5760,6 @@
       <c r="M36">
         <v>1</v>
       </c>
-      <c r="N36"/>
       <c r="AA36" s="2"/>
       <c r="AC36" s="2"/>
       <c r="AE36" s="2"/>
@@ -5805,7 +5789,6 @@
       <c r="K37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="N37"/>
       <c r="AA37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AE37" s="2"/>
@@ -5835,7 +5818,6 @@
       <c r="K38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N38"/>
       <c r="AA38" s="4"/>
       <c r="AC38" s="2"/>
       <c r="AE38" s="2"/>
@@ -5853,8 +5835,8 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" t="s">
-        <v>62</v>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>149</v>
@@ -5942,7 +5924,6 @@
       <c r="K41" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N41"/>
       <c r="AA41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AE41" s="4"/>
@@ -5961,7 +5942,6 @@
       <c r="L42" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="N42"/>
       <c r="AA42" s="2"/>
       <c r="AC42" s="2"/>
       <c r="AE42" s="2"/>
@@ -5979,8 +5959,8 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" t="s">
-        <v>62</v>
+      <c r="E43">
+        <v>1</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43">
@@ -6105,7 +6085,6 @@
       <c r="K46" t="s">
         <v>165</v>
       </c>
-      <c r="N46"/>
       <c r="AA46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AE46" s="4"/>
@@ -6196,7 +6175,6 @@
       <c r="E49" t="s">
         <v>140</v>
       </c>
-      <c r="N49"/>
       <c r="AA49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AE49" s="2"/>
@@ -6217,7 +6195,6 @@
       <c r="E50" t="s">
         <v>140</v>
       </c>
-      <c r="N50"/>
       <c r="AA50" s="2"/>
       <c r="AC50" s="2"/>
       <c r="AE50" s="2"/>
@@ -6238,7 +6215,6 @@
       <c r="E51" t="s">
         <v>140</v>
       </c>
-      <c r="N51"/>
       <c r="AA51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AE51" s="4"/>
@@ -6259,7 +6235,6 @@
       <c r="E52" t="s">
         <v>140</v>
       </c>
-      <c r="N52"/>
       <c r="AA52" s="2"/>
       <c r="AC52" s="2"/>
       <c r="AE52" s="2"/>
@@ -6280,7 +6255,6 @@
       <c r="E53" t="s">
         <v>140</v>
       </c>
-      <c r="N53"/>
       <c r="AA53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AE53" s="4"/>
@@ -6295,7 +6269,6 @@
       <c r="E54" t="s">
         <v>140</v>
       </c>
-      <c r="N54"/>
       <c r="AA54" s="2"/>
       <c r="AC54" s="2"/>
       <c r="AE54" s="2"/>
@@ -6310,7 +6283,6 @@
       <c r="E55" t="s">
         <v>140</v>
       </c>
-      <c r="N55"/>
       <c r="AA55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AE55" s="2"/>
@@ -6325,7 +6297,6 @@
       <c r="E56" t="s">
         <v>140</v>
       </c>
-      <c r="N56"/>
       <c r="AA56" s="2"/>
       <c r="AC56" s="2"/>
       <c r="AE56" s="2"/>
@@ -6340,7 +6311,6 @@
       <c r="E57" t="s">
         <v>140</v>
       </c>
-      <c r="N57"/>
       <c r="AA57" s="2"/>
       <c r="AC57" s="2"/>
       <c r="AE57" s="2"/>
@@ -6355,7 +6325,6 @@
       <c r="E58" t="s">
         <v>140</v>
       </c>
-      <c r="N58"/>
       <c r="AA58" s="2"/>
       <c r="AC58" s="2"/>
       <c r="AE58" s="2"/>
@@ -6370,7 +6339,6 @@
       <c r="E59" t="s">
         <v>140</v>
       </c>
-      <c r="N59"/>
       <c r="AA59" s="2"/>
       <c r="AC59" s="2"/>
       <c r="AE59" s="2"/>
@@ -6385,7 +6353,6 @@
       <c r="E60" t="s">
         <v>140</v>
       </c>
-      <c r="N60"/>
       <c r="AA60" s="2"/>
       <c r="AC60" s="2"/>
       <c r="AE60" s="2"/>
@@ -6407,7 +6374,6 @@
         <v>140</v>
       </c>
       <c r="G61" s="9"/>
-      <c r="N61"/>
       <c r="AA61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AE61" s="4"/>
@@ -6422,7 +6388,6 @@
       <c r="E62" t="s">
         <v>140</v>
       </c>
-      <c r="N62"/>
       <c r="AA62" s="2"/>
       <c r="AC62" s="2"/>
       <c r="AE62" s="4"/>
@@ -6437,7 +6402,6 @@
       <c r="E63" t="s">
         <v>140</v>
       </c>
-      <c r="N63"/>
       <c r="AA63" s="2"/>
       <c r="AC63" s="2"/>
       <c r="AE63" s="2"/>
@@ -6452,7 +6416,6 @@
       <c r="E64" t="s">
         <v>140</v>
       </c>
-      <c r="N64"/>
       <c r="AA64" s="2"/>
       <c r="AC64" s="2"/>
       <c r="AE64" s="2"/>
@@ -6467,7 +6430,6 @@
       <c r="E65" t="s">
         <v>140</v>
       </c>
-      <c r="N65"/>
       <c r="AA65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AE65" s="4"/>
@@ -6482,7 +6444,6 @@
       <c r="E66" t="s">
         <v>140</v>
       </c>
-      <c r="N66"/>
       <c r="AA66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AE66" s="4"/>
@@ -6497,7 +6458,6 @@
       <c r="E67" t="s">
         <v>140</v>
       </c>
-      <c r="N67"/>
       <c r="AA67" s="2"/>
       <c r="AC67" s="2"/>
       <c r="AE67" s="2"/>
@@ -6512,7 +6472,6 @@
       <c r="E68" t="s">
         <v>140</v>
       </c>
-      <c r="N68"/>
       <c r="AA68" s="2"/>
       <c r="AC68" s="2"/>
       <c r="AE68" s="2"/>
@@ -6527,7 +6486,6 @@
       <c r="E69" t="s">
         <v>140</v>
       </c>
-      <c r="N69"/>
       <c r="AA69" s="2"/>
       <c r="AC69" s="2"/>
       <c r="AE69" s="2"/>
@@ -6542,7 +6500,6 @@
       <c r="E70" t="s">
         <v>140</v>
       </c>
-      <c r="N70"/>
       <c r="AA70" s="2"/>
       <c r="AC70" s="2"/>
       <c r="AE70" s="2"/>
@@ -6557,7 +6514,6 @@
       <c r="E71" t="s">
         <v>140</v>
       </c>
-      <c r="N71"/>
       <c r="AA71" s="2"/>
       <c r="AC71" s="2"/>
       <c r="AE71" s="2"/>
@@ -6572,7 +6528,6 @@
       <c r="E72" t="s">
         <v>140</v>
       </c>
-      <c r="N72"/>
       <c r="AA72" s="2"/>
       <c r="AC72" s="2"/>
       <c r="AE72" s="2"/>
@@ -6587,7 +6542,6 @@
       <c r="E73" t="s">
         <v>140</v>
       </c>
-      <c r="N73"/>
       <c r="AA73" s="2"/>
       <c r="AC73" s="2"/>
       <c r="AE73" s="2"/>
@@ -6602,7 +6556,6 @@
       <c r="E74" t="s">
         <v>140</v>
       </c>
-      <c r="N74"/>
       <c r="AA74" s="2"/>
       <c r="AC74" s="2"/>
       <c r="AE74" s="2"/>
@@ -6617,7 +6570,6 @@
       <c r="E75" t="s">
         <v>140</v>
       </c>
-      <c r="N75"/>
       <c r="AA75" s="2"/>
       <c r="AC75" s="2"/>
       <c r="AE75" s="2"/>
@@ -6632,7 +6584,6 @@
       <c r="E76" t="s">
         <v>140</v>
       </c>
-      <c r="N76"/>
       <c r="AA76" s="2"/>
       <c r="AC76" s="2"/>
       <c r="AE76" s="2"/>
@@ -6647,7 +6598,6 @@
       <c r="E77" t="s">
         <v>140</v>
       </c>
-      <c r="N77"/>
       <c r="AA77" s="2"/>
       <c r="AC77" s="2"/>
       <c r="AE77" s="2"/>
@@ -6662,7 +6612,6 @@
       <c r="E78" t="s">
         <v>140</v>
       </c>
-      <c r="N78"/>
       <c r="AA78" s="2"/>
       <c r="AC78" s="2"/>
       <c r="AE78" s="2"/>
@@ -6677,7 +6626,6 @@
       <c r="E79" t="s">
         <v>140</v>
       </c>
-      <c r="N79"/>
       <c r="AA79" s="2"/>
       <c r="AC79" s="2"/>
       <c r="AE79" s="2"/>
@@ -6695,7 +6643,6 @@
       <c r="E80" t="s">
         <v>201</v>
       </c>
-      <c r="N80"/>
       <c r="AA80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AE80" s="4"/>
@@ -6710,7 +6657,6 @@
       <c r="E81" t="s">
         <v>140</v>
       </c>
-      <c r="N81"/>
       <c r="AA81" s="2"/>
       <c r="AC81" s="2"/>
       <c r="AE81" s="2"/>
@@ -6725,7 +6671,6 @@
       <c r="E82" t="s">
         <v>140</v>
       </c>
-      <c r="N82"/>
       <c r="AA82" s="2"/>
       <c r="AC82" s="2"/>
       <c r="AE82" s="2"/>
@@ -6740,7 +6685,6 @@
       <c r="E83" t="s">
         <v>140</v>
       </c>
-      <c r="N83"/>
       <c r="AA83" s="2"/>
       <c r="AC83" s="2"/>
       <c r="AE83" s="2"/>
@@ -6755,7 +6699,6 @@
       <c r="E84" t="s">
         <v>140</v>
       </c>
-      <c r="N84"/>
       <c r="AA84" s="2"/>
       <c r="AC84" s="2"/>
       <c r="AE84" s="2"/>
@@ -6770,7 +6713,6 @@
       <c r="E85" t="s">
         <v>140</v>
       </c>
-      <c r="N85"/>
       <c r="AA85" s="2"/>
       <c r="AC85" s="2"/>
       <c r="AE85" s="2"/>
@@ -6785,7 +6727,6 @@
       <c r="E86" t="s">
         <v>140</v>
       </c>
-      <c r="N86"/>
       <c r="AA86" s="2"/>
       <c r="AC86" s="2"/>
       <c r="AE86" s="2"/>
@@ -6800,7 +6741,6 @@
       <c r="E87" t="s">
         <v>140</v>
       </c>
-      <c r="N87"/>
       <c r="AA87" s="2"/>
       <c r="AC87" s="2"/>
       <c r="AE87" s="2"/>
@@ -6815,7 +6755,6 @@
       <c r="E88" t="s">
         <v>140</v>
       </c>
-      <c r="N88"/>
       <c r="AA88" s="2"/>
       <c r="AC88" s="2"/>
       <c r="AE88" s="2"/>
@@ -6830,7 +6769,6 @@
       <c r="E89" t="s">
         <v>140</v>
       </c>
-      <c r="N89"/>
       <c r="AA89" s="2"/>
       <c r="AC89" s="2"/>
       <c r="AE89" s="2"/>
@@ -6845,7 +6783,6 @@
       <c r="E90" t="s">
         <v>140</v>
       </c>
-      <c r="N90"/>
       <c r="AA90" s="2"/>
       <c r="AC90" s="2"/>
       <c r="AE90" s="2"/>
@@ -6860,7 +6797,6 @@
       <c r="E91" t="s">
         <v>140</v>
       </c>
-      <c r="N91"/>
       <c r="AA91" s="2"/>
       <c r="AC91" s="2"/>
       <c r="AE91" s="2"/>
@@ -6875,7 +6811,6 @@
       <c r="E92" t="s">
         <v>140</v>
       </c>
-      <c r="N92"/>
       <c r="AA92" s="2"/>
       <c r="AC92" s="2"/>
       <c r="AE92" s="2"/>
@@ -6890,7 +6825,6 @@
       <c r="E93" t="s">
         <v>140</v>
       </c>
-      <c r="N93"/>
       <c r="AA93" s="2"/>
       <c r="AC93" s="2"/>
       <c r="AE93" s="2"/>
@@ -6905,7 +6839,6 @@
       <c r="E94" t="s">
         <v>140</v>
       </c>
-      <c r="N94"/>
       <c r="AA94" s="2"/>
       <c r="AC94" s="2"/>
       <c r="AE94" s="2"/>
@@ -6920,7 +6853,6 @@
       <c r="E95" t="s">
         <v>140</v>
       </c>
-      <c r="N95"/>
       <c r="AA95" s="2"/>
       <c r="AC95" s="2"/>
       <c r="AE95" s="2"/>
@@ -6935,7 +6867,6 @@
       <c r="E96" t="s">
         <v>140</v>
       </c>
-      <c r="N96"/>
       <c r="AA96" s="2"/>
       <c r="AC96" s="2"/>
       <c r="AE96" s="2"/>
@@ -6950,7 +6881,6 @@
       <c r="E97" t="s">
         <v>140</v>
       </c>
-      <c r="N97"/>
       <c r="AA97" s="2"/>
       <c r="AC97" s="2"/>
       <c r="AE97" s="2"/>
@@ -6965,7 +6895,6 @@
       <c r="E98" t="s">
         <v>140</v>
       </c>
-      <c r="N98"/>
       <c r="AA98" s="2"/>
       <c r="AC98" s="2"/>
       <c r="AE98" s="2"/>
@@ -6980,7 +6909,6 @@
       <c r="E99" t="s">
         <v>140</v>
       </c>
-      <c r="N99"/>
       <c r="AA99" s="2"/>
       <c r="AC99" s="2"/>
       <c r="AE99" s="2"/>
@@ -6995,7 +6923,6 @@
       <c r="E100" t="s">
         <v>140</v>
       </c>
-      <c r="N100"/>
       <c r="AA100" s="2"/>
       <c r="AC100" s="2"/>
       <c r="AE100" s="2"/>
@@ -7010,7 +6937,6 @@
       <c r="E101" t="s">
         <v>140</v>
       </c>
-      <c r="N101"/>
       <c r="AA101" s="2"/>
       <c r="AC101" s="2"/>
       <c r="AE101" s="2"/>
@@ -7025,7 +6951,6 @@
       <c r="E102" t="s">
         <v>140</v>
       </c>
-      <c r="N102"/>
       <c r="AA102" s="2"/>
       <c r="AC102" s="2"/>
       <c r="AE102" s="2"/>
@@ -7040,7 +6965,6 @@
       <c r="E103" t="s">
         <v>140</v>
       </c>
-      <c r="N103"/>
       <c r="AA103" s="2"/>
       <c r="AC103" s="2"/>
       <c r="AE103" s="2"/>
@@ -7055,7 +6979,6 @@
       <c r="E104" t="s">
         <v>140</v>
       </c>
-      <c r="N104"/>
       <c r="AA104" s="2"/>
       <c r="AC104" s="2"/>
       <c r="AE104" s="2"/>
@@ -7070,7 +6993,6 @@
       <c r="E105" t="s">
         <v>140</v>
       </c>
-      <c r="N105"/>
       <c r="AA105" s="2"/>
       <c r="AC105" s="2"/>
       <c r="AE105" s="2"/>
@@ -7085,7 +7007,6 @@
       <c r="E106" t="s">
         <v>140</v>
       </c>
-      <c r="N106"/>
       <c r="AA106" s="4"/>
       <c r="AC106" s="4"/>
       <c r="AE106" s="4"/>
@@ -7100,7 +7021,6 @@
       <c r="E107" t="s">
         <v>140</v>
       </c>
-      <c r="N107"/>
       <c r="AA107" s="2"/>
       <c r="AC107" s="2"/>
       <c r="AE107" s="2"/>
@@ -7352,7 +7272,7 @@
       <c r="K114" s="10"/>
       <c r="L114" s="10"/>
       <c r="M114" s="10"/>
-      <c r="N114" s="27" t="s">
+      <c r="N114" s="10" t="s">
         <v>246</v>
       </c>
       <c r="O114" s="10"/>
@@ -7654,7 +7574,7 @@
       <c r="K122" s="10"/>
       <c r="L122" s="10"/>
       <c r="M122" s="10"/>
-      <c r="N122" s="27" t="s">
+      <c r="N122" s="10" t="s">
         <v>263</v>
       </c>
       <c r="O122" s="10"/>
@@ -7726,7 +7646,7 @@
       <c r="K124" s="10"/>
       <c r="L124" s="10"/>
       <c r="M124" s="10"/>
-      <c r="N124" s="27" t="s">
+      <c r="N124" s="10" t="s">
         <v>955</v>
       </c>
       <c r="O124" s="10" t="s">
@@ -7810,7 +7730,7 @@
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
         <v>272</v>
       </c>
@@ -7827,7 +7747,7 @@
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -7835,22 +7755,18 @@
       <c r="J127">
         <v>1</v>
       </c>
-      <c r="K127" s="10"/>
+      <c r="K127" s="10" t="s">
+        <v>1087</v>
+      </c>
       <c r="L127" s="10"/>
       <c r="M127" s="10"/>
-      <c r="N127" s="27" t="s">
+      <c r="N127" s="10" t="s">
         <v>271</v>
       </c>
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
       <c r="Q127">
         <v>0</v>
-      </c>
-      <c r="S127">
-        <v>1</v>
-      </c>
-      <c r="T127">
-        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
@@ -7913,7 +7829,7 @@
       <c r="K129" s="10"/>
       <c r="L129" s="10"/>
       <c r="M129" s="10"/>
-      <c r="N129" s="27" t="s">
+      <c r="N129" s="10" t="s">
         <v>271</v>
       </c>
       <c r="O129" s="10"/>
@@ -8293,7 +8209,7 @@
       <c r="K140" s="10"/>
       <c r="L140" s="10"/>
       <c r="M140" s="10"/>
-      <c r="N140" s="30" t="s">
+      <c r="N140" s="28" t="s">
         <v>955</v>
       </c>
       <c r="O140" s="10"/>
@@ -8373,7 +8289,7 @@
       <c r="K142" s="10"/>
       <c r="L142" s="10"/>
       <c r="M142" s="10"/>
-      <c r="N142" s="27" t="s">
+      <c r="N142" s="10" t="s">
         <v>955</v>
       </c>
       <c r="O142" s="10" t="s">
@@ -8535,7 +8451,7 @@
       <c r="K146" s="10"/>
       <c r="L146" s="10"/>
       <c r="M146" s="10"/>
-      <c r="N146" s="27" t="s">
+      <c r="N146" s="10" t="s">
         <v>955</v>
       </c>
       <c r="O146" s="10" t="s">
@@ -8651,7 +8567,7 @@
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>313</v>
       </c>
@@ -8666,7 +8582,9 @@
         <v>1</v>
       </c>
       <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
+      <c r="G150" s="8" t="s">
+        <v>1088</v>
+      </c>
       <c r="H150" s="10">
         <v>1</v>
       </c>
@@ -8674,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" s="10"/>
       <c r="L150" s="10"/>
@@ -8686,12 +8604,6 @@
       <c r="P150" s="10"/>
       <c r="Q150">
         <v>0</v>
-      </c>
-      <c r="S150">
-        <v>1</v>
-      </c>
-      <c r="T150">
-        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
@@ -9278,7 +9190,7 @@
         <v>355</v>
       </c>
       <c r="M169" s="10"/>
-      <c r="N169" s="29" t="s">
+      <c r="N169" t="s">
         <v>951</v>
       </c>
       <c r="O169" s="20" t="s">
@@ -9610,7 +9522,7 @@
       <c r="K179" s="10"/>
       <c r="L179" s="10"/>
       <c r="M179" s="10"/>
-      <c r="N179" s="27" t="s">
+      <c r="N179" s="10" t="s">
         <v>955</v>
       </c>
       <c r="O179" s="10"/>
@@ -9861,7 +9773,7 @@
       <c r="K186" s="10"/>
       <c r="L186" s="10"/>
       <c r="M186" s="10"/>
-      <c r="N186" s="27" t="s">
+      <c r="N186" s="10" t="s">
         <v>955</v>
       </c>
       <c r="O186" s="10"/>
@@ -10159,7 +10071,7 @@
       <c r="K195" s="10"/>
       <c r="L195" s="10"/>
       <c r="M195" s="10"/>
-      <c r="N195" s="27" t="s">
+      <c r="N195" s="10" t="s">
         <v>403</v>
       </c>
       <c r="O195" s="10" t="s">
@@ -10295,7 +10207,7 @@
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="10" t="s">
         <v>415</v>
       </c>
@@ -10325,7 +10237,7 @@
         <v>416</v>
       </c>
       <c r="M200" s="10"/>
-      <c r="N200" s="27"/>
+      <c r="N200" s="10"/>
       <c r="O200" s="12" t="s">
         <v>417</v>
       </c>
@@ -10333,7 +10245,7 @@
       <c r="Q200">
         <v>1</v>
       </c>
-      <c r="T200">
+      <c r="R200">
         <v>1</v>
       </c>
     </row>
@@ -10601,7 +10513,7 @@
       <c r="O208" s="10"/>
       <c r="P208" s="10"/>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
         <v>436</v>
       </c>
@@ -10627,7 +10539,9 @@
         <v>1</v>
       </c>
       <c r="K209" s="10"/>
-      <c r="L209" s="10"/>
+      <c r="L209" s="10" t="s">
+        <v>1089</v>
+      </c>
       <c r="M209" s="10"/>
       <c r="N209" s="5" t="s">
         <v>437</v>
@@ -10638,12 +10552,6 @@
         <v>1</v>
       </c>
       <c r="R209" s="14">
-        <v>0</v>
-      </c>
-      <c r="S209">
-        <v>1</v>
-      </c>
-      <c r="T209">
         <v>1</v>
       </c>
     </row>
@@ -11858,7 +11766,7 @@
       <c r="K248" s="10"/>
       <c r="L248" s="10"/>
       <c r="M248" s="10"/>
-      <c r="N248" s="27" t="s">
+      <c r="N248" s="10" t="s">
         <v>509</v>
       </c>
       <c r="O248" s="10"/>
@@ -12138,7 +12046,7 @@
       <c r="O258" s="10"/>
       <c r="P258" s="10"/>
     </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
         <v>522</v>
       </c>
@@ -12174,9 +12082,6 @@
       <c r="O259" s="10"/>
       <c r="P259" s="10"/>
       <c r="Q259">
-        <v>1</v>
-      </c>
-      <c r="T259">
         <v>1</v>
       </c>
     </row>
@@ -12814,7 +12719,7 @@
       <c r="K281" s="10"/>
       <c r="L281" s="10"/>
       <c r="M281" s="10"/>
-      <c r="N281" s="27" t="s">
+      <c r="N281" s="10" t="s">
         <v>955</v>
       </c>
       <c r="O281" t="s">
@@ -13111,7 +13016,6 @@
       <c r="L291" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="N291"/>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" s="10" t="s">
@@ -13140,7 +13044,7 @@
       </c>
       <c r="K292" s="10"/>
       <c r="L292" s="10"/>
-      <c r="N292" s="27" t="s">
+      <c r="N292" s="10" t="s">
         <v>955</v>
       </c>
       <c r="O292" t="s">
@@ -13218,7 +13122,6 @@
         <v>575</v>
       </c>
       <c r="L294" s="10"/>
-      <c r="N294"/>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" s="10" t="s">
@@ -13375,7 +13278,6 @@
       <c r="L299" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="N299"/>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" s="10" t="s">
@@ -13407,7 +13309,7 @@
       <c r="M300">
         <v>1</v>
       </c>
-      <c r="N300" s="31"/>
+      <c r="N300" s="15"/>
       <c r="O300" s="15" t="s">
         <v>589</v>
       </c>
@@ -13525,7 +13427,6 @@
         <v>595</v>
       </c>
       <c r="L303" s="10"/>
-      <c r="N303"/>
     </row>
     <row r="304" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
@@ -13662,7 +13563,7 @@
       <c r="M307">
         <v>1</v>
       </c>
-      <c r="N307" s="32" t="s">
+      <c r="N307" s="13" t="s">
         <v>603</v>
       </c>
       <c r="P307">
@@ -13912,7 +13813,6 @@
         <v>621</v>
       </c>
       <c r="L314" s="10"/>
-      <c r="N314"/>
     </row>
     <row r="315" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="10" t="s">
@@ -13939,7 +13839,6 @@
         <v>623</v>
       </c>
       <c r="L315" s="10"/>
-      <c r="N315"/>
     </row>
     <row r="316" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="10" t="s">
@@ -14018,7 +13917,6 @@
       <c r="J318" s="10"/>
       <c r="K318" s="10"/>
       <c r="L318" s="10"/>
-      <c r="N318"/>
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319" s="10" t="s">
@@ -14158,9 +14056,8 @@
       <c r="L322" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="N322"/>
-    </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="10" t="s">
         <v>640</v>
       </c>
@@ -14186,14 +14083,13 @@
         <v>1</v>
       </c>
       <c r="K323" s="10"/>
-      <c r="L323" s="10"/>
+      <c r="L323" s="10" t="s">
+        <v>1090</v>
+      </c>
       <c r="Q323">
         <v>0</v>
       </c>
-      <c r="S323">
-        <v>1</v>
-      </c>
-      <c r="T323">
+      <c r="R323">
         <v>1</v>
       </c>
     </row>
@@ -14335,7 +14231,6 @@
         <v>523</v>
       </c>
       <c r="L327" s="10"/>
-      <c r="N327"/>
     </row>
     <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="10" t="s">
@@ -14358,7 +14253,6 @@
       <c r="J328" s="10"/>
       <c r="K328" s="10"/>
       <c r="L328" s="10"/>
-      <c r="N328"/>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" s="10" t="s">
@@ -14492,7 +14386,6 @@
       <c r="L332" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="N332"/>
     </row>
     <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="10" t="s">
@@ -14515,7 +14408,6 @@
       <c r="L333" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="N333"/>
     </row>
     <row r="334" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
@@ -14567,7 +14459,6 @@
       <c r="J335" s="10"/>
       <c r="K335" s="10"/>
       <c r="L335" s="10"/>
-      <c r="N335"/>
     </row>
     <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="10" t="s">
@@ -14699,7 +14590,6 @@
         <v>674</v>
       </c>
       <c r="L339" s="10"/>
-      <c r="N339"/>
     </row>
     <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="10" t="s">
@@ -14783,7 +14673,6 @@
       <c r="J342" s="10"/>
       <c r="K342" s="10"/>
       <c r="L342" s="10"/>
-      <c r="N342"/>
     </row>
     <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="10" t="s">
@@ -14810,7 +14699,6 @@
         <v>684</v>
       </c>
       <c r="L343" s="10"/>
-      <c r="N343"/>
     </row>
     <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="10" t="s">
@@ -14922,7 +14810,6 @@
       <c r="J347" s="10"/>
       <c r="K347" s="10"/>
       <c r="L347" s="10"/>
-      <c r="N347"/>
     </row>
     <row r="348" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="10" t="s">
@@ -14951,7 +14838,6 @@
         <v>697</v>
       </c>
       <c r="L348" s="10"/>
-      <c r="N348"/>
     </row>
     <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="10" t="s">
@@ -14974,7 +14860,6 @@
       <c r="J349" s="10"/>
       <c r="K349" s="10"/>
       <c r="L349" s="10"/>
-      <c r="N349"/>
     </row>
     <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="10" t="s">
@@ -14997,7 +14882,6 @@
       <c r="J350" s="10"/>
       <c r="K350" s="10"/>
       <c r="L350" s="10"/>
-      <c r="N350"/>
     </row>
     <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="10" t="s">
@@ -15020,7 +14904,6 @@
       <c r="J351" s="10"/>
       <c r="K351" s="10"/>
       <c r="L351" s="10"/>
-      <c r="N351"/>
     </row>
     <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="10" t="s">
@@ -15043,7 +14926,6 @@
       <c r="J352" s="10"/>
       <c r="K352" s="10"/>
       <c r="L352" s="10"/>
-      <c r="N352"/>
     </row>
     <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="10" t="s">
@@ -15066,7 +14948,6 @@
       <c r="J353" s="10"/>
       <c r="K353" s="10"/>
       <c r="L353" s="10"/>
-      <c r="N353"/>
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354" s="10" t="s">
@@ -15135,7 +15016,7 @@
       </c>
       <c r="K355" s="10"/>
       <c r="L355" s="10"/>
-      <c r="N355" s="27" t="s">
+      <c r="N355" s="10" t="s">
         <v>955</v>
       </c>
       <c r="Q355">
@@ -15175,7 +15056,7 @@
       </c>
       <c r="K356" s="10"/>
       <c r="L356" s="10"/>
-      <c r="N356" s="27" t="s">
+      <c r="N356" s="10" t="s">
         <v>955</v>
       </c>
       <c r="O356" t="s">
@@ -15280,7 +15161,6 @@
         <v>712</v>
       </c>
       <c r="L359" s="10"/>
-      <c r="N359"/>
     </row>
     <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="10" t="s">
@@ -15365,7 +15245,6 @@
         <v>260</v>
       </c>
       <c r="L362" s="10"/>
-      <c r="N362"/>
     </row>
     <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="10" t="s">
@@ -15453,7 +15332,6 @@
       <c r="M365">
         <v>1</v>
       </c>
-      <c r="N365"/>
     </row>
     <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="10" t="s">
@@ -15609,7 +15487,6 @@
       <c r="J370" s="10"/>
       <c r="K370" s="10"/>
       <c r="L370" s="10"/>
-      <c r="N370"/>
     </row>
     <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="10" t="s">
@@ -15632,7 +15509,6 @@
       <c r="J371" s="10"/>
       <c r="K371" s="10"/>
       <c r="L371" s="10"/>
-      <c r="N371"/>
     </row>
     <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="10" t="s">
@@ -15655,7 +15531,6 @@
       <c r="J372" s="10"/>
       <c r="K372" s="10"/>
       <c r="L372" s="10"/>
-      <c r="N372"/>
     </row>
     <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="10" t="s">
@@ -15678,7 +15553,6 @@
       <c r="J373" s="10"/>
       <c r="K373" s="10"/>
       <c r="L373" s="10"/>
-      <c r="N373"/>
     </row>
     <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="10" t="s">
@@ -15701,7 +15575,6 @@
       <c r="J374" s="10"/>
       <c r="K374" s="10"/>
       <c r="L374" s="10"/>
-      <c r="N374"/>
     </row>
     <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="10" t="s">
@@ -15724,7 +15597,6 @@
       <c r="J375" s="10"/>
       <c r="K375" s="10"/>
       <c r="L375" s="10"/>
-      <c r="N375"/>
     </row>
     <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="10" t="s">
@@ -15747,7 +15619,6 @@
       <c r="J376" s="10"/>
       <c r="K376" s="10"/>
       <c r="L376" s="10"/>
-      <c r="N376"/>
     </row>
     <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="10" t="s">
@@ -15770,7 +15641,6 @@
       <c r="J377" s="10"/>
       <c r="K377" s="10"/>
       <c r="L377" s="10"/>
-      <c r="N377"/>
     </row>
     <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="10" t="s">
@@ -15793,7 +15663,6 @@
       <c r="J378" s="10"/>
       <c r="K378" s="10"/>
       <c r="L378" s="10"/>
-      <c r="N378"/>
     </row>
     <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="10" t="s">
@@ -15816,7 +15685,6 @@
       <c r="J379" s="10"/>
       <c r="K379" s="10"/>
       <c r="L379" s="10"/>
-      <c r="N379"/>
     </row>
     <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="10" t="s">
@@ -15839,7 +15707,6 @@
       <c r="J380" s="10"/>
       <c r="K380" s="10"/>
       <c r="L380" s="10"/>
-      <c r="N380"/>
     </row>
     <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="10" t="s">
@@ -15862,7 +15729,6 @@
       <c r="J381" s="10"/>
       <c r="K381" s="10"/>
       <c r="L381" s="10"/>
-      <c r="N381"/>
     </row>
     <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="10" t="s">
@@ -15885,7 +15751,6 @@
       <c r="J382" s="10"/>
       <c r="K382" s="10"/>
       <c r="L382" s="10"/>
-      <c r="N382"/>
     </row>
     <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="10" t="s">
@@ -15908,7 +15773,6 @@
       <c r="J383" s="10"/>
       <c r="K383" s="10"/>
       <c r="L383" s="10"/>
-      <c r="N383"/>
     </row>
     <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="10" t="s">
@@ -15931,7 +15795,6 @@
       <c r="J384" s="10"/>
       <c r="K384" s="10"/>
       <c r="L384" s="10"/>
-      <c r="N384"/>
     </row>
     <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="10" t="s">
@@ -15954,7 +15817,6 @@
       <c r="J385" s="10"/>
       <c r="K385" s="10"/>
       <c r="L385" s="10"/>
-      <c r="N385"/>
     </row>
     <row r="386" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="10" t="s">
@@ -15975,7 +15837,6 @@
       <c r="J386" s="10"/>
       <c r="K386" s="9"/>
       <c r="L386" s="10"/>
-      <c r="N386"/>
     </row>
     <row r="387" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A387" s="10" t="s">
@@ -16045,7 +15906,6 @@
       <c r="M388">
         <v>1</v>
       </c>
-      <c r="N388"/>
     </row>
     <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="10" t="s">
@@ -16072,7 +15932,6 @@
         <v>759</v>
       </c>
       <c r="L389" s="10"/>
-      <c r="N389"/>
     </row>
     <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390" s="10" t="s">
@@ -16131,7 +15990,6 @@
       <c r="J391" s="10"/>
       <c r="K391" s="10"/>
       <c r="L391" s="10"/>
-      <c r="N391"/>
     </row>
     <row r="392" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A392" s="10" t="s">
@@ -16195,7 +16053,6 @@
         <v>399</v>
       </c>
       <c r="L393" s="10"/>
-      <c r="N393"/>
     </row>
     <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="10" t="s">
@@ -16390,7 +16247,6 @@
       <c r="J399" s="10"/>
       <c r="K399" s="10"/>
       <c r="L399" s="10"/>
-      <c r="N399"/>
     </row>
     <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="10" t="s">
@@ -16417,7 +16273,6 @@
         <v>360</v>
       </c>
       <c r="L400" s="10"/>
-      <c r="N400"/>
     </row>
     <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="10" t="s">
@@ -16473,7 +16328,6 @@
         <v>784</v>
       </c>
       <c r="L402" s="10"/>
-      <c r="N402"/>
     </row>
     <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="10" t="s">
@@ -16523,7 +16377,6 @@
       <c r="J404" s="10"/>
       <c r="K404" s="10"/>
       <c r="L404" s="10"/>
-      <c r="N404"/>
     </row>
     <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="10" t="s">
@@ -16546,7 +16399,6 @@
       <c r="J405" s="10"/>
       <c r="K405" s="10"/>
       <c r="L405" s="10"/>
-      <c r="N405"/>
     </row>
     <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="10" t="s">
@@ -16569,7 +16421,6 @@
       <c r="J406" s="10"/>
       <c r="K406" s="10"/>
       <c r="L406" s="10"/>
-      <c r="N406"/>
     </row>
     <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="10" t="s">
@@ -16623,7 +16474,6 @@
       <c r="J408" s="10"/>
       <c r="K408" s="10"/>
       <c r="L408" s="10"/>
-      <c r="N408"/>
     </row>
     <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="10" t="s">
@@ -16650,7 +16500,6 @@
         <v>794</v>
       </c>
       <c r="L409" s="10"/>
-      <c r="N409"/>
     </row>
     <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
@@ -16665,7 +16514,6 @@
       <c r="L410" t="s">
         <v>796</v>
       </c>
-      <c r="N410"/>
     </row>
     <row r="411" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
@@ -16789,7 +16637,6 @@
       <c r="K414" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="N414"/>
     </row>
     <row r="415" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
@@ -16817,9 +16664,8 @@
       <c r="K415" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="N415"/>
-    </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>809</v>
       </c>
@@ -16831,29 +16677,18 @@
         <v>1</v>
       </c>
       <c r="E416" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F416" s="10"/>
-      <c r="H416" s="10">
-        <v>1</v>
-      </c>
-      <c r="I416">
-        <v>1</v>
-      </c>
-      <c r="J416">
-        <v>1</v>
-      </c>
-      <c r="N416" s="29" t="s">
+      <c r="G416" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H416" s="10"/>
+      <c r="N416" t="s">
         <v>955</v>
       </c>
       <c r="Q416">
         <v>0</v>
-      </c>
-      <c r="S416">
-        <v>1</v>
-      </c>
-      <c r="T416">
-        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
@@ -16863,7 +16698,6 @@
       <c r="C417" s="10">
         <v>0</v>
       </c>
-      <c r="N417"/>
     </row>
     <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
@@ -16941,7 +16775,7 @@
       <c r="J420">
         <v>1</v>
       </c>
-      <c r="N420" s="29" t="s">
+      <c r="N420" t="s">
         <v>955</v>
       </c>
       <c r="O420" t="s">
@@ -17036,9 +16870,6 @@
       <c r="R422">
         <v>1</v>
       </c>
-      <c r="T422">
-        <v>1</v>
-      </c>
     </row>
     <row r="423" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
@@ -17074,13 +16905,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:20" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>823</v>
       </c>
       <c r="B424" s="10"/>
       <c r="C424" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D424" s="10">
         <v>1</v>
@@ -17089,15 +16920,10 @@
         <v>1</v>
       </c>
       <c r="F424" s="10"/>
-      <c r="H424" s="10">
-        <v>1</v>
-      </c>
-      <c r="I424">
-        <v>1</v>
-      </c>
-      <c r="J424">
-        <v>1</v>
-      </c>
+      <c r="G424" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H424" s="10"/>
       <c r="K424" s="7" t="s">
         <v>824</v>
       </c>
@@ -17111,12 +16937,6 @@
         <v>1</v>
       </c>
       <c r="R424" s="14"/>
-      <c r="S424">
-        <v>1</v>
-      </c>
-      <c r="T424">
-        <v>1</v>
-      </c>
     </row>
     <row r="425" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
@@ -17142,7 +16962,7 @@
       <c r="J425">
         <v>1</v>
       </c>
-      <c r="N425" s="29" t="s">
+      <c r="N425" t="s">
         <v>827</v>
       </c>
       <c r="P425">
@@ -17313,7 +17133,6 @@
       <c r="L430" t="s">
         <v>837</v>
       </c>
-      <c r="N430"/>
     </row>
     <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
@@ -17444,7 +17263,6 @@
         <v>0</v>
       </c>
       <c r="F434" s="10"/>
-      <c r="N434"/>
     </row>
     <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
@@ -17460,7 +17278,6 @@
         <v>0</v>
       </c>
       <c r="F435" s="10"/>
-      <c r="N435"/>
     </row>
     <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
@@ -17476,7 +17293,6 @@
         <v>0</v>
       </c>
       <c r="F436" s="10"/>
-      <c r="N436"/>
     </row>
     <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
@@ -17492,7 +17308,6 @@
         <v>0</v>
       </c>
       <c r="F437" s="10"/>
-      <c r="N437"/>
     </row>
     <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
@@ -17508,7 +17323,6 @@
         <v>0</v>
       </c>
       <c r="F438" s="10"/>
-      <c r="N438"/>
     </row>
     <row r="439" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A439" s="10" t="s">
@@ -17942,7 +17756,7 @@
         <v>870</v>
       </c>
       <c r="M451" s="10"/>
-      <c r="N451" s="27" t="s">
+      <c r="N451" s="10" t="s">
         <v>871</v>
       </c>
       <c r="O451" s="10" t="s">
@@ -18509,7 +18323,7 @@
       <c r="K470" s="10"/>
       <c r="L470" s="10"/>
       <c r="M470" s="10"/>
-      <c r="N470" s="33" t="s">
+      <c r="N470" s="29" t="s">
         <v>955</v>
       </c>
       <c r="O470" t="s">
@@ -19164,7 +18978,6 @@
       <c r="J491">
         <v>0</v>
       </c>
-      <c r="N491"/>
     </row>
     <row r="492" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
@@ -19246,7 +19059,6 @@
       <c r="I494" t="s">
         <v>271</v>
       </c>
-      <c r="N494"/>
     </row>
     <row r="495" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
@@ -19302,7 +19114,6 @@
       <c r="J496">
         <v>0</v>
       </c>
-      <c r="N496"/>
     </row>
     <row r="497" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
@@ -19332,7 +19143,7 @@
       <c r="M497">
         <v>1</v>
       </c>
-      <c r="N497" s="29" t="s">
+      <c r="N497" t="s">
         <v>871</v>
       </c>
       <c r="Q497">
@@ -19460,7 +19271,6 @@
       <c r="K501" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="N501"/>
       <c r="R501" s="1"/>
     </row>
     <row r="502" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
@@ -19485,7 +19295,6 @@
       <c r="J502">
         <v>0</v>
       </c>
-      <c r="N502"/>
     </row>
     <row r="503" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
@@ -19509,7 +19318,6 @@
       <c r="J503">
         <v>0</v>
       </c>
-      <c r="N503"/>
     </row>
     <row r="504" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
@@ -19524,7 +19332,6 @@
       <c r="L504" t="s">
         <v>1010</v>
       </c>
-      <c r="N504"/>
     </row>
     <row r="505" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
@@ -19646,7 +19453,6 @@
       <c r="J508">
         <v>0</v>
       </c>
-      <c r="N508"/>
     </row>
     <row r="509" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
@@ -19712,7 +19518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>1023</v>
       </c>
@@ -19726,7 +19532,7 @@
         <v>1</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="s">
         <v>271</v>
@@ -19734,23 +19540,20 @@
       <c r="J511">
         <v>1</v>
       </c>
+      <c r="K511" t="s">
+        <v>1092</v>
+      </c>
       <c r="L511" t="s">
         <v>1024</v>
       </c>
       <c r="M511">
         <v>1</v>
       </c>
-      <c r="N511" s="29" t="s">
+      <c r="N511" t="s">
         <v>871</v>
       </c>
       <c r="Q511">
         <v>0</v>
-      </c>
-      <c r="S511">
-        <v>1</v>
-      </c>
-      <c r="T511">
-        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:20" x14ac:dyDescent="0.2">
@@ -19807,7 +19610,7 @@
       <c r="J513">
         <v>1</v>
       </c>
-      <c r="N513" s="29" t="s">
+      <c r="N513" t="s">
         <v>1026</v>
       </c>
       <c r="Q513">
@@ -19839,7 +19642,6 @@
       <c r="J514">
         <v>0</v>
       </c>
-      <c r="N514"/>
     </row>
     <row r="515" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
@@ -19950,7 +19752,6 @@
       <c r="L518" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="N518"/>
     </row>
     <row r="519" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
@@ -19965,7 +19766,6 @@
       <c r="L519" t="s">
         <v>1039</v>
       </c>
-      <c r="N519"/>
     </row>
     <row r="520" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
@@ -19989,7 +19789,6 @@
       <c r="J520">
         <v>0</v>
       </c>
-      <c r="N520"/>
     </row>
     <row r="521" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
@@ -20051,7 +19850,6 @@
       <c r="L522" t="s">
         <v>1044</v>
       </c>
-      <c r="N522"/>
     </row>
     <row r="523" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
@@ -20104,7 +19902,6 @@
       <c r="K524" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="N524"/>
     </row>
     <row r="525" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
@@ -20128,7 +19925,6 @@
       <c r="J525">
         <v>0</v>
       </c>
-      <c r="N525"/>
     </row>
     <row r="526" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
@@ -20152,7 +19948,6 @@
       <c r="J526">
         <v>0</v>
       </c>
-      <c r="N526"/>
     </row>
     <row r="527" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
@@ -20176,7 +19971,6 @@
       <c r="J527">
         <v>0</v>
       </c>
-      <c r="N527"/>
     </row>
     <row r="528" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
@@ -20220,7 +20014,6 @@
       <c r="I529" t="s">
         <v>271</v>
       </c>
-      <c r="N529"/>
     </row>
     <row r="530" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
@@ -20235,7 +20028,6 @@
       <c r="I530" t="s">
         <v>271</v>
       </c>
-      <c r="N530"/>
     </row>
     <row r="531" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
@@ -20250,7 +20042,6 @@
       <c r="I531" t="s">
         <v>271</v>
       </c>
-      <c r="N531"/>
     </row>
     <row r="532" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
@@ -20262,7 +20053,6 @@
       <c r="I532" t="s">
         <v>271</v>
       </c>
-      <c r="N532"/>
     </row>
     <row r="533" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
@@ -20283,7 +20073,6 @@
       <c r="L533" t="s">
         <v>1059</v>
       </c>
-      <c r="N533"/>
     </row>
     <row r="534" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
@@ -20333,7 +20122,6 @@
       <c r="J535">
         <v>0</v>
       </c>
-      <c r="N535"/>
     </row>
     <row r="536" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
@@ -20447,7 +20235,6 @@
       <c r="J539">
         <v>0</v>
       </c>
-      <c r="N539"/>
     </row>
     <row r="540" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
@@ -20468,7 +20255,6 @@
       <c r="J540">
         <v>0</v>
       </c>
-      <c r="N540"/>
     </row>
     <row r="541" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
@@ -20486,7 +20272,6 @@
       <c r="I541" t="s">
         <v>271</v>
       </c>
-      <c r="N541"/>
     </row>
     <row r="542" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
@@ -20504,7 +20289,6 @@
       <c r="I542" t="s">
         <v>271</v>
       </c>
-      <c r="N542"/>
     </row>
     <row r="543" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
@@ -20528,7 +20312,6 @@
       <c r="J543">
         <v>0</v>
       </c>
-      <c r="N543"/>
     </row>
     <row r="544" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
@@ -20540,9 +20323,8 @@
       <c r="I544" t="s">
         <v>271</v>
       </c>
-      <c r="N544"/>
-    </row>
-    <row r="545" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>1077</v>
       </c>
@@ -20558,9 +20340,8 @@
       <c r="I545" t="s">
         <v>271</v>
       </c>
-      <c r="N545"/>
-    </row>
-    <row r="546" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>1078</v>
       </c>
@@ -20576,9 +20357,8 @@
       <c r="I546" t="s">
         <v>271</v>
       </c>
-      <c r="N546"/>
-    </row>
-    <row r="547" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>1079</v>
       </c>
@@ -20594,34 +20374,17 @@
       <c r="I547" t="s">
         <v>271</v>
       </c>
-      <c r="N547"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:GZ547" xr:uid="{2F709631-1FEE-054E-B459-7355ECDF4D6B}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="1"/>
-        <filter val="?"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="17">
-      <filters blank="1">
-        <filter val="0"/>
-      </filters>
+    <filterColumn colId="19">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:A487 A548:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K14" r:id="rId1" display="https://clinicaltrials.gov/show/NCT00142545" xr:uid="{1AC7AFCE-37AB-224F-AC29-B8DA3091E176}"/>

--- a/consort/manual.xlsx
+++ b/consort/manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/consort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722F53E0-6FA0-694F-B57B-2BA616A9A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F32420E-C0AE-7C46-8DA3-3F7D6D3A3293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{A7967165-CAA9-764E-B8A7-5F77B1A90245}"/>
+    <workbookView xWindow="14700" yWindow="600" windowWidth="28800" windowHeight="16440" xr2:uid="{A7967165-CAA9-764E-B8A7-5F77B1A90245}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4099,8 +4099,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:GZ547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="103" workbookViewId="0">
-      <selection activeCell="T259" sqref="T259"/>
+    <sheetView tabSelected="1" topLeftCell="A472" zoomScale="103" workbookViewId="0">
+      <selection activeCell="U259" sqref="A1:GZ547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/consort/manual.xlsx
+++ b/consort/manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/consort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F32420E-C0AE-7C46-8DA3-3F7D6D3A3293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E874B0-8489-514C-A243-0954816DE4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="600" windowWidth="28800" windowHeight="16440" xr2:uid="{A7967165-CAA9-764E-B8A7-5F77B1A90245}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{A7967165-CAA9-764E-B8A7-5F77B1A90245}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1100">
   <si>
     <t>intervention check</t>
   </si>
@@ -1921,9 +1921,6 @@
     <t>NCT00235716</t>
   </si>
   <si>
-    <t xml:space="preserve">ve-NCT00000173,mem-NCT00857649, </t>
-  </si>
-  <si>
     <t xml:space="preserve">just the combo </t>
   </si>
   <si>
@@ -3470,13 +3467,34 @@
   </si>
   <si>
     <t>and related disorders</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/ct2/show/NCT01263288</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>Dose Ranging Efficacy and Safety of Subcutaneous Sumatriptan in the Acute Treatment of Migraine</t>
+  </si>
+  <si>
+    <t>10.1212/wnl.57.3.397</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0140673604154901?casa_token=KCbXWQE4aMkAAAAA:A9cncyw55Q7Zvois3ZTitu5X7wxGIiZ52dM66UPq0N4ANxkZxwHiujF5FzlcybeEvEw1iM-a</t>
+  </si>
+  <si>
+    <t>ACTRN12611000774921</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/ct2/show/NCT00915473</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3560,6 +3578,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3642,7 +3685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3667,7 +3710,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3677,6 +3719,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4099,8 +4146,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:GZ547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" zoomScale="103" workbookViewId="0">
-      <selection activeCell="U259" sqref="A1:GZ547"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4115,7 +4162,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>0</v>
@@ -4127,17 +4174,17 @@
         <v>230</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>946</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>947</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>948</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>2</v>
@@ -4149,7 +4196,7 @@
         <v>4</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>5</v>
@@ -4158,16 +4205,16 @@
         <v>6</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
@@ -4664,7 +4711,7 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="26" t="s">
         <v>72</v>
       </c>
       <c r="O5" t="s">
@@ -4708,7 +4755,7 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="N6" s="26" t="s">
         <v>72</v>
       </c>
       <c r="O6" t="s">
@@ -4730,7 +4777,7 @@
       <c r="DB6" s="2"/>
       <c r="DD6" s="2"/>
     </row>
-    <row r="7" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -4744,21 +4791,21 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>1096</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>77</v>
       </c>
       <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="T7">
         <v>1</v>
       </c>
       <c r="AA7" s="4"/>
@@ -5148,7 +5195,7 @@
       </c>
       <c r="K18" s="1"/>
       <c r="N18" s="10" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -5494,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="L28" t="s">
         <v>121</v>
@@ -5591,13 +5638,13 @@
         <v>1</v>
       </c>
       <c r="N31" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="O31" s="22" t="s">
         <v>955</v>
       </c>
-      <c r="O31" s="22" t="s">
+      <c r="P31" s="23" t="s">
         <v>956</v>
-      </c>
-      <c r="P31" s="23" t="s">
-        <v>957</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7102,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:108" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>237</v>
       </c>
@@ -7119,7 +7166,7 @@
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -7127,8 +7174,12 @@
       <c r="J110">
         <v>1</v>
       </c>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
+      <c r="K110" s="30" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>1094</v>
+      </c>
       <c r="M110" s="10"/>
       <c r="N110" s="5" t="s">
         <v>238</v>
@@ -7136,9 +7187,6 @@
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
       <c r="Q110">
-        <v>1</v>
-      </c>
-      <c r="T110">
         <v>1</v>
       </c>
     </row>
@@ -7377,7 +7425,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -7385,7 +7433,9 @@
       <c r="J117">
         <v>1</v>
       </c>
-      <c r="K117" s="10"/>
+      <c r="K117" s="1" t="s">
+        <v>1099</v>
+      </c>
       <c r="L117" s="10"/>
       <c r="M117" s="10">
         <v>1</v>
@@ -7396,9 +7446,6 @@
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
       <c r="Q117">
-        <v>1</v>
-      </c>
-      <c r="T117">
         <v>1</v>
       </c>
     </row>
@@ -7647,13 +7694,13 @@
       <c r="L124" s="10"/>
       <c r="M124" s="10"/>
       <c r="N124" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O124" s="10" t="s">
         <v>267</v>
       </c>
       <c r="P124" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -7725,7 +7772,7 @@
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
       <c r="N126" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
@@ -7756,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="K127" s="10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="L127" s="10"/>
       <c r="M127" s="10"/>
@@ -7853,7 +7900,7 @@
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
       <c r="G130" s="10" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H130" s="10"/>
       <c r="K130" s="10"/>
@@ -8209,8 +8256,8 @@
       <c r="K140" s="10"/>
       <c r="L140" s="10"/>
       <c r="M140" s="10"/>
-      <c r="N140" s="28" t="s">
-        <v>955</v>
+      <c r="N140" s="27" t="s">
+        <v>954</v>
       </c>
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
@@ -8290,10 +8337,10 @@
       <c r="L142" s="10"/>
       <c r="M142" s="10"/>
       <c r="N142" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O142" s="10" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="P142" s="10"/>
       <c r="Q142">
@@ -8452,13 +8499,13 @@
       <c r="L146" s="10"/>
       <c r="M146" s="10"/>
       <c r="N146" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O146" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="P146" s="10" t="s">
         <v>960</v>
-      </c>
-      <c r="P146" s="10" t="s">
-        <v>961</v>
       </c>
       <c r="Q146">
         <v>1</v>
@@ -8583,7 +8630,7 @@
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H150" s="10">
         <v>1</v>
@@ -8695,7 +8742,7 @@
         <v>319</v>
       </c>
       <c r="P153" s="10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -8738,7 +8785,7 @@
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>323</v>
       </c>
@@ -8755,7 +8802,7 @@
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
       <c r="H155" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -8763,7 +8810,9 @@
       <c r="J155">
         <v>1</v>
       </c>
-      <c r="K155" s="10"/>
+      <c r="K155" t="s">
+        <v>1095</v>
+      </c>
       <c r="L155" s="10"/>
       <c r="M155" s="10"/>
       <c r="N155" s="5" t="s">
@@ -8772,9 +8821,6 @@
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
       <c r="Q155">
-        <v>1</v>
-      </c>
-      <c r="T155">
         <v>1</v>
       </c>
     </row>
@@ -9028,7 +9074,7 @@
       <c r="I164" s="10"/>
       <c r="J164" s="10"/>
       <c r="K164" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L164" s="10"/>
       <c r="M164" s="10"/>
@@ -9084,7 +9130,7 @@
       <c r="I166" s="10"/>
       <c r="J166" s="10"/>
       <c r="K166" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L166" s="10"/>
       <c r="M166" s="10"/>
@@ -9191,13 +9237,13 @@
       </c>
       <c r="M169" s="10"/>
       <c r="N169" t="s">
+        <v>950</v>
+      </c>
+      <c r="O169" s="20" t="s">
         <v>951</v>
       </c>
-      <c r="O169" s="20" t="s">
+      <c r="P169" s="20" t="s">
         <v>952</v>
-      </c>
-      <c r="P169" s="20" t="s">
-        <v>953</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -9523,7 +9569,7 @@
       <c r="L179" s="10"/>
       <c r="M179" s="10"/>
       <c r="N179" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
@@ -9665,7 +9711,7 @@
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>381</v>
       </c>
@@ -9682,7 +9728,7 @@
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -9690,7 +9736,9 @@
       <c r="J184">
         <v>1</v>
       </c>
-      <c r="K184" s="10"/>
+      <c r="K184" s="31" t="s">
+        <v>1097</v>
+      </c>
       <c r="L184" s="10"/>
       <c r="M184" s="10"/>
       <c r="N184" s="5" t="s">
@@ -9699,9 +9747,6 @@
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
       <c r="Q184">
-        <v>1</v>
-      </c>
-      <c r="T184">
         <v>1</v>
       </c>
     </row>
@@ -9774,7 +9819,7 @@
       <c r="L186" s="10"/>
       <c r="M186" s="10"/>
       <c r="N186" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O186" s="10"/>
       <c r="P186" s="10"/>
@@ -10437,7 +10482,7 @@
       <c r="I206" s="11"/>
       <c r="J206" s="11"/>
       <c r="K206" s="10" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L206" s="10"/>
       <c r="M206" s="10"/>
@@ -10540,7 +10585,7 @@
       </c>
       <c r="K209" s="10"/>
       <c r="L209" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="M209" s="10"/>
       <c r="N209" s="5" t="s">
@@ -10593,7 +10638,7 @@
       </c>
       <c r="F211" s="10"/>
       <c r="G211" s="11" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H211" s="10">
         <v>1</v>
@@ -11360,7 +11405,7 @@
       </c>
       <c r="F234" s="10"/>
       <c r="G234" s="10" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
@@ -11600,7 +11645,7 @@
       </c>
       <c r="F243" s="10"/>
       <c r="G243" s="11" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H243" s="10">
         <v>1</v>
@@ -11642,7 +11687,7 @@
       <c r="I244" s="10"/>
       <c r="J244" s="10"/>
       <c r="K244" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L244" s="10"/>
       <c r="M244" s="10"/>
@@ -12046,7 +12091,7 @@
       <c r="O258" s="10"/>
       <c r="P258" s="10"/>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
         <v>522</v>
       </c>
@@ -12720,10 +12765,10 @@
       <c r="L281" s="10"/>
       <c r="M281" s="10"/>
       <c r="N281" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O281" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="P281" s="10"/>
       <c r="Q281">
@@ -13045,13 +13090,13 @@
       <c r="K292" s="10"/>
       <c r="L292" s="10"/>
       <c r="N292" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O292" t="s">
+        <v>963</v>
+      </c>
+      <c r="P292" s="10" t="s">
         <v>964</v>
-      </c>
-      <c r="P292" s="10" t="s">
-        <v>965</v>
       </c>
       <c r="Q292">
         <v>1</v>
@@ -13148,14 +13193,12 @@
       <c r="J295">
         <v>1</v>
       </c>
-      <c r="K295" s="10" t="s">
+      <c r="K295" s="32"/>
+      <c r="L295" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="L295" s="10" t="s">
+      <c r="N295" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="N295" s="5" t="s">
-        <v>579</v>
       </c>
       <c r="Q295">
         <v>1</v>
@@ -13166,7 +13209,7 @@
     </row>
     <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B296" s="10"/>
       <c r="C296" s="10">
@@ -13186,16 +13229,16 @@
       <c r="I296" s="10"/>
       <c r="J296" s="10"/>
       <c r="K296" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L296" s="10"/>
       <c r="N296" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B297" s="10"/>
       <c r="C297" s="10">
@@ -13215,11 +13258,11 @@
       <c r="I297" s="10"/>
       <c r="J297" s="10"/>
       <c r="K297" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L297" s="10"/>
       <c r="N297" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.2">
@@ -13250,7 +13293,7 @@
       <c r="K298" s="10"/>
       <c r="L298" s="10"/>
       <c r="N298" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Q298">
         <v>1</v>
@@ -13261,7 +13304,7 @@
     </row>
     <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B299" s="10"/>
       <c r="C299" s="10">
@@ -13281,7 +13324,7 @@
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B300" s="10"/>
       <c r="C300" s="10">
@@ -13311,10 +13354,10 @@
       </c>
       <c r="N300" s="15"/>
       <c r="O300" s="15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P300" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q300">
         <v>1</v>
@@ -13351,7 +13394,7 @@
       <c r="K301" s="10"/>
       <c r="L301" s="10"/>
       <c r="N301" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q301">
         <v>1</v>
@@ -13362,7 +13405,7 @@
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B302" s="10"/>
       <c r="C302" s="10">
@@ -13388,7 +13431,7 @@
       <c r="K302" s="10"/>
       <c r="L302" s="10"/>
       <c r="N302" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P302">
         <v>1</v>
@@ -13402,7 +13445,7 @@
     </row>
     <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B303" s="10"/>
       <c r="C303" s="10">
@@ -13416,7 +13459,7 @@
       </c>
       <c r="F303" s="10"/>
       <c r="G303" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H303" s="10">
         <v>0</v>
@@ -13424,13 +13467,13 @@
       <c r="I303" s="10"/>
       <c r="J303" s="10"/>
       <c r="K303" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L303" s="10"/>
     </row>
     <row r="304" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B304" s="10"/>
       <c r="C304" s="10">
@@ -13444,7 +13487,7 @@
       </c>
       <c r="F304" s="10"/>
       <c r="G304" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H304" s="10">
         <v>1</v>
@@ -13461,7 +13504,7 @@
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B305" s="10"/>
       <c r="C305" s="10">
@@ -13487,7 +13530,7 @@
       <c r="K305" s="10"/>
       <c r="L305" s="10"/>
       <c r="N305" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q305">
         <v>1</v>
@@ -13498,7 +13541,7 @@
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B306" s="10"/>
       <c r="C306" s="10">
@@ -13524,7 +13567,7 @@
       <c r="K306" s="10"/>
       <c r="L306" s="10"/>
       <c r="N306" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Q306">
         <v>1</v>
@@ -13535,7 +13578,7 @@
     </row>
     <row r="307" spans="1:20" ht="20" x14ac:dyDescent="0.2">
       <c r="A307" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B307" s="10"/>
       <c r="C307" s="10">
@@ -13564,7 +13607,7 @@
         <v>1</v>
       </c>
       <c r="N307" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P307">
         <v>1</v>
@@ -13578,7 +13621,7 @@
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B308" s="10"/>
       <c r="C308" s="10">
@@ -13604,7 +13647,7 @@
       <c r="K308" s="10"/>
       <c r="L308" s="10"/>
       <c r="N308" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Q308">
         <v>1</v>
@@ -13615,7 +13658,7 @@
     </row>
     <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B309" s="10"/>
       <c r="C309" s="10">
@@ -13641,7 +13684,7 @@
       <c r="K309" s="10"/>
       <c r="L309" s="10"/>
       <c r="N309" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="Q309">
         <v>1</v>
@@ -13652,7 +13695,7 @@
     </row>
     <row r="310" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B310" s="10"/>
       <c r="C310" s="10">
@@ -13666,7 +13709,7 @@
       </c>
       <c r="F310" s="10"/>
       <c r="G310" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H310" s="10">
         <v>1</v>
@@ -13680,7 +13723,7 @@
       <c r="K310" s="10"/>
       <c r="L310" s="10"/>
       <c r="N310" s="16" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P310">
         <v>0</v>
@@ -13717,7 +13760,7 @@
         <v>1</v>
       </c>
       <c r="N311" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="Q311">
         <v>1</v>
@@ -13728,7 +13771,7 @@
     </row>
     <row r="312" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B312" s="10"/>
       <c r="C312" s="10">
@@ -13742,7 +13785,7 @@
       </c>
       <c r="F312" s="10"/>
       <c r="G312" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H312" s="10">
         <v>0</v>
@@ -13750,16 +13793,16 @@
       <c r="I312" s="10"/>
       <c r="J312" s="10"/>
       <c r="K312" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L312" s="10"/>
       <c r="N312" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B313" s="10"/>
       <c r="C313" s="10">
@@ -13779,16 +13822,16 @@
       <c r="I313" s="10"/>
       <c r="J313" s="10"/>
       <c r="K313" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L313" s="10"/>
       <c r="N313" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="314" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B314" s="10"/>
       <c r="C314" s="10">
@@ -13802,7 +13845,7 @@
       </c>
       <c r="F314" s="10"/>
       <c r="G314" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H314" s="10">
         <v>0</v>
@@ -13810,13 +13853,13 @@
       <c r="I314" s="10"/>
       <c r="J314" s="10"/>
       <c r="K314" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L314" s="10"/>
     </row>
     <row r="315" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B315" s="10"/>
       <c r="C315" s="10">
@@ -13836,13 +13879,13 @@
       <c r="I315" s="10"/>
       <c r="J315" s="10"/>
       <c r="K315" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L315" s="10"/>
     </row>
     <row r="316" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B316" s="10"/>
       <c r="C316" s="10">
@@ -13862,16 +13905,16 @@
       <c r="I316" s="10"/>
       <c r="J316" s="10"/>
       <c r="K316" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L316" s="10"/>
       <c r="N316" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B317" s="10"/>
       <c r="C317" s="10">
@@ -13885,7 +13928,7 @@
       </c>
       <c r="F317" s="10"/>
       <c r="G317" s="10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H317" s="10">
         <v>0</v>
@@ -13893,16 +13936,16 @@
       <c r="I317" s="10"/>
       <c r="J317" s="10"/>
       <c r="K317" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L317" s="10"/>
       <c r="N317" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B318" s="10"/>
       <c r="C318" s="10">
@@ -13920,7 +13963,7 @@
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B319" s="10"/>
       <c r="C319" s="10">
@@ -13946,7 +13989,7 @@
       <c r="K319" s="10"/>
       <c r="L319" s="10"/>
       <c r="N319" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P319">
         <v>0</v>
@@ -13966,7 +14009,7 @@
     </row>
     <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B320" s="10"/>
       <c r="C320" s="10">
@@ -13992,7 +14035,7 @@
       <c r="K320" s="10"/>
       <c r="L320" s="10"/>
       <c r="N320" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q320">
         <v>1</v>
@@ -14003,7 +14046,7 @@
     </row>
     <row r="321" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B321" s="10"/>
       <c r="C321" s="10">
@@ -14017,7 +14060,7 @@
       </c>
       <c r="F321" s="10"/>
       <c r="G321" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H321" s="10">
         <v>1</v>
@@ -14031,7 +14074,7 @@
       <c r="K321" s="10"/>
       <c r="L321" s="10"/>
       <c r="N321" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P321">
         <v>0</v>
@@ -14039,7 +14082,7 @@
     </row>
     <row r="322" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B322" s="10"/>
       <c r="C322" s="10">
@@ -14054,12 +14097,12 @@
       <c r="J322" s="10"/>
       <c r="K322" s="10"/>
       <c r="L322" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B323" s="10"/>
       <c r="C323" s="10">
@@ -14084,7 +14127,7 @@
       </c>
       <c r="K323" s="10"/>
       <c r="L323" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q323">
         <v>0</v>
@@ -14095,7 +14138,7 @@
     </row>
     <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B324" s="10"/>
       <c r="C324" s="10">
@@ -14121,7 +14164,7 @@
       <c r="K324" s="10"/>
       <c r="L324" s="10"/>
       <c r="N324" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q324">
         <v>1</v>
@@ -14132,7 +14175,7 @@
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B325" s="10"/>
       <c r="C325" s="10">
@@ -14169,7 +14212,7 @@
     </row>
     <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B326" s="10"/>
       <c r="C326" s="10">
@@ -14183,7 +14226,7 @@
       </c>
       <c r="F326" s="10"/>
       <c r="G326" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H326" s="10">
         <v>1</v>
@@ -14200,7 +14243,7 @@
         <v>1</v>
       </c>
       <c r="N326" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P326">
         <v>1</v>
@@ -14208,7 +14251,7 @@
     </row>
     <row r="327" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B327" s="10"/>
       <c r="C327" s="10">
@@ -14234,7 +14277,7 @@
     </row>
     <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B328" s="10"/>
       <c r="C328" s="10">
@@ -14256,7 +14299,7 @@
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B329" s="10"/>
       <c r="C329" s="10">
@@ -14282,7 +14325,7 @@
       <c r="K329" s="10"/>
       <c r="L329" s="10"/>
       <c r="N329" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q329">
         <v>1</v>
@@ -14293,7 +14336,7 @@
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B330" s="10"/>
       <c r="C330" s="10">
@@ -14319,7 +14362,7 @@
       <c r="K330" s="10"/>
       <c r="L330" s="10"/>
       <c r="N330" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Q330">
         <v>1</v>
@@ -14330,7 +14373,7 @@
     </row>
     <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B331" s="10"/>
       <c r="C331" s="10">
@@ -14350,18 +14393,18 @@
       <c r="I331" s="10"/>
       <c r="J331" s="10"/>
       <c r="K331" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="L331" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="L331" s="10" t="s">
+      <c r="N331" t="s">
         <v>655</v>
-      </c>
-      <c r="N331" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="332" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B332" s="10"/>
       <c r="C332" s="10">
@@ -14381,15 +14424,15 @@
       <c r="I332" s="10"/>
       <c r="J332" s="10"/>
       <c r="K332" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="L332" s="10" t="s">
         <v>658</v>
-      </c>
-      <c r="L332" s="10" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B333" s="10"/>
       <c r="C333" s="10">
@@ -14406,12 +14449,12 @@
       <c r="J333" s="10"/>
       <c r="K333" s="10"/>
       <c r="L333" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="334" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B334" s="10"/>
       <c r="C334" s="10">
@@ -14425,7 +14468,7 @@
       </c>
       <c r="F334" s="10"/>
       <c r="G334" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H334" s="10">
         <v>1</v>
@@ -14439,12 +14482,12 @@
       <c r="K334" s="10"/>
       <c r="L334" s="10"/>
       <c r="N334" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B335" s="10"/>
       <c r="C335" s="10">
@@ -14462,7 +14505,7 @@
     </row>
     <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B336" s="10"/>
       <c r="C336" s="10">
@@ -14486,19 +14529,19 @@
         <v>0</v>
       </c>
       <c r="K336" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L336" s="10"/>
       <c r="M336">
         <v>1</v>
       </c>
       <c r="N336" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A337" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B337" s="10"/>
       <c r="C337" s="18">
@@ -14524,7 +14567,7 @@
       <c r="K337" s="10"/>
       <c r="L337" s="10"/>
       <c r="N337" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P337">
         <v>0</v>
@@ -14538,7 +14581,7 @@
     </row>
     <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B338" s="10"/>
       <c r="C338" s="10">
@@ -14558,16 +14601,16 @@
       <c r="I338" s="10"/>
       <c r="J338" s="10"/>
       <c r="K338" s="10" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L338" s="10"/>
       <c r="N338" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="339" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B339" s="10"/>
       <c r="C339" s="10">
@@ -14587,13 +14630,13 @@
       <c r="I339" s="10"/>
       <c r="J339" s="10"/>
       <c r="K339" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L339" s="10"/>
     </row>
     <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B340" s="10"/>
       <c r="C340" s="10">
@@ -14613,16 +14656,16 @@
       <c r="I340" s="10"/>
       <c r="J340" s="10"/>
       <c r="K340" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L340" s="10"/>
       <c r="N340" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B341" s="10"/>
       <c r="C341" s="10">
@@ -14642,21 +14685,21 @@
       <c r="I341" s="10"/>
       <c r="J341" s="10"/>
       <c r="K341" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="L341" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="L341" s="10" t="s">
+      <c r="M341">
+        <v>1</v>
+      </c>
+      <c r="N341" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="M341">
-        <v>1</v>
-      </c>
-      <c r="N341" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B342" s="10"/>
       <c r="C342" s="10">
@@ -14676,7 +14719,7 @@
     </row>
     <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B343" s="10"/>
       <c r="C343" s="10">
@@ -14696,13 +14739,13 @@
       <c r="I343" s="10"/>
       <c r="J343" s="10"/>
       <c r="K343" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L343" s="10"/>
     </row>
     <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B344" s="10"/>
       <c r="C344" s="10">
@@ -14722,16 +14765,16 @@
       <c r="I344" s="10"/>
       <c r="J344" s="10"/>
       <c r="K344" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L344" s="10"/>
       <c r="N344" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B345" s="10"/>
       <c r="C345" s="10">
@@ -14751,16 +14794,16 @@
       <c r="I345" s="10"/>
       <c r="J345" s="10"/>
       <c r="K345" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L345" s="10"/>
       <c r="N345" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="346" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B346" s="10"/>
       <c r="C346" s="10">
@@ -14774,7 +14817,7 @@
       </c>
       <c r="F346" s="10"/>
       <c r="G346" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H346" s="10">
         <v>0</v>
@@ -14782,16 +14825,16 @@
       <c r="I346" s="10"/>
       <c r="J346" s="10"/>
       <c r="K346" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L346" s="10"/>
       <c r="N346" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B347" s="10"/>
       <c r="C347" s="10">
@@ -14813,7 +14856,7 @@
     </row>
     <row r="348" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B348" s="10"/>
       <c r="C348" s="10">
@@ -14827,7 +14870,7 @@
       </c>
       <c r="F348" s="10"/>
       <c r="G348" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H348" s="10">
         <v>0</v>
@@ -14835,13 +14878,13 @@
       <c r="I348" s="10"/>
       <c r="J348" s="10"/>
       <c r="K348" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L348" s="10"/>
     </row>
     <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B349" s="10"/>
       <c r="C349" s="10">
@@ -14863,7 +14906,7 @@
     </row>
     <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B350" s="10"/>
       <c r="C350" s="10">
@@ -14885,7 +14928,7 @@
     </row>
     <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B351" s="10"/>
       <c r="C351" s="10">
@@ -14907,7 +14950,7 @@
     </row>
     <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B352" s="10"/>
       <c r="C352" s="10">
@@ -14929,7 +14972,7 @@
     </row>
     <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B353" s="10"/>
       <c r="C353" s="10">
@@ -14951,7 +14994,7 @@
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B354" s="10"/>
       <c r="C354" s="10">
@@ -14977,7 +15020,7 @@
       <c r="K354" s="10"/>
       <c r="L354" s="10"/>
       <c r="N354" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="P354">
         <v>0</v>
@@ -14991,7 +15034,7 @@
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A355" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B355" s="10"/>
       <c r="C355" s="10">
@@ -15017,7 +15060,7 @@
       <c r="K355" s="10"/>
       <c r="L355" s="10"/>
       <c r="N355" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="Q355">
         <v>0</v>
@@ -15031,7 +15074,7 @@
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A356" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B356" s="10"/>
       <c r="C356" s="10">
@@ -15057,13 +15100,13 @@
       <c r="K356" s="10"/>
       <c r="L356" s="10"/>
       <c r="N356" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O356" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P356" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Q356">
         <v>1</v>
@@ -15074,7 +15117,7 @@
     </row>
     <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B357" s="10"/>
       <c r="C357" s="10">
@@ -15101,7 +15144,7 @@
     </row>
     <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B358" s="10"/>
       <c r="C358" s="10">
@@ -15127,7 +15170,7 @@
       <c r="K358" s="10"/>
       <c r="L358" s="10"/>
       <c r="O358" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q358">
         <v>1</v>
@@ -15138,7 +15181,7 @@
     </row>
     <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B359" s="10"/>
       <c r="C359" s="10">
@@ -15158,13 +15201,13 @@
       <c r="I359" s="10"/>
       <c r="J359" s="10"/>
       <c r="K359" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L359" s="10"/>
     </row>
     <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B360" s="10"/>
       <c r="C360" s="10">
@@ -15188,12 +15231,12 @@
       </c>
       <c r="L360" s="10"/>
       <c r="N360" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="361" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B361" s="10"/>
       <c r="C361" s="10">
@@ -15217,12 +15260,12 @@
       </c>
       <c r="L361" s="10"/>
       <c r="N361" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="362" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B362" s="10"/>
       <c r="C362" s="10">
@@ -15248,7 +15291,7 @@
     </row>
     <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B363" s="10"/>
       <c r="C363" s="10">
@@ -15268,14 +15311,14 @@
       <c r="I363" s="10"/>
       <c r="J363" s="10"/>
       <c r="K363" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L363" s="10"/>
       <c r="N363" s="1"/>
     </row>
     <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B364" s="10"/>
       <c r="C364" s="10">
@@ -15295,18 +15338,18 @@
       <c r="I364" s="10"/>
       <c r="J364" s="10"/>
       <c r="K364" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="L364" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="L364" s="10" t="s">
+      <c r="N364" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="N364" s="1" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B365" s="10"/>
       <c r="C365" s="10">
@@ -15326,7 +15369,7 @@
       <c r="I365" s="10"/>
       <c r="J365" s="10"/>
       <c r="K365" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L365" s="10"/>
       <c r="M365">
@@ -15335,7 +15378,7 @@
     </row>
     <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B366" s="10"/>
       <c r="C366" s="10">
@@ -15349,7 +15392,7 @@
       </c>
       <c r="F366" s="10"/>
       <c r="G366" s="10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H366" s="10">
         <v>0</v>
@@ -15357,16 +15400,16 @@
       <c r="I366" s="10"/>
       <c r="J366" s="10"/>
       <c r="K366" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L366" s="10"/>
       <c r="N366" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B367" s="10"/>
       <c r="C367" s="10">
@@ -15386,16 +15429,16 @@
       <c r="I367" s="10"/>
       <c r="J367" s="10"/>
       <c r="K367" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L367" s="10"/>
       <c r="N367" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B368" s="10"/>
       <c r="C368" s="10">
@@ -15421,11 +15464,11 @@
         <v>0</v>
       </c>
       <c r="K368" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L368" s="10"/>
       <c r="N368" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P368">
         <v>0</v>
@@ -15433,7 +15476,7 @@
     </row>
     <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B369" s="10"/>
       <c r="C369" s="10">
@@ -15460,15 +15503,15 @@
       <c r="L369" s="10"/>
       <c r="N369" s="14"/>
       <c r="O369" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P369" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B370" s="10"/>
       <c r="C370" s="10">
@@ -15490,7 +15533,7 @@
     </row>
     <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B371" s="10"/>
       <c r="C371" s="10">
@@ -15512,7 +15555,7 @@
     </row>
     <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B372" s="10"/>
       <c r="C372" s="10">
@@ -15534,7 +15577,7 @@
     </row>
     <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B373" s="10"/>
       <c r="C373" s="10">
@@ -15556,7 +15599,7 @@
     </row>
     <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B374" s="10"/>
       <c r="C374" s="10">
@@ -15578,7 +15621,7 @@
     </row>
     <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B375" s="10"/>
       <c r="C375" s="10">
@@ -15600,7 +15643,7 @@
     </row>
     <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B376" s="10"/>
       <c r="C376" s="10">
@@ -15622,7 +15665,7 @@
     </row>
     <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B377" s="10"/>
       <c r="C377" s="10">
@@ -15644,7 +15687,7 @@
     </row>
     <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B378" s="10"/>
       <c r="C378" s="10">
@@ -15666,7 +15709,7 @@
     </row>
     <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B379" s="10"/>
       <c r="C379" s="10">
@@ -15688,7 +15731,7 @@
     </row>
     <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B380" s="10"/>
       <c r="C380" s="10">
@@ -15710,7 +15753,7 @@
     </row>
     <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B381" s="10"/>
       <c r="C381" s="10">
@@ -15732,7 +15775,7 @@
     </row>
     <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B382" s="10"/>
       <c r="C382" s="10">
@@ -15754,7 +15797,7 @@
     </row>
     <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B383" s="10"/>
       <c r="C383" s="10">
@@ -15776,7 +15819,7 @@
     </row>
     <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B384" s="10"/>
       <c r="C384" s="10">
@@ -15798,7 +15841,7 @@
     </row>
     <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B385" s="10"/>
       <c r="C385" s="10">
@@ -15820,7 +15863,7 @@
     </row>
     <row r="386" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B386" s="10">
         <v>1</v>
@@ -15840,7 +15883,7 @@
     </row>
     <row r="387" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A387" s="10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B387" s="10"/>
       <c r="C387" s="10">
@@ -15866,7 +15909,7 @@
       <c r="K387" s="10"/>
       <c r="L387" s="10"/>
       <c r="O387" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="Q387">
         <v>0</v>
@@ -15880,7 +15923,7 @@
     </row>
     <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B388" s="10"/>
       <c r="C388" s="10">
@@ -15900,7 +15943,7 @@
       <c r="I388" s="10"/>
       <c r="J388" s="10"/>
       <c r="K388" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="L388" s="10"/>
       <c r="M388">
@@ -15909,7 +15952,7 @@
     </row>
     <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B389" s="10"/>
       <c r="C389" s="10">
@@ -15929,13 +15972,13 @@
       <c r="I389" s="10"/>
       <c r="J389" s="10"/>
       <c r="K389" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L389" s="10"/>
     </row>
     <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B390" s="10"/>
       <c r="C390" s="10">
@@ -15961,7 +16004,7 @@
       <c r="K390" s="10"/>
       <c r="L390" s="10"/>
       <c r="N390" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="P390">
         <v>1</v>
@@ -15975,7 +16018,7 @@
     </row>
     <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B391" s="10"/>
       <c r="C391" s="10">
@@ -15991,9 +16034,9 @@
       <c r="K391" s="10"/>
       <c r="L391" s="10"/>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B392" s="10"/>
       <c r="C392" s="10">
@@ -16008,7 +16051,7 @@
       <c r="F392" s="10"/>
       <c r="G392" s="10"/>
       <c r="H392" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392">
         <v>1</v>
@@ -16016,21 +16059,20 @@
       <c r="J392">
         <v>1</v>
       </c>
-      <c r="K392" s="10"/>
+      <c r="K392" s="32" t="s">
+        <v>1098</v>
+      </c>
       <c r="L392" s="10"/>
       <c r="N392" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Q392">
-        <v>1</v>
-      </c>
-      <c r="T392">
         <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B393" s="10"/>
       <c r="C393" s="10">
@@ -16056,7 +16098,7 @@
     </row>
     <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="10" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B394" s="10"/>
       <c r="C394" s="10">
@@ -16080,12 +16122,12 @@
       </c>
       <c r="L394" s="10"/>
       <c r="N394" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="395" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A395" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B395" s="10"/>
       <c r="C395" s="10">
@@ -16111,7 +16153,7 @@
       <c r="K395" s="10"/>
       <c r="L395" s="10"/>
       <c r="N395" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q395">
         <v>1</v>
@@ -16122,7 +16164,7 @@
     </row>
     <row r="396" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B396" s="10"/>
       <c r="C396" s="10">
@@ -16136,7 +16178,7 @@
       </c>
       <c r="F396" s="10"/>
       <c r="G396" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H396" s="10">
         <v>1</v>
@@ -16147,10 +16189,10 @@
       <c r="J396" s="10"/>
       <c r="K396" s="10"/>
       <c r="L396" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="N396" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="N396" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="P396">
         <v>0</v>
@@ -16158,7 +16200,7 @@
     </row>
     <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B397" s="10"/>
       <c r="C397" s="10">
@@ -16187,10 +16229,10 @@
         <v>1</v>
       </c>
       <c r="N397" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="O397" t="s">
         <v>775</v>
-      </c>
-      <c r="O397" t="s">
-        <v>776</v>
       </c>
       <c r="P397">
         <v>0</v>
@@ -16198,7 +16240,7 @@
     </row>
     <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B398" s="10"/>
       <c r="C398" s="10">
@@ -16223,12 +16265,12 @@
       <c r="L398" s="10"/>
       <c r="N398" s="14"/>
       <c r="O398" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B399" s="10"/>
       <c r="C399" s="10">
@@ -16250,7 +16292,7 @@
     </row>
     <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B400" s="10"/>
       <c r="C400" s="10">
@@ -16276,7 +16318,7 @@
     </row>
     <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B401" s="10"/>
       <c r="C401" s="10">
@@ -16290,7 +16332,7 @@
       </c>
       <c r="F401" s="10"/>
       <c r="G401" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H401" s="10">
         <v>1</v>
@@ -16305,7 +16347,7 @@
     </row>
     <row r="402" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B402" s="10"/>
       <c r="C402" s="10">
@@ -16325,13 +16367,13 @@
       <c r="I402" s="10"/>
       <c r="J402" s="10"/>
       <c r="K402" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L402" s="10"/>
     </row>
     <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B403" s="10"/>
       <c r="C403" s="10">
@@ -16358,7 +16400,7 @@
     </row>
     <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B404" s="10"/>
       <c r="C404" s="10">
@@ -16380,7 +16422,7 @@
     </row>
     <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B405" s="10"/>
       <c r="C405" s="10">
@@ -16402,7 +16444,7 @@
     </row>
     <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B406" s="10"/>
       <c r="C406" s="10">
@@ -16424,7 +16466,7 @@
     </row>
     <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B407" s="10"/>
       <c r="C407" s="10">
@@ -16444,18 +16486,18 @@
       <c r="I407" s="10"/>
       <c r="J407" s="10"/>
       <c r="K407" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="L407" s="10" t="s">
         <v>790</v>
       </c>
-      <c r="L407" s="10" t="s">
+      <c r="N407" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="N407" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B408" s="10"/>
       <c r="C408" s="10">
@@ -16477,7 +16519,7 @@
     </row>
     <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B409" s="10"/>
       <c r="C409" s="10">
@@ -16497,13 +16539,13 @@
       <c r="I409" s="10"/>
       <c r="J409" s="10"/>
       <c r="K409" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L409" s="10"/>
     </row>
     <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C410" s="10">
         <v>0</v>
@@ -16512,12 +16554,12 @@
       <c r="E410" s="10"/>
       <c r="F410" s="10"/>
       <c r="L410" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="411" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B411" s="10"/>
       <c r="C411" s="10">
@@ -16540,7 +16582,7 @@
         <v>1</v>
       </c>
       <c r="N411" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Q411">
         <v>1</v>
@@ -16551,7 +16593,7 @@
     </row>
     <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B412" s="10"/>
       <c r="C412" s="10">
@@ -16570,16 +16612,16 @@
       <c r="I412" s="10"/>
       <c r="J412" s="10"/>
       <c r="K412" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M412" s="1"/>
       <c r="N412" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="413" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B413" s="10"/>
       <c r="C413" s="10">
@@ -16602,7 +16644,7 @@
         <v>1</v>
       </c>
       <c r="N413" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q413">
         <v>1</v>
@@ -16613,7 +16655,7 @@
     </row>
     <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B414" s="10"/>
       <c r="C414" s="10">
@@ -16627,7 +16669,7 @@
       </c>
       <c r="F414" s="10"/>
       <c r="G414" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H414" s="10">
         <v>0</v>
@@ -16635,12 +16677,12 @@
       <c r="I414" s="10"/>
       <c r="J414" s="10"/>
       <c r="K414" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="415" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B415" s="10"/>
       <c r="C415" s="10">
@@ -16654,7 +16696,7 @@
       </c>
       <c r="F415" s="10"/>
       <c r="G415" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H415" s="10">
         <v>0</v>
@@ -16662,12 +16704,12 @@
       <c r="I415" s="10"/>
       <c r="J415" s="10"/>
       <c r="K415" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="416" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B416" s="10"/>
       <c r="C416" s="10">
@@ -16681,11 +16723,11 @@
       </c>
       <c r="F416" s="10"/>
       <c r="G416" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H416" s="10"/>
       <c r="N416" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="Q416">
         <v>0</v>
@@ -16693,7 +16735,7 @@
     </row>
     <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C417" s="10">
         <v>0</v>
@@ -16701,7 +16743,7 @@
     </row>
     <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B418" s="10"/>
       <c r="C418" s="10">
@@ -16714,12 +16756,12 @@
       <c r="I418" s="10"/>
       <c r="J418" s="10"/>
       <c r="N418" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B419" s="10"/>
       <c r="C419">
@@ -16733,7 +16775,7 @@
       </c>
       <c r="F419" s="10"/>
       <c r="G419" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H419" s="10">
         <v>1</v>
@@ -16745,7 +16787,7 @@
         <v>0</v>
       </c>
       <c r="N419" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="P419">
         <v>0</v>
@@ -16753,7 +16795,7 @@
     </row>
     <row r="420" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B420" s="10"/>
       <c r="C420" s="10">
@@ -16776,13 +16818,13 @@
         <v>1</v>
       </c>
       <c r="N420" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O420" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="P420" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q420">
         <v>0</v>
@@ -16796,7 +16838,7 @@
     </row>
     <row r="421" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B421" s="10"/>
       <c r="C421" s="10">
@@ -16819,7 +16861,7 @@
         <v>1</v>
       </c>
       <c r="N421" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="P421">
         <v>0</v>
@@ -16833,7 +16875,7 @@
     </row>
     <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B422" s="10"/>
       <c r="C422" s="10">
@@ -16856,10 +16898,10 @@
         <v>1</v>
       </c>
       <c r="N422" s="20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O422" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P422" t="s">
         <v>135</v>
@@ -16873,7 +16915,7 @@
     </row>
     <row r="423" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B423" s="10"/>
       <c r="C423" s="10">
@@ -16896,7 +16938,7 @@
         <v>1</v>
       </c>
       <c r="N423" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Q423">
         <v>1</v>
@@ -16907,7 +16949,7 @@
     </row>
     <row r="424" spans="1:20" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B424" s="10"/>
       <c r="C424" s="10">
@@ -16921,14 +16963,14 @@
       </c>
       <c r="F424" s="10"/>
       <c r="G424" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H424" s="10"/>
       <c r="K424" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="N424" s="5" t="s">
         <v>824</v>
-      </c>
-      <c r="N424" s="5" t="s">
-        <v>825</v>
       </c>
       <c r="P424">
         <v>1</v>
@@ -16940,7 +16982,7 @@
     </row>
     <row r="425" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B425" s="10"/>
       <c r="C425" s="10">
@@ -16963,7 +17005,7 @@
         <v>1</v>
       </c>
       <c r="N425" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="P425">
         <v>1</v>
@@ -16983,7 +17025,7 @@
     </row>
     <row r="426" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B426" s="10"/>
       <c r="C426" s="10">
@@ -17006,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="N426" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Q426">
         <v>1</v>
@@ -17017,7 +17059,7 @@
     </row>
     <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B427" s="10"/>
       <c r="C427" s="10">
@@ -17040,18 +17082,18 @@
         <v>1</v>
       </c>
       <c r="N427" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Q427">
         <v>1</v>
       </c>
-      <c r="R427" s="26">
+      <c r="R427" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B428" s="10"/>
       <c r="C428" s="10">
@@ -17074,7 +17116,7 @@
         <v>1</v>
       </c>
       <c r="N428" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q428">
         <v>1</v>
@@ -17091,7 +17133,7 @@
     </row>
     <row r="429" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B429" s="10"/>
       <c r="C429" s="10">
@@ -17114,7 +17156,7 @@
         <v>1</v>
       </c>
       <c r="N429" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="Q429">
         <v>1</v>
@@ -17125,18 +17167,18 @@
     </row>
     <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
+        <v>835</v>
+      </c>
+      <c r="C430" s="10">
+        <v>0</v>
+      </c>
+      <c r="L430" t="s">
         <v>836</v>
-      </c>
-      <c r="C430" s="10">
-        <v>0</v>
-      </c>
-      <c r="L430" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B431" s="10"/>
       <c r="C431" s="10">
@@ -17165,7 +17207,7 @@
         <v>1</v>
       </c>
       <c r="N431" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P431">
         <v>0</v>
@@ -17173,7 +17215,7 @@
     </row>
     <row r="432" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B432" s="10"/>
       <c r="C432" s="10">
@@ -17196,7 +17238,7 @@
         <v>1</v>
       </c>
       <c r="N432" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="P432" s="9">
         <v>1</v>
@@ -17232,7 +17274,7 @@
       </c>
       <c r="F433" s="10"/>
       <c r="G433" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H433" s="10">
         <v>0</v>
@@ -17251,7 +17293,7 @@
     </row>
     <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C434" s="10">
         <v>1</v>
@@ -17266,7 +17308,7 @@
     </row>
     <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C435" s="10">
         <v>1</v>
@@ -17281,7 +17323,7 @@
     </row>
     <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C436" s="10">
         <v>1</v>
@@ -17296,7 +17338,7 @@
     </row>
     <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C437" s="10">
         <v>1</v>
@@ -17311,7 +17353,7 @@
     </row>
     <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C438" s="10">
         <v>1</v>
@@ -17326,7 +17368,7 @@
     </row>
     <row r="439" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A439" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B439" s="10"/>
       <c r="C439" s="10">
@@ -17353,11 +17395,11 @@
         <v>1</v>
       </c>
       <c r="L439" s="10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M439" s="10"/>
       <c r="N439" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O439" s="10"/>
       <c r="P439" s="10"/>
@@ -17370,7 +17412,7 @@
     </row>
     <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B440" s="10"/>
       <c r="C440" s="10">
@@ -17394,7 +17436,7 @@
     </row>
     <row r="441" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A441" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B441" s="10"/>
       <c r="C441" s="10">
@@ -17423,7 +17465,7 @@
         <v>1</v>
       </c>
       <c r="N441" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O441" s="10"/>
       <c r="P441" s="10"/>
@@ -17436,7 +17478,7 @@
     </row>
     <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B442" s="10"/>
       <c r="C442" s="10">
@@ -17458,7 +17500,7 @@
     </row>
     <row r="443" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A443" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B443" s="10"/>
       <c r="C443" s="10">
@@ -17485,7 +17527,7 @@
       <c r="L443" s="10"/>
       <c r="M443" s="10"/>
       <c r="N443" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O443" s="10"/>
       <c r="P443" s="10"/>
@@ -17498,7 +17540,7 @@
     </row>
     <row r="444" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B444" s="10"/>
       <c r="C444" s="10">
@@ -17520,7 +17562,7 @@
     </row>
     <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B445" s="10"/>
       <c r="C445" s="10">
@@ -17534,7 +17576,7 @@
       </c>
       <c r="F445" s="10"/>
       <c r="G445" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H445" s="10">
         <v>1</v>
@@ -17554,7 +17596,7 @@
     </row>
     <row r="446" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A446" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B446" s="10"/>
       <c r="C446" s="10">
@@ -17581,7 +17623,7 @@
       <c r="L446" s="10"/>
       <c r="M446" s="10"/>
       <c r="N446" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="O446" s="10"/>
       <c r="P446" s="10"/>
@@ -17594,7 +17636,7 @@
     </row>
     <row r="447" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A447" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B447" s="10"/>
       <c r="C447" s="10">
@@ -17621,7 +17663,7 @@
       <c r="L447" s="10"/>
       <c r="M447" s="10"/>
       <c r="N447" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O447" s="10"/>
       <c r="P447" s="10"/>
@@ -17634,7 +17676,7 @@
     </row>
     <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B448" s="10"/>
       <c r="C448" s="10">
@@ -17654,19 +17696,19 @@
       <c r="I448" s="10"/>
       <c r="J448" s="10"/>
       <c r="K448" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L448" s="10"/>
       <c r="M448" s="10"/>
       <c r="N448" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="O448" s="10"/>
       <c r="P448" s="10"/>
     </row>
     <row r="449" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B449" s="10"/>
       <c r="C449" s="10">
@@ -17686,19 +17728,19 @@
       <c r="I449" s="10"/>
       <c r="J449" s="10"/>
       <c r="K449" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="L449" s="10"/>
       <c r="M449" s="10"/>
       <c r="N449" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O449" s="10"/>
       <c r="P449" s="10"/>
     </row>
     <row r="450" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B450" s="10"/>
       <c r="C450" s="10">
@@ -17718,7 +17760,7 @@
       <c r="I450" s="10"/>
       <c r="J450" s="10"/>
       <c r="K450" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="L450" s="10"/>
       <c r="M450" s="10"/>
@@ -17728,7 +17770,7 @@
     </row>
     <row r="451" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A451" s="10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B451" s="10"/>
       <c r="C451" s="10">
@@ -17753,14 +17795,14 @@
       </c>
       <c r="K451" s="10"/>
       <c r="L451" s="10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M451" s="10"/>
       <c r="N451" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="O451" s="10" t="s">
         <v>871</v>
-      </c>
-      <c r="O451" s="10" t="s">
-        <v>872</v>
       </c>
       <c r="P451" s="10"/>
       <c r="Q451">
@@ -17775,7 +17817,7 @@
     </row>
     <row r="452" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B452" s="10"/>
       <c r="C452" s="10">
@@ -17797,7 +17839,7 @@
     </row>
     <row r="453" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B453" s="10"/>
       <c r="C453" s="10">
@@ -17811,7 +17853,7 @@
       </c>
       <c r="F453" s="10"/>
       <c r="G453" s="11" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H453" s="10">
         <v>1</v>
@@ -17826,10 +17868,10 @@
       <c r="L453" s="10"/>
       <c r="M453" s="10"/>
       <c r="N453" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="O453" s="10" t="s">
         <v>875</v>
-      </c>
-      <c r="O453" s="10" t="s">
-        <v>876</v>
       </c>
       <c r="P453" s="10">
         <v>0</v>
@@ -17841,7 +17883,7 @@
     </row>
     <row r="454" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B454" s="10"/>
       <c r="C454" s="10">
@@ -17861,19 +17903,19 @@
       <c r="I454" s="10"/>
       <c r="J454" s="10"/>
       <c r="K454" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L454" s="10"/>
       <c r="M454" s="10"/>
       <c r="N454" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="O454" s="10"/>
       <c r="P454" s="10"/>
     </row>
     <row r="455" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B455" s="10"/>
       <c r="C455" s="10">
@@ -17887,7 +17929,7 @@
       </c>
       <c r="F455" s="10"/>
       <c r="G455" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H455" s="10">
         <v>0</v>
@@ -17895,19 +17937,19 @@
       <c r="I455" s="10"/>
       <c r="J455" s="10"/>
       <c r="K455" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L455" s="10"/>
       <c r="M455" s="10"/>
       <c r="N455" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O455" s="10"/>
       <c r="P455" s="10"/>
     </row>
     <row r="456" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B456" s="10"/>
       <c r="C456" s="10">
@@ -17927,19 +17969,19 @@
       <c r="I456" s="10"/>
       <c r="J456" s="10"/>
       <c r="K456" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="L456" s="10"/>
       <c r="M456" s="10"/>
       <c r="N456" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O456" s="10"/>
       <c r="P456" s="10"/>
     </row>
     <row r="457" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B457" s="10"/>
       <c r="C457" s="10">
@@ -17961,7 +18003,7 @@
     </row>
     <row r="458" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B458" s="10"/>
       <c r="C458" s="10">
@@ -17983,7 +18025,7 @@
     </row>
     <row r="459" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B459" s="10"/>
       <c r="C459" s="10">
@@ -18002,7 +18044,7 @@
       <c r="J459" s="10"/>
       <c r="K459" s="10"/>
       <c r="L459" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="M459" s="10"/>
       <c r="N459" s="10"/>
@@ -18011,7 +18053,7 @@
     </row>
     <row r="460" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B460" s="10"/>
       <c r="C460" s="10">
@@ -18025,7 +18067,7 @@
       </c>
       <c r="F460" s="10"/>
       <c r="G460" s="8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H460" s="10">
         <v>1</v>
@@ -18040,14 +18082,14 @@
       <c r="L460" s="10"/>
       <c r="M460" s="10"/>
       <c r="N460" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="O460" s="10"/>
       <c r="P460" s="10"/>
     </row>
     <row r="461" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A461" s="10" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B461" s="10"/>
       <c r="C461" s="10">
@@ -18074,7 +18116,7 @@
       <c r="L461" s="10"/>
       <c r="M461" s="10"/>
       <c r="N461" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O461" s="10"/>
       <c r="P461" s="10"/>
@@ -18087,7 +18129,7 @@
     </row>
     <row r="462" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B462" s="10"/>
       <c r="C462" s="10">
@@ -18111,7 +18153,7 @@
     </row>
     <row r="463" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B463" s="10"/>
       <c r="C463" s="10">
@@ -18135,7 +18177,7 @@
     </row>
     <row r="464" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B464" s="10"/>
       <c r="C464" s="10">
@@ -18155,7 +18197,7 @@
       <c r="I464" s="10"/>
       <c r="J464" s="10"/>
       <c r="K464" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="L464" s="10"/>
       <c r="M464" s="10"/>
@@ -18165,7 +18207,7 @@
     </row>
     <row r="465" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B465" s="10"/>
       <c r="C465" s="10">
@@ -18191,7 +18233,7 @@
     </row>
     <row r="466" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B466" s="10"/>
       <c r="C466" s="10">
@@ -18208,14 +18250,14 @@
       <c r="L466" s="10"/>
       <c r="M466" s="10"/>
       <c r="N466" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O466" s="10"/>
       <c r="P466" s="10"/>
     </row>
     <row r="467" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B467" s="10"/>
       <c r="C467" s="10">
@@ -18241,11 +18283,11 @@
     </row>
     <row r="468" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B468" s="10"/>
       <c r="C468" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D468" s="10"/>
       <c r="E468" s="10"/>
@@ -18256,11 +18298,11 @@
       <c r="J468" s="10"/>
       <c r="K468" s="10"/>
       <c r="L468" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M468" s="10"/>
       <c r="N468" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="O468" s="10"/>
       <c r="P468" s="10"/>
@@ -18287,7 +18329,7 @@
       <c r="I469" s="10"/>
       <c r="J469" s="10"/>
       <c r="K469" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L469" s="10"/>
       <c r="M469" s="10"/>
@@ -18297,7 +18339,7 @@
     </row>
     <row r="470" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A470" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B470" s="10"/>
       <c r="C470" s="10">
@@ -18323,14 +18365,14 @@
       <c r="K470" s="10"/>
       <c r="L470" s="10"/>
       <c r="M470" s="10"/>
-      <c r="N470" s="29" t="s">
-        <v>955</v>
+      <c r="N470" s="28" t="s">
+        <v>954</v>
       </c>
       <c r="O470" t="s">
+        <v>969</v>
+      </c>
+      <c r="P470" t="s">
         <v>970</v>
-      </c>
-      <c r="P470" t="s">
-        <v>971</v>
       </c>
       <c r="Q470">
         <v>1</v>
@@ -18341,7 +18383,7 @@
     </row>
     <row r="471" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B471" s="10"/>
       <c r="C471" s="10">
@@ -18364,18 +18406,18 @@
       <c r="J471" s="10"/>
       <c r="K471" s="10"/>
       <c r="L471" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M471" s="10"/>
       <c r="N471" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="O471" s="10"/>
       <c r="P471" s="10"/>
     </row>
     <row r="472" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A472" s="10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B472" s="10"/>
       <c r="C472" s="10">
@@ -18402,7 +18444,7 @@
       <c r="L472" s="10"/>
       <c r="M472" s="10"/>
       <c r="N472" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O472" s="10"/>
       <c r="P472" s="10"/>
@@ -18415,7 +18457,7 @@
     </row>
     <row r="473" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A473" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B473" s="10"/>
       <c r="C473" s="10">
@@ -18442,7 +18484,7 @@
       <c r="L473" s="1"/>
       <c r="M473" s="10"/>
       <c r="N473" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O473" s="10"/>
       <c r="P473" s="10"/>
@@ -18455,7 +18497,7 @@
     </row>
     <row r="474" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B474" s="10"/>
       <c r="C474" s="10">
@@ -18475,7 +18517,7 @@
       <c r="I474" s="10"/>
       <c r="J474" s="10"/>
       <c r="K474" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L474" s="10"/>
       <c r="M474" s="10"/>
@@ -18485,7 +18527,7 @@
     </row>
     <row r="475" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B475" s="10"/>
       <c r="C475" s="10">
@@ -18510,14 +18552,14 @@
       <c r="L475" s="10"/>
       <c r="M475" s="10"/>
       <c r="N475" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="O475" s="10"/>
       <c r="P475" s="10"/>
     </row>
     <row r="476" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="10" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B476" s="10"/>
       <c r="C476" s="10">
@@ -18531,7 +18573,7 @@
       </c>
       <c r="F476" s="10"/>
       <c r="G476" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H476" s="10">
         <v>1</v>
@@ -18546,14 +18588,14 @@
       <c r="L476" s="10"/>
       <c r="M476" s="10"/>
       <c r="N476" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O476" s="10"/>
       <c r="P476" s="10"/>
     </row>
     <row r="477" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B477" s="10"/>
       <c r="C477" s="10">
@@ -18577,7 +18619,7 @@
     </row>
     <row r="478" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B478" s="10"/>
       <c r="C478" s="10">
@@ -18597,7 +18639,7 @@
       <c r="I478" s="10"/>
       <c r="J478" s="10"/>
       <c r="K478" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L478" s="10"/>
       <c r="M478" s="10"/>
@@ -18607,7 +18649,7 @@
     </row>
     <row r="479" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B479" s="10"/>
       <c r="C479" s="10">
@@ -18627,7 +18669,7 @@
       <c r="I479" s="10"/>
       <c r="J479" s="10"/>
       <c r="K479" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L479" s="10"/>
       <c r="M479" s="10"/>
@@ -18637,7 +18679,7 @@
     </row>
     <row r="480" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="10" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B480" s="10"/>
       <c r="C480" s="10">
@@ -18656,7 +18698,7 @@
       <c r="J480" s="10"/>
       <c r="K480" s="10"/>
       <c r="L480" s="10" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="M480" s="10"/>
       <c r="N480" s="10"/>
@@ -18665,7 +18707,7 @@
     </row>
     <row r="481" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B481" s="10"/>
       <c r="C481" s="10">
@@ -18679,7 +18721,7 @@
       </c>
       <c r="F481" s="10"/>
       <c r="G481" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H481" s="10">
         <v>0</v>
@@ -18687,7 +18729,7 @@
       <c r="I481" s="10"/>
       <c r="J481" s="10"/>
       <c r="K481" s="10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L481" s="10"/>
       <c r="M481" s="10"/>
@@ -18697,7 +18739,7 @@
     </row>
     <row r="482" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B482" s="10"/>
       <c r="C482" s="10">
@@ -18723,7 +18765,7 @@
     </row>
     <row r="483" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B483" s="10"/>
       <c r="C483" s="10">
@@ -18749,7 +18791,7 @@
     </row>
     <row r="484" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B484" s="10"/>
       <c r="C484" s="10">
@@ -18775,7 +18817,7 @@
     </row>
     <row r="485" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B485" s="10"/>
       <c r="C485" s="10">
@@ -18801,7 +18843,7 @@
     </row>
     <row r="486" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="10" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B486" s="10"/>
       <c r="C486" s="10">
@@ -18827,7 +18869,7 @@
     </row>
     <row r="487" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B487" s="10">
         <v>1</v>
@@ -18849,10 +18891,10 @@
       <c r="I487" s="10"/>
       <c r="J487" s="10"/>
       <c r="K487" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="L487" s="10" t="s">
         <v>935</v>
-      </c>
-      <c r="L487" s="10" t="s">
-        <v>936</v>
       </c>
       <c r="M487" s="10"/>
       <c r="N487" s="10"/>
@@ -18861,7 +18903,7 @@
     </row>
     <row r="488" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -18882,13 +18924,13 @@
         <v>1</v>
       </c>
       <c r="K488" t="s">
+        <v>974</v>
+      </c>
+      <c r="L488" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="L488" s="7" t="s">
+      <c r="N488" s="5" t="s">
         <v>976</v>
-      </c>
-      <c r="N488" s="5" t="s">
-        <v>977</v>
       </c>
       <c r="Q488">
         <v>1</v>
@@ -18899,7 +18941,7 @@
     </row>
     <row r="489" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -18920,18 +18962,18 @@
         <v>1</v>
       </c>
       <c r="K489" t="s">
+        <v>977</v>
+      </c>
+      <c r="L489" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="L489" s="8" t="s">
+      <c r="N489" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="N489" s="1" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="490" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -18952,16 +18994,16 @@
         <v>1</v>
       </c>
       <c r="K490" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="N490" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="N490" s="1" t="s">
-        <v>983</v>
       </c>
       <c r="R490" s="1"/>
     </row>
     <row r="491" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -18981,7 +19023,7 @@
     </row>
     <row r="492" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -19002,7 +19044,7 @@
         <v>1</v>
       </c>
       <c r="N492" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="Q492">
         <v>1</v>
@@ -19013,7 +19055,7 @@
     </row>
     <row r="493" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -19034,13 +19076,13 @@
         <v>1</v>
       </c>
       <c r="L493" t="s">
+        <v>986</v>
+      </c>
+      <c r="M493">
+        <v>1</v>
+      </c>
+      <c r="N493" s="5" t="s">
         <v>987</v>
-      </c>
-      <c r="M493">
-        <v>1</v>
-      </c>
-      <c r="N493" s="5" t="s">
-        <v>988</v>
       </c>
       <c r="Q493">
         <v>1</v>
@@ -19051,7 +19093,7 @@
     </row>
     <row r="494" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C494">
         <v>0</v>
@@ -19062,7 +19104,7 @@
     </row>
     <row r="495" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -19083,7 +19125,7 @@
         <v>1</v>
       </c>
       <c r="N495" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="Q495">
         <v>1</v>
@@ -19094,19 +19136,19 @@
     </row>
     <row r="496" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
+        <v>990</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+      <c r="E496">
+        <v>1</v>
+      </c>
+      <c r="G496" t="s">
         <v>991</v>
-      </c>
-      <c r="C496">
-        <v>1</v>
-      </c>
-      <c r="D496">
-        <v>1</v>
-      </c>
-      <c r="E496">
-        <v>1</v>
-      </c>
-      <c r="G496" t="s">
-        <v>992</v>
       </c>
       <c r="I496" t="s">
         <v>271</v>
@@ -19117,7 +19159,7 @@
     </row>
     <row r="497" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -19138,13 +19180,13 @@
         <v>1</v>
       </c>
       <c r="K497" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="M497">
         <v>1</v>
       </c>
       <c r="N497" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q497">
         <v>0</v>
@@ -19158,19 +19200,19 @@
     </row>
     <row r="498" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
+        <v>994</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+      <c r="E498">
+        <v>1</v>
+      </c>
+      <c r="G498" t="s">
         <v>995</v>
-      </c>
-      <c r="C498">
-        <v>1</v>
-      </c>
-      <c r="D498">
-        <v>1</v>
-      </c>
-      <c r="E498">
-        <v>1</v>
-      </c>
-      <c r="G498" t="s">
-        <v>996</v>
       </c>
       <c r="I498" t="s">
         <v>271</v>
@@ -19179,12 +19221,12 @@
         <v>0</v>
       </c>
       <c r="N498" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="499" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -19205,18 +19247,18 @@
         <v>1</v>
       </c>
       <c r="K499" t="s">
-        <v>978</v>
-      </c>
-      <c r="L499" s="24" t="s">
+        <v>977</v>
+      </c>
+      <c r="L499" s="33" t="s">
+        <v>998</v>
+      </c>
+      <c r="N499" s="1" t="s">
         <v>999</v>
-      </c>
-      <c r="N499" s="1" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="500" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -19237,7 +19279,7 @@
         <v>1</v>
       </c>
       <c r="N500" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="Q500">
         <v>1</v>
@@ -19248,7 +19290,7 @@
     </row>
     <row r="501" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C501">
         <v>1</v>
@@ -19269,25 +19311,25 @@
         <v>1</v>
       </c>
       <c r="K501" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="R501" s="1"/>
     </row>
     <row r="502" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+      <c r="G502" s="8" t="s">
         <v>1005</v>
-      </c>
-      <c r="C502">
-        <v>1</v>
-      </c>
-      <c r="D502">
-        <v>1</v>
-      </c>
-      <c r="E502">
-        <v>1</v>
-      </c>
-      <c r="G502" s="8" t="s">
-        <v>1006</v>
       </c>
       <c r="I502" t="s">
         <v>271</v>
@@ -19298,19 +19340,19 @@
     </row>
     <row r="503" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="E503">
+        <v>1</v>
+      </c>
+      <c r="G503" t="s">
         <v>1007</v>
-      </c>
-      <c r="C503">
-        <v>1</v>
-      </c>
-      <c r="D503">
-        <v>1</v>
-      </c>
-      <c r="E503">
-        <v>1</v>
-      </c>
-      <c r="G503" t="s">
-        <v>1008</v>
       </c>
       <c r="I503" t="s">
         <v>271</v>
@@ -19321,7 +19363,7 @@
     </row>
     <row r="504" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -19330,12 +19372,12 @@
         <v>271</v>
       </c>
       <c r="L504" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="505" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -19356,16 +19398,16 @@
         <v>1</v>
       </c>
       <c r="K505" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N505" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="N505" s="1" t="s">
-        <v>1013</v>
       </c>
       <c r="R505" s="1"/>
     </row>
     <row r="506" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C506">
         <v>1</v>
@@ -19389,7 +19431,7 @@
         <v>1</v>
       </c>
       <c r="N506" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Q506">
         <v>1</v>
@@ -19400,7 +19442,7 @@
     </row>
     <row r="507" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C507">
         <v>1</v>
@@ -19427,25 +19469,25 @@
         <v>1</v>
       </c>
       <c r="N507" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="R507" s="1"/>
     </row>
     <row r="508" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+      <c r="E508">
+        <v>1</v>
+      </c>
+      <c r="G508" t="s">
         <v>1018</v>
-      </c>
-      <c r="C508">
-        <v>1</v>
-      </c>
-      <c r="D508">
-        <v>1</v>
-      </c>
-      <c r="E508">
-        <v>1</v>
-      </c>
-      <c r="G508" t="s">
-        <v>1019</v>
       </c>
       <c r="I508" t="s">
         <v>271</v>
@@ -19456,7 +19498,7 @@
     </row>
     <row r="509" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C509">
         <v>1</v>
@@ -19477,7 +19519,7 @@
         <v>1</v>
       </c>
       <c r="N509" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="Q509">
         <v>1</v>
@@ -19488,7 +19530,7 @@
     </row>
     <row r="510" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -19509,7 +19551,7 @@
         <v>1</v>
       </c>
       <c r="N510" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="Q510">
         <v>1</v>
@@ -19520,7 +19562,7 @@
     </row>
     <row r="511" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C511">
         <v>1</v>
@@ -19541,16 +19583,16 @@
         <v>1</v>
       </c>
       <c r="K511" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="L511" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M511">
         <v>1</v>
       </c>
       <c r="N511" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q511">
         <v>0</v>
@@ -19558,7 +19600,7 @@
     </row>
     <row r="512" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -19579,7 +19621,7 @@
         <v>1</v>
       </c>
       <c r="N512" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="Q512">
         <v>1</v>
@@ -19590,7 +19632,7 @@
     </row>
     <row r="513" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C513">
         <v>1</v>
@@ -19611,7 +19653,7 @@
         <v>1</v>
       </c>
       <c r="N513" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="Q513">
         <v>1</v>
@@ -19622,19 +19664,19 @@
     </row>
     <row r="514" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
+      <c r="E514">
+        <v>1</v>
+      </c>
+      <c r="G514" t="s">
         <v>1028</v>
-      </c>
-      <c r="C514">
-        <v>1</v>
-      </c>
-      <c r="D514">
-        <v>1</v>
-      </c>
-      <c r="E514">
-        <v>1</v>
-      </c>
-      <c r="G514" t="s">
-        <v>1029</v>
       </c>
       <c r="I514" t="s">
         <v>271</v>
@@ -19645,7 +19687,7 @@
     </row>
     <row r="515" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C515">
         <v>1</v>
@@ -19666,7 +19708,7 @@
         <v>1</v>
       </c>
       <c r="N515" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="Q515">
         <v>1</v>
@@ -19677,7 +19719,7 @@
     </row>
     <row r="516" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C516">
         <v>1</v>
@@ -19698,7 +19740,7 @@
         <v>1</v>
       </c>
       <c r="N516" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Q516">
         <v>1</v>
@@ -19709,7 +19751,7 @@
     </row>
     <row r="517" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -19730,7 +19772,7 @@
         <v>1</v>
       </c>
       <c r="N517" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="Q517">
         <v>1</v>
@@ -19741,7 +19783,7 @@
     </row>
     <row r="518" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -19750,12 +19792,12 @@
         <v>271</v>
       </c>
       <c r="L518" s="9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="519" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -19764,12 +19806,12 @@
         <v>271</v>
       </c>
       <c r="L519" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="520" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C520">
         <v>1</v>
@@ -19781,7 +19823,7 @@
         <v>1</v>
       </c>
       <c r="G520" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I520" t="s">
         <v>271</v>
@@ -19792,7 +19834,7 @@
     </row>
     <row r="521" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C521">
         <v>1</v>
@@ -19813,7 +19855,7 @@
         <v>1</v>
       </c>
       <c r="N521" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q521">
         <v>1</v>
@@ -19824,7 +19866,7 @@
     </row>
     <row r="522" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C522">
         <v>1</v>
@@ -19845,15 +19887,15 @@
         <v>1</v>
       </c>
       <c r="K522" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L522" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="523" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -19874,7 +19916,7 @@
         <v>1</v>
       </c>
       <c r="N523" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="Q523">
         <v>1</v>
@@ -19885,7 +19927,7 @@
     </row>
     <row r="524" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C524">
         <v>1</v>
@@ -19900,24 +19942,24 @@
         <v>0</v>
       </c>
       <c r="K524" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="525" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="E525">
+        <v>1</v>
+      </c>
+      <c r="G525" t="s">
         <v>1048</v>
-      </c>
-      <c r="C525">
-        <v>1</v>
-      </c>
-      <c r="D525">
-        <v>1</v>
-      </c>
-      <c r="E525">
-        <v>1</v>
-      </c>
-      <c r="G525" t="s">
-        <v>1049</v>
       </c>
       <c r="I525" t="s">
         <v>271</v>
@@ -19928,7 +19970,7 @@
     </row>
     <row r="526" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C526">
         <v>1</v>
@@ -19940,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="G526" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I526" t="s">
         <v>271</v>
@@ -19951,7 +19993,7 @@
     </row>
     <row r="527" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C527">
         <v>1</v>
@@ -19963,7 +20005,7 @@
         <v>1</v>
       </c>
       <c r="G527" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I527" t="s">
         <v>271</v>
@@ -19974,7 +20016,7 @@
     </row>
     <row r="528" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C528">
         <v>1</v>
@@ -19995,7 +20037,7 @@
         <v>1</v>
       </c>
       <c r="N528" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="Q528">
         <v>1</v>
@@ -20006,7 +20048,7 @@
     </row>
     <row r="529" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -20017,7 +20059,7 @@
     </row>
     <row r="530" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C530">
         <v>1</v>
@@ -20031,7 +20073,7 @@
     </row>
     <row r="531" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C531">
         <v>1</v>
@@ -20045,7 +20087,7 @@
     </row>
     <row r="532" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -20056,7 +20098,7 @@
     </row>
     <row r="533" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C533">
         <v>1</v>
@@ -20071,12 +20113,12 @@
         <v>271</v>
       </c>
       <c r="L533" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="534" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C534">
         <v>1</v>
@@ -20094,27 +20136,27 @@
         <v>0</v>
       </c>
       <c r="L534" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="N534" s="17" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="535" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+      <c r="E535">
+        <v>1</v>
+      </c>
+      <c r="G535" t="s">
         <v>1062</v>
-      </c>
-      <c r="C535">
-        <v>1</v>
-      </c>
-      <c r="D535">
-        <v>1</v>
-      </c>
-      <c r="E535">
-        <v>1</v>
-      </c>
-      <c r="G535" t="s">
-        <v>1063</v>
       </c>
       <c r="I535" t="s">
         <v>271</v>
@@ -20125,7 +20167,7 @@
     </row>
     <row r="536" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C536">
         <v>1</v>
@@ -20143,10 +20185,10 @@
         <v>0</v>
       </c>
       <c r="L536" t="s">
+        <v>1064</v>
+      </c>
+      <c r="N536" s="17" t="s">
         <v>1065</v>
-      </c>
-      <c r="N536" s="17" t="s">
-        <v>1066</v>
       </c>
       <c r="R536">
         <v>0</v>
@@ -20171,11 +20213,11 @@
       <c r="J537">
         <v>0</v>
       </c>
-      <c r="L537" s="25" t="s">
+      <c r="L537" s="24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="N537" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="N537" s="1" t="s">
-        <v>1068</v>
       </c>
       <c r="R537">
         <v>0</v>
@@ -20183,7 +20225,7 @@
     </row>
     <row r="538" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C538">
         <v>1</v>
@@ -20204,7 +20246,7 @@
         <v>1</v>
       </c>
       <c r="N538" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="Q538">
         <v>1</v>
@@ -20215,19 +20257,19 @@
     </row>
     <row r="539" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
+      </c>
+      <c r="E539">
+        <v>1</v>
+      </c>
+      <c r="G539" t="s">
         <v>1070</v>
-      </c>
-      <c r="C539">
-        <v>1</v>
-      </c>
-      <c r="D539">
-        <v>1</v>
-      </c>
-      <c r="E539">
-        <v>1</v>
-      </c>
-      <c r="G539" t="s">
-        <v>1071</v>
       </c>
       <c r="I539" t="s">
         <v>271</v>
@@ -20238,7 +20280,7 @@
     </row>
     <row r="540" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C540">
         <v>1</v>
@@ -20258,7 +20300,7 @@
     </row>
     <row r="541" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C541">
         <v>1</v>
@@ -20275,7 +20317,7 @@
     </row>
     <row r="542" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C542">
         <v>1</v>
@@ -20292,19 +20334,19 @@
     </row>
     <row r="543" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+      <c r="E543">
+        <v>1</v>
+      </c>
+      <c r="G543" t="s">
         <v>1075</v>
-      </c>
-      <c r="C543">
-        <v>1</v>
-      </c>
-      <c r="D543">
-        <v>1</v>
-      </c>
-      <c r="E543">
-        <v>1</v>
-      </c>
-      <c r="G543" t="s">
-        <v>1076</v>
       </c>
       <c r="I543" t="s">
         <v>271</v>
@@ -20326,7 +20368,7 @@
     </row>
     <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C545">
         <v>1</v>
@@ -20343,7 +20385,7 @@
     </row>
     <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C546">
         <v>1</v>
@@ -20360,7 +20402,7 @@
     </row>
     <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C547">
         <v>1</v>
@@ -20678,8 +20720,10 @@
     <hyperlink ref="N537" r:id="rId289" display="https://doi.org/10.1016/s1474-4422(16)00018-1" xr:uid="{BF8833F5-DB7A-CE4D-B5CE-62B875FBD87E}"/>
     <hyperlink ref="K524" r:id="rId290" display="https://clinicaltrials.gov/show/NCT01838668" xr:uid="{050B7386-8DA0-7D43-B7A9-1F1E081296D0}"/>
     <hyperlink ref="K259" r:id="rId291" display="https://clinicaltrials.gov/show/NCT00027300" xr:uid="{3B02B573-9E48-2546-9F9B-0EF2C1E11C49}"/>
+    <hyperlink ref="K7" r:id="rId292" display="https://doi.org/10.1212/wnl.57.3.397" xr:uid="{A6EF8EE0-5C09-EC4E-8B5D-5B64AD1E90B7}"/>
+    <hyperlink ref="K117" r:id="rId293" xr:uid="{F4BCFB12-C533-014E-BB4F-6D323680B731}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId292"/>
+  <legacyDrawing r:id="rId294"/>
 </worksheet>
 </file>
--- a/consort/manual.xlsx
+++ b/consort/manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/consort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E874B0-8489-514C-A243-0954816DE4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EDEF24-0189-0E46-847B-AD6BE60A09BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{A7967165-CAA9-764E-B8A7-5F77B1A90245}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{A7967165-CAA9-764E-B8A7-5F77B1A90245}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="1106">
   <si>
     <t>intervention check</t>
   </si>
@@ -3430,9 +3430,6 @@
     <t>NCT01838668:</t>
   </si>
   <si>
-    <t xml:space="preserve">did not move on to P3 </t>
-  </si>
-  <si>
     <t>has paper</t>
   </si>
   <si>
@@ -3488,6 +3485,27 @@
   </si>
   <si>
     <t>https://clinicaltrials.gov/ct2/show/NCT00915473</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/ct2/show/NCT00910689</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>migraine</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>TBI</t>
+  </si>
+  <si>
+    <t>MCI not exclusive AD</t>
+  </si>
+  <si>
+    <t>did not move on to P3 (exclude the 1)</t>
   </si>
 </sst>
 </file>
@@ -3723,7 +3741,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4146,8 +4164,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:GZ547"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A453" zoomScale="103" workbookViewId="0">
+      <selection activeCell="A539" sqref="A539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4174,7 +4192,7 @@
         <v>230</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="21" t="s">
@@ -4205,10 +4223,10 @@
         <v>6</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>1080</v>
+        <v>1105</v>
       </c>
       <c r="S1" s="10" t="s">
         <v>953</v>
@@ -4651,7 +4669,7 @@
       <c r="DB3" s="2"/>
       <c r="DD3" s="2"/>
     </row>
-    <row r="4" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -4689,7 +4707,7 @@
       <c r="DB4" s="2"/>
       <c r="DD4" s="2"/>
     </row>
-    <row r="5" spans="1:208" ht="23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:208" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -4733,7 +4751,7 @@
       <c r="DB5" s="2"/>
       <c r="DD5" s="2"/>
     </row>
-    <row r="6" spans="1:208" ht="23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:208" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -4800,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>77</v>
@@ -4815,7 +4833,7 @@
       <c r="DB7" s="2"/>
       <c r="DD7" s="2"/>
     </row>
-    <row r="8" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -4853,7 +4871,7 @@
       <c r="DB8" s="2"/>
       <c r="DD8" s="2"/>
     </row>
-    <row r="9" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -4891,7 +4909,7 @@
       <c r="DB9" s="2"/>
       <c r="DD9" s="2"/>
     </row>
-    <row r="10" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -4932,7 +4950,7 @@
       <c r="DB10" s="2"/>
       <c r="DD10" s="2"/>
     </row>
-    <row r="11" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -4973,7 +4991,7 @@
       <c r="DB11" s="2"/>
       <c r="DD11" s="2"/>
     </row>
-    <row r="12" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -5011,7 +5029,7 @@
       <c r="DB12" s="2"/>
       <c r="DD12" s="2"/>
     </row>
-    <row r="13" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -5078,7 +5096,7 @@
       <c r="DB14" s="2"/>
       <c r="DD14" s="2"/>
     </row>
-    <row r="15" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -5171,7 +5189,7 @@
       <c r="DB17" s="2"/>
       <c r="DD17" s="2"/>
     </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -5212,7 +5230,7 @@
       <c r="DB18" s="2"/>
       <c r="DD18" s="2"/>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -5250,7 +5268,7 @@
       <c r="DB19" s="2"/>
       <c r="DD19" s="2"/>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -5346,7 +5364,7 @@
       <c r="DB22" s="2"/>
       <c r="DD22" s="2"/>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -5413,7 +5431,7 @@
       <c r="DB24" s="2"/>
       <c r="DD24" s="2"/>
     </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -5457,7 +5475,7 @@
       <c r="DB25" s="2"/>
       <c r="DD25" s="2"/>
     </row>
-    <row r="26" spans="1:108" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -5573,7 +5591,7 @@
       <c r="DB29" s="2"/>
       <c r="DD29" s="2"/>
     </row>
-    <row r="30" spans="1:108" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -5612,7 +5630,7 @@
       <c r="DB30" s="2"/>
       <c r="DD30" s="2"/>
     </row>
-    <row r="31" spans="1:108" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>126</v>
       </c>
@@ -5659,7 +5677,7 @@
       <c r="DB31" s="2"/>
       <c r="DD31" s="2"/>
     </row>
-    <row r="32" spans="1:108" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:108" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -5747,7 +5765,7 @@
       <c r="DB34" s="2"/>
       <c r="DD34" s="2"/>
     </row>
-    <row r="35" spans="1:108" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:108" ht="23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -5872,7 +5890,7 @@
       <c r="DB38" s="2"/>
       <c r="DD38" s="2"/>
     </row>
-    <row r="39" spans="1:108" ht="19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:108" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -5914,7 +5932,7 @@
       <c r="DB39" s="2"/>
       <c r="DD39" s="2"/>
     </row>
-    <row r="40" spans="1:108" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:108" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -5996,7 +6014,7 @@
       <c r="DB42" s="2"/>
       <c r="DD42" s="2"/>
     </row>
-    <row r="43" spans="1:108" ht="19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:108" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -6035,7 +6053,7 @@
       <c r="DB43" s="2"/>
       <c r="DD43" s="2"/>
     </row>
-    <row r="44" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -6072,7 +6090,7 @@
       <c r="DB44" s="2"/>
       <c r="DD44" s="2"/>
     </row>
-    <row r="45" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>162</v>
       </c>
@@ -6139,7 +6157,7 @@
       <c r="DB46" s="2"/>
       <c r="DD46" s="2"/>
     </row>
-    <row r="47" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -6174,7 +6192,7 @@
       <c r="DB47" s="2"/>
       <c r="DD47" s="2"/>
     </row>
-    <row r="48" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>168</v>
       </c>
@@ -7107,7 +7125,7 @@
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
     </row>
-    <row r="109" spans="1:108" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>234</v>
       </c>
@@ -7175,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="K110" s="30" t="s">
+        <v>1092</v>
+      </c>
+      <c r="L110" s="10" t="s">
         <v>1093</v>
-      </c>
-      <c r="L110" s="10" t="s">
-        <v>1094</v>
       </c>
       <c r="M110" s="10"/>
       <c r="N110" s="5" t="s">
@@ -7252,7 +7270,7 @@
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
         <v>243</v>
       </c>
@@ -7292,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>245</v>
       </c>
@@ -7332,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>247</v>
       </c>
@@ -7408,7 +7426,7 @@
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>253</v>
       </c>
@@ -7434,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="L117" s="10"/>
       <c r="M117" s="10">
@@ -7449,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
         <v>255</v>
       </c>
@@ -7513,7 +7531,7 @@
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>258</v>
       </c>
@@ -7553,7 +7571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>260</v>
       </c>
@@ -7593,7 +7611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>262</v>
       </c>
@@ -7665,7 +7683,7 @@
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>266</v>
       </c>
@@ -7709,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
         <v>268</v>
       </c>
@@ -7803,7 +7821,7 @@
         <v>1</v>
       </c>
       <c r="K127" s="10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="L127" s="10"/>
       <c r="M127" s="10"/>
@@ -7848,7 +7866,7 @@
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>276</v>
       </c>
@@ -7912,7 +7930,7 @@
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>279</v>
       </c>
@@ -7952,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>281</v>
       </c>
@@ -8108,7 +8126,7 @@
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>287</v>
       </c>
@@ -8148,7 +8166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>291</v>
       </c>
@@ -8188,7 +8206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>293</v>
       </c>
@@ -8228,7 +8246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>295</v>
       </c>
@@ -8268,7 +8286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>296</v>
       </c>
@@ -8308,7 +8326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>298</v>
       </c>
@@ -8350,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>299</v>
       </c>
@@ -8390,7 +8408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
         <v>301</v>
       </c>
@@ -8430,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>303</v>
       </c>
@@ -8470,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>305</v>
       </c>
@@ -8514,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>306</v>
       </c>
@@ -8614,7 +8632,7 @@
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
     </row>
-    <row r="150" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" ht="23" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>313</v>
       </c>
@@ -8630,7 +8648,7 @@
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H150" s="10">
         <v>1</v>
@@ -8707,7 +8725,7 @@
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>318</v>
       </c>
@@ -8811,7 +8829,7 @@
         <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="L155" s="10"/>
       <c r="M155" s="10"/>
@@ -8954,7 +8972,7 @@
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
     </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>335</v>
       </c>
@@ -9206,7 +9224,7 @@
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>354</v>
       </c>
@@ -9252,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>356</v>
       </c>
@@ -9394,7 +9412,7 @@
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>352</v>
       </c>
@@ -9434,7 +9452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>364</v>
       </c>
@@ -9500,7 +9518,7 @@
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>369</v>
       </c>
@@ -9540,7 +9558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>371</v>
       </c>
@@ -9737,7 +9755,7 @@
         <v>1</v>
       </c>
       <c r="K184" s="31" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L184" s="10"/>
       <c r="M184" s="10"/>
@@ -9750,7 +9768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>367</v>
       </c>
@@ -9790,7 +9808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>384</v>
       </c>
@@ -9833,7 +9851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
         <v>385</v>
       </c>
@@ -9924,7 +9942,7 @@
       <c r="O189" s="10"/>
       <c r="P189" s="10"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>389</v>
       </c>
@@ -10088,7 +10106,7 @@
       <c r="O194" s="10"/>
       <c r="P194" s="10"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>402</v>
       </c>
@@ -10294,7 +10312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="10" t="s">
         <v>418</v>
       </c>
@@ -10366,7 +10384,7 @@
       <c r="O202" s="10"/>
       <c r="P202" s="10"/>
     </row>
-    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" s="10" t="s">
         <v>422</v>
       </c>
@@ -10585,7 +10603,7 @@
       </c>
       <c r="K209" s="10"/>
       <c r="L209" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="M209" s="10"/>
       <c r="N209" s="5" t="s">
@@ -10622,7 +10640,7 @@
       <c r="O210" s="10"/>
       <c r="P210" s="10"/>
     </row>
-    <row r="211" spans="1:20" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" ht="20" x14ac:dyDescent="0.2">
       <c r="A211" s="10" t="s">
         <v>439</v>
       </c>
@@ -10637,8 +10655,8 @@
         <v>1</v>
       </c>
       <c r="F211" s="10"/>
-      <c r="G211" s="11" t="s">
-        <v>1083</v>
+      <c r="G211" s="33" t="s">
+        <v>1082</v>
       </c>
       <c r="H211" s="10">
         <v>1</v>
@@ -10659,7 +10677,7 @@
       <c r="P211" s="10"/>
       <c r="R211" s="14"/>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="10" t="s">
         <v>441</v>
       </c>
@@ -10699,7 +10717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
         <v>443</v>
       </c>
@@ -10773,7 +10791,7 @@
       <c r="O214" s="10"/>
       <c r="P214" s="10"/>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="10" t="s">
         <v>447</v>
       </c>
@@ -10847,7 +10865,7 @@
       <c r="O216" s="10"/>
       <c r="P216" s="10"/>
     </row>
-    <row r="217" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A217" s="10" t="s">
         <v>451</v>
       </c>
@@ -11309,7 +11327,7 @@
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
         <v>486</v>
       </c>
@@ -11349,7 +11367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
         <v>488</v>
       </c>
@@ -11629,7 +11647,7 @@
       <c r="O242" s="10"/>
       <c r="P242" s="10"/>
     </row>
-    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243" s="10" t="s">
         <v>500</v>
       </c>
@@ -11645,7 +11663,7 @@
       </c>
       <c r="F243" s="10"/>
       <c r="G243" s="11" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H243" s="10">
         <v>1</v>
@@ -11783,7 +11801,7 @@
       <c r="O247" s="10"/>
       <c r="P247" s="10"/>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="10" t="s">
         <v>508</v>
       </c>
@@ -12298,7 +12316,7 @@
       <c r="O265" s="10"/>
       <c r="P265" s="10"/>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="10" t="s">
         <v>534</v>
       </c>
@@ -12420,7 +12438,7 @@
       <c r="O269" s="10"/>
       <c r="P269" s="10"/>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="10" t="s">
         <v>542</v>
       </c>
@@ -12736,7 +12754,7 @@
       <c r="O280" s="10"/>
       <c r="P280" s="10"/>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="10" t="s">
         <v>556</v>
       </c>
@@ -12964,7 +12982,7 @@
       <c r="O288" s="10"/>
       <c r="P288" s="10"/>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="10" t="s">
         <v>565</v>
       </c>
@@ -13003,7 +13021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="10" t="s">
         <v>568</v>
       </c>
@@ -13062,7 +13080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="10" t="s">
         <v>572</v>
       </c>
@@ -13105,7 +13123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="10" t="s">
         <v>573</v>
       </c>
@@ -13168,7 +13186,7 @@
       </c>
       <c r="L294" s="10"/>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="10" t="s">
         <v>576</v>
       </c>
@@ -13265,7 +13283,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="10" t="s">
         <v>115</v>
       </c>
@@ -13322,7 +13340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="10" t="s">
         <v>587</v>
       </c>
@@ -13366,7 +13384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="10" t="s">
         <v>119</v>
       </c>
@@ -13403,7 +13421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="10" t="s">
         <v>590</v>
       </c>
@@ -13471,7 +13489,7 @@
       </c>
       <c r="L303" s="10"/>
     </row>
-    <row r="304" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" ht="23" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
         <v>595</v>
       </c>
@@ -13502,7 +13520,7 @@
       <c r="L304" s="10"/>
       <c r="N304" s="14"/>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="10" t="s">
         <v>597</v>
       </c>
@@ -13539,7 +13557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="10" t="s">
         <v>599</v>
       </c>
@@ -13576,7 +13594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="20" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="10" t="s">
         <v>601</v>
       </c>
@@ -13619,7 +13637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="10" t="s">
         <v>603</v>
       </c>
@@ -13656,7 +13674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="10" t="s">
         <v>605</v>
       </c>
@@ -13693,7 +13711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" ht="23" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
         <v>607</v>
       </c>
@@ -13729,7 +13747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="10" t="s">
         <v>242</v>
       </c>
@@ -13746,15 +13764,11 @@
       <c r="F311" s="10"/>
       <c r="G311" s="10"/>
       <c r="H311" s="10">
-        <v>1</v>
-      </c>
-      <c r="I311">
-        <v>1</v>
-      </c>
-      <c r="J311">
-        <v>1</v>
-      </c>
-      <c r="K311" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="K311" s="30" t="s">
+        <v>1099</v>
+      </c>
       <c r="L311" s="10"/>
       <c r="M311">
         <v>1</v>
@@ -13763,9 +13777,6 @@
         <v>610</v>
       </c>
       <c r="Q311">
-        <v>1</v>
-      </c>
-      <c r="T311">
         <v>1</v>
       </c>
     </row>
@@ -13961,7 +13972,7 @@
       <c r="K318" s="10"/>
       <c r="L318" s="10"/>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="10" t="s">
         <v>630</v>
       </c>
@@ -14044,7 +14055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" ht="23" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
         <v>634</v>
       </c>
@@ -14127,7 +14138,7 @@
       </c>
       <c r="K323" s="10"/>
       <c r="L323" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="Q323">
         <v>0</v>
@@ -14136,7 +14147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="10" t="s">
         <v>640</v>
       </c>
@@ -14173,7 +14184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="10" t="s">
         <v>642</v>
       </c>
@@ -14210,7 +14221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326" s="10" t="s">
         <v>643</v>
       </c>
@@ -14297,7 +14308,7 @@
       <c r="K328" s="10"/>
       <c r="L328" s="10"/>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="10" t="s">
         <v>648</v>
       </c>
@@ -14334,7 +14345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="10" t="s">
         <v>650</v>
       </c>
@@ -14452,7 +14463,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" ht="23" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
         <v>661</v>
       </c>
@@ -14503,7 +14514,7 @@
       <c r="K335" s="10"/>
       <c r="L335" s="10"/>
     </row>
-    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336" s="10" t="s">
         <v>665</v>
       </c>
@@ -14539,7 +14550,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="18" t="s">
         <v>668</v>
       </c>
@@ -14992,7 +15003,7 @@
       <c r="K353" s="10"/>
       <c r="L353" s="10"/>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="10" t="s">
         <v>702</v>
       </c>
@@ -15032,7 +15043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="10" t="s">
         <v>704</v>
       </c>
@@ -15072,7 +15083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="10" t="s">
         <v>705</v>
       </c>
@@ -15142,7 +15153,7 @@
       <c r="L357" s="10"/>
       <c r="N357" s="14"/>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="10" t="s">
         <v>708</v>
       </c>
@@ -15436,7 +15447,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A368" s="10" t="s">
         <v>732</v>
       </c>
@@ -15474,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" s="10" t="s">
         <v>734</v>
       </c>
@@ -15881,7 +15892,7 @@
       <c r="K386" s="9"/>
       <c r="L386" s="10"/>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="10" t="s">
         <v>753</v>
       </c>
@@ -15976,7 +15987,7 @@
       </c>
       <c r="L389" s="10"/>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="10" t="s">
         <v>759</v>
       </c>
@@ -16060,7 +16071,7 @@
         <v>1</v>
       </c>
       <c r="K392" s="32" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="L392" s="10"/>
       <c r="N392" s="5" t="s">
@@ -16125,7 +16136,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="10" t="s">
         <v>767</v>
       </c>
@@ -16330,7 +16341,9 @@
       <c r="E401" s="10">
         <v>1</v>
       </c>
-      <c r="F401" s="10"/>
+      <c r="F401" s="10" t="s">
+        <v>1103</v>
+      </c>
       <c r="G401" s="10" t="s">
         <v>781</v>
       </c>
@@ -16557,7 +16570,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>796</v>
       </c>
@@ -16619,7 +16632,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>801</v>
       </c>
@@ -16723,7 +16736,7 @@
       </c>
       <c r="F416" s="10"/>
       <c r="G416" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H416" s="10"/>
       <c r="N416" t="s">
@@ -16759,7 +16772,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>812</v>
       </c>
@@ -16793,7 +16806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>814</v>
       </c>
@@ -16836,7 +16849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>816</v>
       </c>
@@ -16913,7 +16926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>820</v>
       </c>
@@ -16963,7 +16976,7 @@
       </c>
       <c r="F424" s="10"/>
       <c r="G424" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H424" s="10"/>
       <c r="K424" s="7" t="s">
@@ -16980,7 +16993,7 @@
       </c>
       <c r="R424" s="14"/>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>825</v>
       </c>
@@ -17023,7 +17036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>827</v>
       </c>
@@ -17091,7 +17104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>831</v>
       </c>
@@ -17131,7 +17144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>833</v>
       </c>
@@ -17143,25 +17156,16 @@
         <v>1</v>
       </c>
       <c r="E429" s="10">
-        <v>1</v>
-      </c>
-      <c r="F429" s="10"/>
-      <c r="H429" s="10">
-        <v>1</v>
-      </c>
-      <c r="I429">
-        <v>1</v>
-      </c>
-      <c r="J429">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F429" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H429" s="10"/>
       <c r="N429" s="5" t="s">
         <v>834</v>
       </c>
       <c r="Q429">
-        <v>1</v>
-      </c>
-      <c r="T429">
         <v>1</v>
       </c>
     </row>
@@ -17176,7 +17180,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>837</v>
       </c>
@@ -17213,7 +17217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:20" ht="19" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>839</v>
       </c>
@@ -17366,7 +17370,7 @@
       </c>
       <c r="F438" s="10"/>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="10" t="s">
         <v>847</v>
       </c>
@@ -17434,7 +17438,7 @@
       <c r="O440" s="10"/>
       <c r="P440" s="10"/>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="10" t="s">
         <v>851</v>
       </c>
@@ -17498,7 +17502,7 @@
       <c r="O442" s="10"/>
       <c r="P442" s="10"/>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="10" t="s">
         <v>854</v>
       </c>
@@ -17560,7 +17564,7 @@
       <c r="O444" s="10"/>
       <c r="P444" s="10"/>
     </row>
-    <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A445" s="10" t="s">
         <v>856</v>
       </c>
@@ -17594,31 +17598,19 @@
       <c r="O445" s="10"/>
       <c r="P445" s="10"/>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="10" t="s">
         <v>858</v>
       </c>
       <c r="B446" s="10"/>
       <c r="C446" s="10">
-        <v>1</v>
-      </c>
-      <c r="D446" s="10">
-        <v>1</v>
-      </c>
-      <c r="E446" s="10">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D446" s="10"/>
+      <c r="E446" s="10"/>
       <c r="F446" s="10"/>
       <c r="G446" s="10"/>
-      <c r="H446" s="10">
-        <v>1</v>
-      </c>
-      <c r="I446">
-        <v>1</v>
-      </c>
-      <c r="J446">
-        <v>1</v>
-      </c>
+      <c r="H446" s="10"/>
       <c r="K446" s="10"/>
       <c r="L446" s="10"/>
       <c r="M446" s="10"/>
@@ -17630,11 +17622,8 @@
       <c r="Q446">
         <v>1</v>
       </c>
-      <c r="T446">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="10" t="s">
         <v>860</v>
       </c>
@@ -17768,7 +17757,7 @@
       <c r="O450" s="10"/>
       <c r="P450" s="10"/>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="10" t="s">
         <v>868</v>
       </c>
@@ -17837,7 +17826,7 @@
       <c r="O452" s="10"/>
       <c r="P452" s="10"/>
     </row>
-    <row r="453" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A453" s="10" t="s">
         <v>873</v>
       </c>
@@ -17852,8 +17841,8 @@
         <v>1</v>
       </c>
       <c r="F453" s="10"/>
-      <c r="G453" s="11" t="s">
-        <v>1085</v>
+      <c r="G453" s="10" t="s">
+        <v>1084</v>
       </c>
       <c r="H453" s="10">
         <v>1</v>
@@ -18051,7 +18040,7 @@
       <c r="O459" s="10"/>
       <c r="P459" s="10"/>
     </row>
-    <row r="460" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:20" ht="23" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
         <v>890</v>
       </c>
@@ -18065,7 +18054,9 @@
       <c r="E460" s="10">
         <v>1</v>
       </c>
-      <c r="F460" s="10"/>
+      <c r="F460" s="10" t="s">
+        <v>1103</v>
+      </c>
       <c r="G460" s="8" t="s">
         <v>891</v>
       </c>
@@ -18087,7 +18078,7 @@
       <c r="O460" s="10"/>
       <c r="P460" s="10"/>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="10" t="s">
         <v>893</v>
       </c>
@@ -18337,7 +18328,7 @@
       <c r="O469" s="10"/>
       <c r="P469" s="10"/>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="10" t="s">
         <v>906</v>
       </c>
@@ -18415,7 +18406,7 @@
       <c r="O471" s="10"/>
       <c r="P471" s="10"/>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="10" t="s">
         <v>909</v>
       </c>
@@ -18455,7 +18446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="10" t="s">
         <v>911</v>
       </c>
@@ -18557,7 +18548,7 @@
       <c r="O475" s="10"/>
       <c r="P475" s="10"/>
     </row>
-    <row r="476" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A476" s="10" t="s">
         <v>916</v>
       </c>
@@ -18571,7 +18562,9 @@
       <c r="E476" s="10">
         <v>1</v>
       </c>
-      <c r="F476" s="10"/>
+      <c r="F476" s="10" t="s">
+        <v>1102</v>
+      </c>
       <c r="G476" s="9" t="s">
         <v>917</v>
       </c>
@@ -18719,7 +18712,9 @@
       <c r="E481" s="10">
         <v>1</v>
       </c>
-      <c r="F481" s="10"/>
+      <c r="F481" s="10" t="s">
+        <v>1101</v>
+      </c>
       <c r="G481" s="8" t="s">
         <v>927</v>
       </c>
@@ -18901,7 +18896,7 @@
       <c r="O487" s="10"/>
       <c r="P487" s="10"/>
     </row>
-    <row r="488" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:20" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>973</v>
       </c>
@@ -19001,7 +18996,7 @@
       </c>
       <c r="R490" s="1"/>
     </row>
-    <row r="491" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>981</v>
       </c>
@@ -19021,7 +19016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>983</v>
       </c>
@@ -19053,7 +19048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>985</v>
       </c>
@@ -19102,7 +19097,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>988</v>
       </c>
@@ -19134,7 +19129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>990</v>
       </c>
@@ -19147,6 +19142,9 @@
       <c r="E496">
         <v>1</v>
       </c>
+      <c r="F496" t="s">
+        <v>1100</v>
+      </c>
       <c r="G496" t="s">
         <v>991</v>
       </c>
@@ -19157,7 +19155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>992</v>
       </c>
@@ -19198,7 +19196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>994</v>
       </c>
@@ -19210,6 +19208,9 @@
       </c>
       <c r="E498">
         <v>1</v>
+      </c>
+      <c r="F498" t="s">
+        <v>1100</v>
       </c>
       <c r="G498" t="s">
         <v>995</v>
@@ -19249,14 +19250,14 @@
       <c r="K499" t="s">
         <v>977</v>
       </c>
-      <c r="L499" s="33" t="s">
+      <c r="L499" t="s">
         <v>998</v>
       </c>
       <c r="N499" s="1" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>1000</v>
       </c>
@@ -19315,7 +19316,7 @@
       </c>
       <c r="R501" s="1"/>
     </row>
-    <row r="502" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:20" ht="23" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1004</v>
       </c>
@@ -19328,6 +19329,9 @@
       <c r="E502">
         <v>1</v>
       </c>
+      <c r="F502" t="s">
+        <v>1100</v>
+      </c>
       <c r="G502" s="8" t="s">
         <v>1005</v>
       </c>
@@ -19338,7 +19342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>1006</v>
       </c>
@@ -19350,6 +19354,9 @@
       </c>
       <c r="E503">
         <v>1</v>
+      </c>
+      <c r="F503" t="s">
+        <v>1100</v>
       </c>
       <c r="G503" t="s">
         <v>1007</v>
@@ -19405,7 +19412,7 @@
       </c>
       <c r="R505" s="1"/>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>1013</v>
       </c>
@@ -19473,7 +19480,7 @@
       </c>
       <c r="R507" s="1"/>
     </row>
-    <row r="508" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>1017</v>
       </c>
@@ -19486,6 +19493,9 @@
       <c r="E508">
         <v>1</v>
       </c>
+      <c r="F508" t="s">
+        <v>1100</v>
+      </c>
       <c r="G508" t="s">
         <v>1018</v>
       </c>
@@ -19496,7 +19506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>1019</v>
       </c>
@@ -19528,7 +19538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>1021</v>
       </c>
@@ -19583,7 +19593,7 @@
         <v>1</v>
       </c>
       <c r="K511" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="L511" t="s">
         <v>1023</v>
@@ -19598,7 +19608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>1024</v>
       </c>
@@ -19630,7 +19640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>1026</v>
       </c>
@@ -19662,7 +19672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>1027</v>
       </c>
@@ -19675,6 +19685,9 @@
       <c r="E514">
         <v>1</v>
       </c>
+      <c r="F514" t="s">
+        <v>1100</v>
+      </c>
       <c r="G514" t="s">
         <v>1028</v>
       </c>
@@ -19685,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>1029</v>
       </c>
@@ -19717,7 +19730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>1031</v>
       </c>
@@ -19749,7 +19762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>1033</v>
       </c>
@@ -19809,7 +19822,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="520" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>1039</v>
       </c>
@@ -19822,6 +19835,9 @@
       <c r="E520">
         <v>1</v>
       </c>
+      <c r="F520" t="s">
+        <v>1100</v>
+      </c>
       <c r="G520" t="s">
         <v>991</v>
       </c>
@@ -19832,7 +19848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>1040</v>
       </c>
@@ -19893,7 +19909,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="523" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>1044</v>
       </c>
@@ -19945,7 +19961,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="525" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>1047</v>
       </c>
@@ -19958,6 +19974,9 @@
       <c r="E525">
         <v>1</v>
       </c>
+      <c r="F525" t="s">
+        <v>1100</v>
+      </c>
       <c r="G525" t="s">
         <v>1048</v>
       </c>
@@ -19968,7 +19987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>1049</v>
       </c>
@@ -19981,6 +20000,9 @@
       <c r="E526">
         <v>1</v>
       </c>
+      <c r="F526" t="s">
+        <v>1100</v>
+      </c>
       <c r="G526" t="s">
         <v>1007</v>
       </c>
@@ -19991,7 +20013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>1050</v>
       </c>
@@ -20004,6 +20026,9 @@
       <c r="E527">
         <v>1</v>
       </c>
+      <c r="F527" t="s">
+        <v>1100</v>
+      </c>
       <c r="G527" t="s">
         <v>991</v>
       </c>
@@ -20014,7 +20039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>1051</v>
       </c>
@@ -20116,7 +20141,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="534" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>1059</v>
       </c>
@@ -20142,7 +20167,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="535" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>1061</v>
       </c>
@@ -20155,6 +20180,9 @@
       <c r="E535">
         <v>1</v>
       </c>
+      <c r="F535" t="s">
+        <v>1100</v>
+      </c>
       <c r="G535" t="s">
         <v>1062</v>
       </c>
@@ -20165,7 +20193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>1063</v>
       </c>
@@ -20194,7 +20222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>425</v>
       </c>
@@ -20223,7 +20251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>1068</v>
       </c>
@@ -20255,7 +20283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>1069</v>
       </c>
@@ -20268,7 +20296,10 @@
       <c r="E539">
         <v>1</v>
       </c>
-      <c r="G539" t="s">
+      <c r="F539" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G539" s="14" t="s">
         <v>1070</v>
       </c>
       <c r="I539" t="s">
@@ -20278,7 +20309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>1071</v>
       </c>
@@ -20332,7 +20363,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="543" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>1074</v>
       </c>
@@ -20344,6 +20375,9 @@
       </c>
       <c r="E543">
         <v>1</v>
+      </c>
+      <c r="F543" t="s">
+        <v>1100</v>
       </c>
       <c r="G543" t="s">
         <v>1075</v>
@@ -20419,10 +20453,28 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:GZ547" xr:uid="{2F709631-1FEE-054E-B459-7355ECDF4D6B}">
-    <filterColumn colId="19">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="AD"/>
+        <filter val="MCI not exclusive AD"/>
+        <filter val="migraine"/>
+        <filter val="MS"/>
+        <filter val="TBI"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="?"/>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="0"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:A487 A548:A1048576">

--- a/consort/manual.xlsx
+++ b/consort/manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/consort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EDEF24-0189-0E46-847B-AD6BE60A09BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2B4C76-6436-134F-BA28-1CB2B3232FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{A7967165-CAA9-764E-B8A7-5F77B1A90245}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26460" windowHeight="16460" xr2:uid="{A7967165-CAA9-764E-B8A7-5F77B1A90245}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3703,7 +3703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3741,7 +3741,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3778,7 +3777,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4066,7 +4065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4161,11 +4160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F709631-1FEE-054E-B459-7355ECDF4D6B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:GZ547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A453" zoomScale="103" workbookViewId="0">
-      <selection activeCell="A539" sqref="A539"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="103" workbookViewId="0">
+      <selection activeCell="F257" sqref="F257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4605,7 +4603,7 @@
       <c r="GY1" s="10"/>
       <c r="GZ1" s="10"/>
     </row>
-    <row r="2" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -4643,7 +4641,7 @@
       <c r="DB2" s="2"/>
       <c r="DD2" s="2"/>
     </row>
-    <row r="3" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -4669,7 +4667,7 @@
       <c r="DB3" s="2"/>
       <c r="DD3" s="2"/>
     </row>
-    <row r="4" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -4707,7 +4705,7 @@
       <c r="DB4" s="2"/>
       <c r="DD4" s="2"/>
     </row>
-    <row r="5" spans="1:208" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:208" ht="23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -4751,7 +4749,7 @@
       <c r="DB5" s="2"/>
       <c r="DD5" s="2"/>
     </row>
-    <row r="6" spans="1:208" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:208" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -4795,7 +4793,7 @@
       <c r="DB6" s="2"/>
       <c r="DD6" s="2"/>
     </row>
-    <row r="7" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -4833,7 +4831,7 @@
       <c r="DB7" s="2"/>
       <c r="DD7" s="2"/>
     </row>
-    <row r="8" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -4871,7 +4869,7 @@
       <c r="DB8" s="2"/>
       <c r="DD8" s="2"/>
     </row>
-    <row r="9" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -4909,7 +4907,7 @@
       <c r="DB9" s="2"/>
       <c r="DD9" s="2"/>
     </row>
-    <row r="10" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -4950,7 +4948,7 @@
       <c r="DB10" s="2"/>
       <c r="DD10" s="2"/>
     </row>
-    <row r="11" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -4991,7 +4989,7 @@
       <c r="DB11" s="2"/>
       <c r="DD11" s="2"/>
     </row>
-    <row r="12" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -5029,7 +5027,7 @@
       <c r="DB12" s="2"/>
       <c r="DD12" s="2"/>
     </row>
-    <row r="13" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -5067,7 +5065,7 @@
       <c r="DB13" s="2"/>
       <c r="DD13" s="2"/>
     </row>
-    <row r="14" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -5096,7 +5094,7 @@
       <c r="DB14" s="2"/>
       <c r="DD14" s="2"/>
     </row>
-    <row r="15" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -5140,7 +5138,7 @@
       <c r="DB15" s="2"/>
       <c r="DD15" s="2"/>
     </row>
-    <row r="16" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -5172,7 +5170,7 @@
       <c r="DB16" s="2"/>
       <c r="DD16" s="2"/>
     </row>
-    <row r="17" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -5189,7 +5187,7 @@
       <c r="DB17" s="2"/>
       <c r="DD17" s="2"/>
     </row>
-    <row r="18" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -5230,7 +5228,7 @@
       <c r="DB18" s="2"/>
       <c r="DD18" s="2"/>
     </row>
-    <row r="19" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -5268,7 +5266,7 @@
       <c r="DB19" s="2"/>
       <c r="DD19" s="2"/>
     </row>
-    <row r="20" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -5309,7 +5307,7 @@
       <c r="DB20" s="2"/>
       <c r="DD20" s="2"/>
     </row>
-    <row r="21" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -5335,7 +5333,7 @@
       <c r="DB21" s="2"/>
       <c r="DD21" s="2"/>
     </row>
-    <row r="22" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -5364,7 +5362,7 @@
       <c r="DB22" s="2"/>
       <c r="DD22" s="2"/>
     </row>
-    <row r="23" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -5405,7 +5403,7 @@
       <c r="DB23" s="2"/>
       <c r="DD23" s="2"/>
     </row>
-    <row r="24" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -5431,7 +5429,7 @@
       <c r="DB24" s="2"/>
       <c r="DD24" s="2"/>
     </row>
-    <row r="25" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -5475,7 +5473,7 @@
       <c r="DB25" s="2"/>
       <c r="DD25" s="2"/>
     </row>
-    <row r="26" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -5516,7 +5514,7 @@
       <c r="DB26" s="2"/>
       <c r="DD26" s="2"/>
     </row>
-    <row r="27" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -5542,7 +5540,7 @@
       <c r="DB27" s="2"/>
       <c r="DD27" s="2"/>
     </row>
-    <row r="28" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>120</v>
       </c>
@@ -5574,7 +5572,7 @@
       <c r="DB28" s="2"/>
       <c r="DD28" s="2"/>
     </row>
-    <row r="29" spans="1:108" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:108" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -5591,7 +5589,7 @@
       <c r="DB29" s="2"/>
       <c r="DD29" s="2"/>
     </row>
-    <row r="30" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -5630,7 +5628,7 @@
       <c r="DB30" s="2"/>
       <c r="DD30" s="2"/>
     </row>
-    <row r="31" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>126</v>
       </c>
@@ -5713,7 +5711,7 @@
       <c r="DB32" s="2"/>
       <c r="DD32" s="2"/>
     </row>
-    <row r="33" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -5730,7 +5728,7 @@
       <c r="DB33" s="2"/>
       <c r="DD33" s="2"/>
     </row>
-    <row r="34" spans="1:108" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:108" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -5803,7 +5801,7 @@
       <c r="DB35" s="2"/>
       <c r="DD35" s="2"/>
     </row>
-    <row r="36" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>139</v>
       </c>
@@ -5832,7 +5830,7 @@
       <c r="DB36" s="2"/>
       <c r="DD36" s="2"/>
     </row>
-    <row r="37" spans="1:108" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:108" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -5861,7 +5859,7 @@
       <c r="DB37" s="2"/>
       <c r="DD37" s="2"/>
     </row>
-    <row r="38" spans="1:108" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:108" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -5890,7 +5888,7 @@
       <c r="DB38" s="2"/>
       <c r="DD38" s="2"/>
     </row>
-    <row r="39" spans="1:108" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:108" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -5967,7 +5965,7 @@
       <c r="DB40" s="2"/>
       <c r="DD40" s="2"/>
     </row>
-    <row r="41" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -5996,7 +5994,7 @@
       <c r="DB41" s="2"/>
       <c r="DD41" s="2"/>
     </row>
-    <row r="42" spans="1:108" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:108" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>157</v>
       </c>
@@ -6014,7 +6012,7 @@
       <c r="DB42" s="2"/>
       <c r="DD42" s="2"/>
     </row>
-    <row r="43" spans="1:108" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:108" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -6128,7 +6126,7 @@
       <c r="DB45" s="2"/>
       <c r="DD45" s="2"/>
     </row>
-    <row r="46" spans="1:108" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:108" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>164</v>
       </c>
@@ -6227,7 +6225,7 @@
       <c r="DB48" s="2"/>
       <c r="DD48" s="2"/>
     </row>
-    <row r="49" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>169</v>
       </c>
@@ -6247,7 +6245,7 @@
       <c r="DB49" s="2"/>
       <c r="DD49" s="2"/>
     </row>
-    <row r="50" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>170</v>
       </c>
@@ -6267,7 +6265,7 @@
       <c r="DB50" s="2"/>
       <c r="DD50" s="2"/>
     </row>
-    <row r="51" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>171</v>
       </c>
@@ -6287,7 +6285,7 @@
       <c r="DB51" s="2"/>
       <c r="DD51" s="2"/>
     </row>
-    <row r="52" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>172</v>
       </c>
@@ -6307,7 +6305,7 @@
       <c r="DB52" s="2"/>
       <c r="DD52" s="2"/>
     </row>
-    <row r="53" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>173</v>
       </c>
@@ -6327,7 +6325,7 @@
       <c r="DB53" s="2"/>
       <c r="DD53" s="2"/>
     </row>
-    <row r="54" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>174</v>
       </c>
@@ -6341,7 +6339,7 @@
       <c r="DB54" s="2"/>
       <c r="DD54" s="2"/>
     </row>
-    <row r="55" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>175</v>
       </c>
@@ -6355,7 +6353,7 @@
       <c r="DB55" s="2"/>
       <c r="DD55" s="2"/>
     </row>
-    <row r="56" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>176</v>
       </c>
@@ -6369,7 +6367,7 @@
       <c r="DB56" s="2"/>
       <c r="DD56" s="2"/>
     </row>
-    <row r="57" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>177</v>
       </c>
@@ -6383,7 +6381,7 @@
       <c r="DB57" s="2"/>
       <c r="DD57" s="2"/>
     </row>
-    <row r="58" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>178</v>
       </c>
@@ -6397,7 +6395,7 @@
       <c r="DB58" s="2"/>
       <c r="DD58" s="2"/>
     </row>
-    <row r="59" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -6411,7 +6409,7 @@
       <c r="DB59" s="2"/>
       <c r="DD59" s="2"/>
     </row>
-    <row r="60" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -6425,7 +6423,7 @@
       <c r="DB60" s="2"/>
       <c r="DD60" s="2"/>
     </row>
-    <row r="61" spans="1:108" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:108" ht="19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -6446,7 +6444,7 @@
       <c r="DB61" s="2"/>
       <c r="DD61" s="2"/>
     </row>
-    <row r="62" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -6460,7 +6458,7 @@
       <c r="DB62" s="2"/>
       <c r="DD62" s="2"/>
     </row>
-    <row r="63" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>183</v>
       </c>
@@ -6474,7 +6472,7 @@
       <c r="DB63" s="2"/>
       <c r="DD63" s="2"/>
     </row>
-    <row r="64" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>184</v>
       </c>
@@ -6488,7 +6486,7 @@
       <c r="DB64" s="2"/>
       <c r="DD64" s="2"/>
     </row>
-    <row r="65" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>185</v>
       </c>
@@ -6502,7 +6500,7 @@
       <c r="DB65" s="2"/>
       <c r="DD65" s="2"/>
     </row>
-    <row r="66" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>186</v>
       </c>
@@ -6516,7 +6514,7 @@
       <c r="DB66" s="2"/>
       <c r="DD66" s="2"/>
     </row>
-    <row r="67" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -6530,7 +6528,7 @@
       <c r="DB67" s="2"/>
       <c r="DD67" s="2"/>
     </row>
-    <row r="68" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>188</v>
       </c>
@@ -6544,7 +6542,7 @@
       <c r="DB68" s="2"/>
       <c r="DD68" s="2"/>
     </row>
-    <row r="69" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>189</v>
       </c>
@@ -6558,7 +6556,7 @@
       <c r="DB69" s="2"/>
       <c r="DD69" s="2"/>
     </row>
-    <row r="70" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>190</v>
       </c>
@@ -6572,7 +6570,7 @@
       <c r="DB70" s="2"/>
       <c r="DD70" s="2"/>
     </row>
-    <row r="71" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>191</v>
       </c>
@@ -6586,7 +6584,7 @@
       <c r="DB71" s="2"/>
       <c r="DD71" s="2"/>
     </row>
-    <row r="72" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>192</v>
       </c>
@@ -6600,7 +6598,7 @@
       <c r="DB72" s="2"/>
       <c r="DD72" s="2"/>
     </row>
-    <row r="73" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>193</v>
       </c>
@@ -6614,7 +6612,7 @@
       <c r="DB73" s="2"/>
       <c r="DD73" s="2"/>
     </row>
-    <row r="74" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>194</v>
       </c>
@@ -6628,7 +6626,7 @@
       <c r="DB74" s="2"/>
       <c r="DD74" s="2"/>
     </row>
-    <row r="75" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>195</v>
       </c>
@@ -6642,7 +6640,7 @@
       <c r="DB75" s="2"/>
       <c r="DD75" s="2"/>
     </row>
-    <row r="76" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>196</v>
       </c>
@@ -6656,7 +6654,7 @@
       <c r="DB76" s="2"/>
       <c r="DD76" s="2"/>
     </row>
-    <row r="77" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>197</v>
       </c>
@@ -6670,7 +6668,7 @@
       <c r="DB77" s="2"/>
       <c r="DD77" s="2"/>
     </row>
-    <row r="78" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>198</v>
       </c>
@@ -6684,7 +6682,7 @@
       <c r="DB78" s="2"/>
       <c r="DD78" s="2"/>
     </row>
-    <row r="79" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>199</v>
       </c>
@@ -6698,7 +6696,7 @@
       <c r="DB79" s="2"/>
       <c r="DD79" s="2"/>
     </row>
-    <row r="80" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>200</v>
       </c>
@@ -6715,7 +6713,7 @@
       <c r="DB80" s="2"/>
       <c r="DD80" s="2"/>
     </row>
-    <row r="81" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -6729,7 +6727,7 @@
       <c r="DB81" s="2"/>
       <c r="DD81" s="2"/>
     </row>
-    <row r="82" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>203</v>
       </c>
@@ -6743,7 +6741,7 @@
       <c r="DB82" s="2"/>
       <c r="DD82" s="2"/>
     </row>
-    <row r="83" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>204</v>
       </c>
@@ -6757,7 +6755,7 @@
       <c r="DB83" s="2"/>
       <c r="DD83" s="2"/>
     </row>
-    <row r="84" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>205</v>
       </c>
@@ -6771,7 +6769,7 @@
       <c r="DB84" s="2"/>
       <c r="DD84" s="2"/>
     </row>
-    <row r="85" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>206</v>
       </c>
@@ -6785,7 +6783,7 @@
       <c r="DB85" s="2"/>
       <c r="DD85" s="2"/>
     </row>
-    <row r="86" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>207</v>
       </c>
@@ -6799,7 +6797,7 @@
       <c r="DB86" s="2"/>
       <c r="DD86" s="2"/>
     </row>
-    <row r="87" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>208</v>
       </c>
@@ -6813,7 +6811,7 @@
       <c r="DB87" s="2"/>
       <c r="DD87" s="2"/>
     </row>
-    <row r="88" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>209</v>
       </c>
@@ -6827,7 +6825,7 @@
       <c r="DB88" s="2"/>
       <c r="DD88" s="2"/>
     </row>
-    <row r="89" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>210</v>
       </c>
@@ -6841,7 +6839,7 @@
       <c r="DB89" s="2"/>
       <c r="DD89" s="2"/>
     </row>
-    <row r="90" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>211</v>
       </c>
@@ -6855,7 +6853,7 @@
       <c r="DB90" s="2"/>
       <c r="DD90" s="2"/>
     </row>
-    <row r="91" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>212</v>
       </c>
@@ -6869,7 +6867,7 @@
       <c r="DB91" s="2"/>
       <c r="DD91" s="2"/>
     </row>
-    <row r="92" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>213</v>
       </c>
@@ -6883,7 +6881,7 @@
       <c r="DB92" s="2"/>
       <c r="DD92" s="2"/>
     </row>
-    <row r="93" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>214</v>
       </c>
@@ -6897,7 +6895,7 @@
       <c r="DB93" s="2"/>
       <c r="DD93" s="2"/>
     </row>
-    <row r="94" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>215</v>
       </c>
@@ -6911,7 +6909,7 @@
       <c r="DB94" s="2"/>
       <c r="DD94" s="2"/>
     </row>
-    <row r="95" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>216</v>
       </c>
@@ -6925,7 +6923,7 @@
       <c r="DB95" s="2"/>
       <c r="DD95" s="2"/>
     </row>
-    <row r="96" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>217</v>
       </c>
@@ -6939,7 +6937,7 @@
       <c r="DB96" s="2"/>
       <c r="DD96" s="2"/>
     </row>
-    <row r="97" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>218</v>
       </c>
@@ -6953,7 +6951,7 @@
       <c r="DB97" s="2"/>
       <c r="DD97" s="2"/>
     </row>
-    <row r="98" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>219</v>
       </c>
@@ -6967,7 +6965,7 @@
       <c r="DB98" s="2"/>
       <c r="DD98" s="2"/>
     </row>
-    <row r="99" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>220</v>
       </c>
@@ -6981,7 +6979,7 @@
       <c r="DB99" s="2"/>
       <c r="DD99" s="2"/>
     </row>
-    <row r="100" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>221</v>
       </c>
@@ -6995,7 +6993,7 @@
       <c r="DB100" s="2"/>
       <c r="DD100" s="2"/>
     </row>
-    <row r="101" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>222</v>
       </c>
@@ -7009,7 +7007,7 @@
       <c r="DB101" s="2"/>
       <c r="DD101" s="2"/>
     </row>
-    <row r="102" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>223</v>
       </c>
@@ -7023,7 +7021,7 @@
       <c r="DB102" s="2"/>
       <c r="DD102" s="2"/>
     </row>
-    <row r="103" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>224</v>
       </c>
@@ -7037,7 +7035,7 @@
       <c r="DB103" s="2"/>
       <c r="DD103" s="2"/>
     </row>
-    <row r="104" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>225</v>
       </c>
@@ -7051,7 +7049,7 @@
       <c r="DB104" s="2"/>
       <c r="DD104" s="2"/>
     </row>
-    <row r="105" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>226</v>
       </c>
@@ -7065,7 +7063,7 @@
       <c r="DB105" s="2"/>
       <c r="DD105" s="2"/>
     </row>
-    <row r="106" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>227</v>
       </c>
@@ -7079,7 +7077,7 @@
       <c r="DB106" s="2"/>
       <c r="DD106" s="2"/>
     </row>
-    <row r="107" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>228</v>
       </c>
@@ -7093,7 +7091,7 @@
       <c r="DB107" s="2"/>
       <c r="DD107" s="2"/>
     </row>
-    <row r="108" spans="1:108" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:108" ht="19" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>231</v>
       </c>
@@ -7125,7 +7123,7 @@
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
     </row>
-    <row r="109" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>234</v>
       </c>
@@ -7167,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>237</v>
       </c>
@@ -7208,7 +7206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>239</v>
       </c>
@@ -7238,7 +7236,7 @@
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
     </row>
-    <row r="112" spans="1:108" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:108" ht="19" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>241</v>
       </c>
@@ -7270,7 +7268,7 @@
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
         <v>243</v>
       </c>
@@ -7310,7 +7308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>245</v>
       </c>
@@ -7350,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>247</v>
       </c>
@@ -7390,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>249</v>
       </c>
@@ -7426,7 +7424,7 @@
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>253</v>
       </c>
@@ -7467,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
         <v>255</v>
       </c>
@@ -7507,7 +7505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>257</v>
       </c>
@@ -7531,7 +7529,7 @@
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>258</v>
       </c>
@@ -7571,7 +7569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>260</v>
       </c>
@@ -7611,7 +7609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>262</v>
       </c>
@@ -7651,7 +7649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>264</v>
       </c>
@@ -7683,7 +7681,7 @@
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>266</v>
       </c>
@@ -7727,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
         <v>268</v>
       </c>
@@ -7767,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
         <v>270</v>
       </c>
@@ -7795,7 +7793,7 @@
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
     </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
         <v>272</v>
       </c>
@@ -7834,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>273</v>
       </c>
@@ -7866,7 +7864,7 @@
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
     </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>276</v>
       </c>
@@ -7906,7 +7904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>277</v>
       </c>
@@ -7930,7 +7928,7 @@
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>279</v>
       </c>
@@ -7970,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>281</v>
       </c>
@@ -8010,7 +8008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
         <v>283</v>
       </c>
@@ -8042,7 +8040,7 @@
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>285</v>
       </c>
@@ -8070,7 +8068,7 @@
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
     </row>
-    <row r="135" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>286</v>
       </c>
@@ -8102,7 +8100,7 @@
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>289</v>
       </c>
@@ -8126,7 +8124,7 @@
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>287</v>
       </c>
@@ -8166,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>291</v>
       </c>
@@ -8206,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>293</v>
       </c>
@@ -8246,7 +8244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>295</v>
       </c>
@@ -8286,7 +8284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>296</v>
       </c>
@@ -8326,7 +8324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>298</v>
       </c>
@@ -8368,7 +8366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>299</v>
       </c>
@@ -8408,7 +8406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
         <v>301</v>
       </c>
@@ -8448,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>303</v>
       </c>
@@ -8488,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>305</v>
       </c>
@@ -8532,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>306</v>
       </c>
@@ -8572,7 +8570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>308</v>
       </c>
@@ -8604,7 +8602,7 @@
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
         <v>310</v>
       </c>
@@ -8671,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
         <v>315</v>
       </c>
@@ -8701,7 +8699,7 @@
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>317</v>
       </c>
@@ -8725,7 +8723,7 @@
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>318</v>
       </c>
@@ -8769,7 +8767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
         <v>320</v>
       </c>
@@ -8803,7 +8801,7 @@
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
     </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>323</v>
       </c>
@@ -8842,7 +8840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>325</v>
       </c>
@@ -8868,7 +8866,7 @@
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
     </row>
-    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>327</v>
       </c>
@@ -8890,7 +8888,7 @@
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
     </row>
-    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>328</v>
       </c>
@@ -8912,7 +8910,7 @@
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
     </row>
-    <row r="159" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>329</v>
       </c>
@@ -8944,7 +8942,7 @@
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
     </row>
-    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>332</v>
       </c>
@@ -9006,7 +9004,7 @@
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>337</v>
       </c>
@@ -9038,7 +9036,7 @@
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
         <v>340</v>
       </c>
@@ -9070,7 +9068,7 @@
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
         <v>342</v>
       </c>
@@ -9102,7 +9100,7 @@
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
     </row>
-    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>344</v>
       </c>
@@ -9126,7 +9124,7 @@
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
     </row>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>346</v>
       </c>
@@ -9158,7 +9156,7 @@
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
     </row>
-    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
         <v>348</v>
       </c>
@@ -9192,7 +9190,7 @@
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
     </row>
-    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
         <v>351</v>
       </c>
@@ -9224,7 +9222,7 @@
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
     </row>
-    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>354</v>
       </c>
@@ -9270,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>356</v>
       </c>
@@ -9316,7 +9314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
         <v>358</v>
       </c>
@@ -9338,7 +9336,7 @@
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
     </row>
-    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
         <v>359</v>
       </c>
@@ -9360,7 +9358,7 @@
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
     </row>
-    <row r="173" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>360</v>
       </c>
@@ -9390,7 +9388,7 @@
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
     </row>
-    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>362</v>
       </c>
@@ -9412,7 +9410,7 @@
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
     </row>
-    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>352</v>
       </c>
@@ -9486,7 +9484,7 @@
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
     </row>
-    <row r="177" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>366</v>
       </c>
@@ -9518,7 +9516,7 @@
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
     </row>
-    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>369</v>
       </c>
@@ -9558,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>371</v>
       </c>
@@ -9601,7 +9599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>372</v>
       </c>
@@ -9633,7 +9631,7 @@
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
     </row>
-    <row r="181" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>374</v>
       </c>
@@ -9665,7 +9663,7 @@
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
     </row>
-    <row r="182" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>373</v>
       </c>
@@ -9697,7 +9695,7 @@
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
     </row>
-    <row r="183" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>379</v>
       </c>
@@ -9729,7 +9727,7 @@
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
     </row>
-    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>381</v>
       </c>
@@ -9768,7 +9766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>367</v>
       </c>
@@ -9808,7 +9806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>384</v>
       </c>
@@ -9890,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>387</v>
       </c>
@@ -9912,7 +9910,7 @@
       <c r="O188" s="10"/>
       <c r="P188" s="10"/>
     </row>
-    <row r="189" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
         <v>388</v>
       </c>
@@ -9942,7 +9940,7 @@
       <c r="O189" s="10"/>
       <c r="P189" s="10"/>
     </row>
-    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>389</v>
       </c>
@@ -9982,7 +9980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>391</v>
       </c>
@@ -10014,7 +10012,7 @@
       <c r="O191" s="10"/>
       <c r="P191" s="10"/>
     </row>
-    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>394</v>
       </c>
@@ -10046,7 +10044,7 @@
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
     </row>
-    <row r="193" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>396</v>
       </c>
@@ -10080,7 +10078,7 @@
       <c r="O193" s="10"/>
       <c r="P193" s="10"/>
     </row>
-    <row r="194" spans="1:20" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
         <v>399</v>
       </c>
@@ -10106,7 +10104,7 @@
       <c r="O194" s="10"/>
       <c r="P194" s="10"/>
     </row>
-    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>402</v>
       </c>
@@ -10148,7 +10146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
         <v>405</v>
       </c>
@@ -10182,7 +10180,7 @@
       <c r="O196" s="10"/>
       <c r="P196" s="10"/>
     </row>
-    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="10" t="s">
         <v>409</v>
       </c>
@@ -10206,7 +10204,7 @@
       <c r="O197" s="10"/>
       <c r="P197" s="10"/>
     </row>
-    <row r="198" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
         <v>410</v>
       </c>
@@ -10238,7 +10236,7 @@
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
     </row>
-    <row r="199" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A199" s="10" t="s">
         <v>413</v>
       </c>
@@ -10270,7 +10268,7 @@
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
     </row>
-    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="10" t="s">
         <v>415</v>
       </c>
@@ -10312,7 +10310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201" s="10" t="s">
         <v>418</v>
       </c>
@@ -10352,7 +10350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A202" s="10" t="s">
         <v>420</v>
       </c>
@@ -10418,7 +10416,7 @@
       <c r="O203" s="10"/>
       <c r="P203" s="10"/>
     </row>
-    <row r="204" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A204" s="10" t="s">
         <v>424</v>
       </c>
@@ -10450,7 +10448,7 @@
       <c r="O204" s="10"/>
       <c r="P204" s="10"/>
     </row>
-    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
         <v>427</v>
       </c>
@@ -10478,7 +10476,7 @@
       <c r="O205" s="10"/>
       <c r="P205" s="10"/>
     </row>
-    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
         <v>428</v>
       </c>
@@ -10510,7 +10508,7 @@
       <c r="O206" s="10"/>
       <c r="P206" s="10"/>
     </row>
-    <row r="207" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A207" s="10" t="s">
         <v>430</v>
       </c>
@@ -10542,7 +10540,7 @@
       <c r="O207" s="10"/>
       <c r="P207" s="10"/>
     </row>
-    <row r="208" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A208" s="10" t="s">
         <v>433</v>
       </c>
@@ -10576,7 +10574,7 @@
       <c r="O208" s="10"/>
       <c r="P208" s="10"/>
     </row>
-    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
         <v>436</v>
       </c>
@@ -10618,7 +10616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" s="10" t="s">
         <v>438</v>
       </c>
@@ -10655,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="10"/>
-      <c r="G211" s="33" t="s">
+      <c r="G211" s="10" t="s">
         <v>1082</v>
       </c>
       <c r="H211" s="10">
@@ -10677,7 +10675,7 @@
       <c r="P211" s="10"/>
       <c r="R211" s="14"/>
     </row>
-    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" s="10" t="s">
         <v>441</v>
       </c>
@@ -10717,7 +10715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
         <v>443</v>
       </c>
@@ -10757,7 +10755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" s="10" t="s">
         <v>445</v>
       </c>
@@ -10791,7 +10789,7 @@
       <c r="O214" s="10"/>
       <c r="P214" s="10"/>
     </row>
-    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215" s="10" t="s">
         <v>447</v>
       </c>
@@ -10831,7 +10829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A216" s="10" t="s">
         <v>449</v>
       </c>
@@ -10899,7 +10897,7 @@
       <c r="O217" s="10"/>
       <c r="P217" s="10"/>
     </row>
-    <row r="218" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A218" s="10" t="s">
         <v>453</v>
       </c>
@@ -10931,7 +10929,7 @@
       <c r="O218" s="10"/>
       <c r="P218" s="10"/>
     </row>
-    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" s="10" t="s">
         <v>455</v>
       </c>
@@ -10953,7 +10951,7 @@
       <c r="O219" s="10"/>
       <c r="P219" s="10"/>
     </row>
-    <row r="220" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A220" s="10" t="s">
         <v>456</v>
       </c>
@@ -10985,7 +10983,7 @@
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
     </row>
-    <row r="221" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A221" s="10" t="s">
         <v>459</v>
       </c>
@@ -11017,7 +11015,7 @@
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
     </row>
-    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" s="10" t="s">
         <v>462</v>
       </c>
@@ -11047,7 +11045,7 @@
       <c r="O222" s="10"/>
       <c r="P222" s="10"/>
     </row>
-    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" s="10" t="s">
         <v>464</v>
       </c>
@@ -11071,7 +11069,7 @@
       <c r="O223" s="10"/>
       <c r="P223" s="10"/>
     </row>
-    <row r="224" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A224" s="10" t="s">
         <v>466</v>
       </c>
@@ -11103,7 +11101,7 @@
       <c r="O224" s="10"/>
       <c r="P224" s="10"/>
     </row>
-    <row r="225" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A225" s="10" t="s">
         <v>469</v>
       </c>
@@ -11135,7 +11133,7 @@
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
     </row>
-    <row r="226" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A226" s="10" t="s">
         <v>471</v>
       </c>
@@ -11167,7 +11165,7 @@
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
     </row>
-    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
         <v>473</v>
       </c>
@@ -11199,7 +11197,7 @@
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
     </row>
-    <row r="228" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
         <v>476</v>
       </c>
@@ -11231,7 +11229,7 @@
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
     </row>
-    <row r="229" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
         <v>479</v>
       </c>
@@ -11263,7 +11261,7 @@
       <c r="O229" s="10"/>
       <c r="P229" s="10"/>
     </row>
-    <row r="230" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A230" s="10" t="s">
         <v>330</v>
       </c>
@@ -11295,7 +11293,7 @@
       <c r="O230" s="10"/>
       <c r="P230" s="10"/>
     </row>
-    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" s="10" t="s">
         <v>483</v>
       </c>
@@ -11327,7 +11325,7 @@
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
     </row>
-    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
         <v>486</v>
       </c>
@@ -11367,7 +11365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
         <v>488</v>
       </c>
@@ -11407,7 +11405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
         <v>490</v>
       </c>
@@ -11437,7 +11435,7 @@
       <c r="O234" s="10"/>
       <c r="P234" s="10"/>
     </row>
-    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" s="10" t="s">
         <v>492</v>
       </c>
@@ -11465,7 +11463,7 @@
       <c r="O235" s="10"/>
       <c r="P235" s="10"/>
     </row>
-    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
         <v>493</v>
       </c>
@@ -11491,7 +11489,7 @@
       <c r="O236" s="10"/>
       <c r="P236" s="10"/>
     </row>
-    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" s="10" t="s">
         <v>494</v>
       </c>
@@ -11517,7 +11515,7 @@
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
     </row>
-    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" s="10" t="s">
         <v>495</v>
       </c>
@@ -11543,7 +11541,7 @@
       <c r="O238" s="10"/>
       <c r="P238" s="10"/>
     </row>
-    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" s="10" t="s">
         <v>496</v>
       </c>
@@ -11565,7 +11563,7 @@
       <c r="O239" s="10"/>
       <c r="P239" s="10"/>
     </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" s="10" t="s">
         <v>497</v>
       </c>
@@ -11591,7 +11589,7 @@
       <c r="O240" s="10"/>
       <c r="P240" s="10"/>
     </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" s="10" t="s">
         <v>498</v>
       </c>
@@ -11617,7 +11615,7 @@
       <c r="O241" s="10"/>
       <c r="P241" s="10"/>
     </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" s="10" t="s">
         <v>499</v>
       </c>
@@ -11683,7 +11681,7 @@
       <c r="O243" s="10"/>
       <c r="P243" s="10"/>
     </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" s="10" t="s">
         <v>501</v>
       </c>
@@ -11715,7 +11713,7 @@
       <c r="O244" s="10"/>
       <c r="P244" s="10"/>
     </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" s="10" t="s">
         <v>503</v>
       </c>
@@ -11741,7 +11739,7 @@
       <c r="O245" s="10"/>
       <c r="P245" s="10"/>
     </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" s="10" t="s">
         <v>504</v>
       </c>
@@ -11769,7 +11767,7 @@
       <c r="O246" s="10"/>
       <c r="P246" s="10"/>
     </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" s="10" t="s">
         <v>505</v>
       </c>
@@ -11801,7 +11799,7 @@
       <c r="O247" s="10"/>
       <c r="P247" s="10"/>
     </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" s="10" t="s">
         <v>508</v>
       </c>
@@ -11841,7 +11839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" s="10" t="s">
         <v>510</v>
       </c>
@@ -11873,7 +11871,7 @@
       <c r="O249" s="10"/>
       <c r="P249" s="10"/>
     </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" s="10" t="s">
         <v>512</v>
       </c>
@@ -11899,7 +11897,7 @@
       <c r="O250" s="10"/>
       <c r="P250" s="10"/>
     </row>
-    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" s="10" t="s">
         <v>513</v>
       </c>
@@ -11925,7 +11923,7 @@
       <c r="O251" s="10"/>
       <c r="P251" s="10"/>
     </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" s="10" t="s">
         <v>514</v>
       </c>
@@ -11951,7 +11949,7 @@
       <c r="O252" s="10"/>
       <c r="P252" s="10"/>
     </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" s="10" t="s">
         <v>515</v>
       </c>
@@ -11977,7 +11975,7 @@
       <c r="O253" s="10"/>
       <c r="P253" s="10"/>
     </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="10" t="s">
         <v>516</v>
       </c>
@@ -12003,7 +12001,7 @@
       <c r="O254" s="10"/>
       <c r="P254" s="10"/>
     </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="10" t="s">
         <v>517</v>
       </c>
@@ -12029,7 +12027,7 @@
       <c r="O255" s="10"/>
       <c r="P255" s="10"/>
     </row>
-    <row r="256" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A256" s="10" t="s">
         <v>518</v>
       </c>
@@ -12061,7 +12059,7 @@
       <c r="O256" s="10"/>
       <c r="P256" s="10"/>
     </row>
-    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" s="10" t="s">
         <v>520</v>
       </c>
@@ -12087,7 +12085,7 @@
       <c r="O257" s="10"/>
       <c r="P257" s="10"/>
     </row>
-    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
         <v>521</v>
       </c>
@@ -12109,7 +12107,7 @@
       <c r="O258" s="10"/>
       <c r="P258" s="10"/>
     </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
         <v>522</v>
       </c>
@@ -12148,7 +12146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
         <v>525</v>
       </c>
@@ -12174,7 +12172,7 @@
       <c r="O260" s="10"/>
       <c r="P260" s="10"/>
     </row>
-    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
         <v>526</v>
       </c>
@@ -12200,7 +12198,7 @@
       <c r="O261" s="10"/>
       <c r="P261" s="10"/>
     </row>
-    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="10" t="s">
         <v>527</v>
       </c>
@@ -12226,7 +12224,7 @@
       <c r="O262" s="10"/>
       <c r="P262" s="10"/>
     </row>
-    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
         <v>528</v>
       </c>
@@ -12252,7 +12250,7 @@
       <c r="O263" s="10"/>
       <c r="P263" s="10"/>
     </row>
-    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" s="10" t="s">
         <v>529</v>
       </c>
@@ -12284,7 +12282,7 @@
       <c r="O264" s="10"/>
       <c r="P264" s="10"/>
     </row>
-    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" s="10" t="s">
         <v>532</v>
       </c>
@@ -12316,7 +12314,7 @@
       <c r="O265" s="10"/>
       <c r="P265" s="10"/>
     </row>
-    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" s="10" t="s">
         <v>534</v>
       </c>
@@ -12356,7 +12354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" s="10" t="s">
         <v>536</v>
       </c>
@@ -12382,7 +12380,7 @@
       <c r="O267" s="10"/>
       <c r="P267" s="10"/>
     </row>
-    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" s="10" t="s">
         <v>539</v>
       </c>
@@ -12414,7 +12412,7 @@
       <c r="O268" s="10"/>
       <c r="P268" s="10"/>
     </row>
-    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" s="10" t="s">
         <v>541</v>
       </c>
@@ -12438,7 +12436,7 @@
       <c r="O269" s="10"/>
       <c r="P269" s="10"/>
     </row>
-    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" s="10" t="s">
         <v>542</v>
       </c>
@@ -12478,7 +12476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" s="10" t="s">
         <v>544</v>
       </c>
@@ -12504,7 +12502,7 @@
       <c r="O271" s="10"/>
       <c r="P271" s="10"/>
     </row>
-    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" s="10" t="s">
         <v>200</v>
       </c>
@@ -12530,7 +12528,7 @@
       <c r="O272" s="10"/>
       <c r="P272" s="10"/>
     </row>
-    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273" s="10" t="s">
         <v>545</v>
       </c>
@@ -12556,7 +12554,7 @@
       <c r="O273" s="10"/>
       <c r="P273" s="10"/>
     </row>
-    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" s="10" t="s">
         <v>546</v>
       </c>
@@ -12586,7 +12584,7 @@
       <c r="O274" s="10"/>
       <c r="P274" s="10"/>
     </row>
-    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275" s="10" t="s">
         <v>548</v>
       </c>
@@ -12612,7 +12610,7 @@
       <c r="O275" s="10"/>
       <c r="P275" s="10"/>
     </row>
-    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276" s="10" t="s">
         <v>549</v>
       </c>
@@ -12638,7 +12636,7 @@
       <c r="O276" s="10"/>
       <c r="P276" s="10"/>
     </row>
-    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" s="10" t="s">
         <v>550</v>
       </c>
@@ -12670,7 +12668,7 @@
       <c r="O277" s="10"/>
       <c r="P277" s="10"/>
     </row>
-    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" s="10" t="s">
         <v>552</v>
       </c>
@@ -12702,7 +12700,7 @@
       <c r="O278" s="10"/>
       <c r="P278" s="10"/>
     </row>
-    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" s="10" t="s">
         <v>554</v>
       </c>
@@ -12728,7 +12726,7 @@
       <c r="O279" s="10"/>
       <c r="P279" s="10"/>
     </row>
-    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" s="10" t="s">
         <v>555</v>
       </c>
@@ -12754,7 +12752,7 @@
       <c r="O280" s="10"/>
       <c r="P280" s="10"/>
     </row>
-    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" s="10" t="s">
         <v>556</v>
       </c>
@@ -12796,7 +12794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" s="10" t="s">
         <v>557</v>
       </c>
@@ -12824,7 +12822,7 @@
       <c r="O282" s="10"/>
       <c r="P282" s="10"/>
     </row>
-    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283" s="10" t="s">
         <v>559</v>
       </c>
@@ -12852,7 +12850,7 @@
       <c r="O283" s="10"/>
       <c r="P283" s="10"/>
     </row>
-    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" s="10" t="s">
         <v>560</v>
       </c>
@@ -12878,7 +12876,7 @@
       <c r="O284" s="10"/>
       <c r="P284" s="10"/>
     </row>
-    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285" s="10" t="s">
         <v>561</v>
       </c>
@@ -12904,7 +12902,7 @@
       <c r="O285" s="10"/>
       <c r="P285" s="10"/>
     </row>
-    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286" s="10" t="s">
         <v>562</v>
       </c>
@@ -12930,7 +12928,7 @@
       <c r="O286" s="10"/>
       <c r="P286" s="10"/>
     </row>
-    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" s="10" t="s">
         <v>563</v>
       </c>
@@ -12956,7 +12954,7 @@
       <c r="O287" s="10"/>
       <c r="P287" s="10"/>
     </row>
-    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" s="10" t="s">
         <v>564</v>
       </c>
@@ -12982,7 +12980,7 @@
       <c r="O288" s="10"/>
       <c r="P288" s="10"/>
     </row>
-    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" s="10" t="s">
         <v>565</v>
       </c>
@@ -13021,7 +13019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" s="10" t="s">
         <v>568</v>
       </c>
@@ -13060,7 +13058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" s="10" t="s">
         <v>571</v>
       </c>
@@ -13080,7 +13078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" s="10" t="s">
         <v>572</v>
       </c>
@@ -13123,7 +13121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293" s="10" t="s">
         <v>573</v>
       </c>
@@ -13160,7 +13158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294" s="10" t="s">
         <v>574</v>
       </c>
@@ -13186,7 +13184,7 @@
       </c>
       <c r="L294" s="10"/>
     </row>
-    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" s="10" t="s">
         <v>576</v>
       </c>
@@ -13225,7 +13223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" s="10" t="s">
         <v>579</v>
       </c>
@@ -13254,7 +13252,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" s="10" t="s">
         <v>582</v>
       </c>
@@ -13283,7 +13281,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298" s="10" t="s">
         <v>115</v>
       </c>
@@ -13320,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299" s="10" t="s">
         <v>586</v>
       </c>
@@ -13340,7 +13338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" s="10" t="s">
         <v>587</v>
       </c>
@@ -13384,7 +13382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301" s="10" t="s">
         <v>119</v>
       </c>
@@ -13421,7 +13419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" s="10" t="s">
         <v>590</v>
       </c>
@@ -13461,7 +13459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303" s="10" t="s">
         <v>592</v>
       </c>
@@ -13520,7 +13518,7 @@
       <c r="L304" s="10"/>
       <c r="N304" s="14"/>
     </row>
-    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305" s="10" t="s">
         <v>597</v>
       </c>
@@ -13557,7 +13555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306" s="10" t="s">
         <v>599</v>
       </c>
@@ -13594,7 +13592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20" ht="20" x14ac:dyDescent="0.2">
       <c r="A307" s="10" t="s">
         <v>601</v>
       </c>
@@ -13637,7 +13635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308" s="10" t="s">
         <v>603</v>
       </c>
@@ -13674,7 +13672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309" s="10" t="s">
         <v>605</v>
       </c>
@@ -13747,7 +13745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A311" s="10" t="s">
         <v>242</v>
       </c>
@@ -13780,7 +13778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" ht="23" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
         <v>611</v>
       </c>
@@ -13811,7 +13809,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A313" s="10" t="s">
         <v>615</v>
       </c>
@@ -13840,7 +13838,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A314" s="10" t="s">
         <v>618</v>
       </c>
@@ -13868,7 +13866,7 @@
       </c>
       <c r="L314" s="10"/>
     </row>
-    <row r="315" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A315" s="10" t="s">
         <v>621</v>
       </c>
@@ -13894,7 +13892,7 @@
       </c>
       <c r="L315" s="10"/>
     </row>
-    <row r="316" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A316" s="10" t="s">
         <v>623</v>
       </c>
@@ -13923,7 +13921,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A317" s="10" t="s">
         <v>626</v>
       </c>
@@ -13954,7 +13952,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318" s="10" t="s">
         <v>629</v>
       </c>
@@ -13972,7 +13970,7 @@
       <c r="K318" s="10"/>
       <c r="L318" s="10"/>
     </row>
-    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319" s="10" t="s">
         <v>630</v>
       </c>
@@ -14018,7 +14016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320" s="10" t="s">
         <v>632</v>
       </c>
@@ -14091,7 +14089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" ht="23" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
         <v>637</v>
       </c>
@@ -14111,7 +14109,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A323" s="10" t="s">
         <v>639</v>
       </c>
@@ -14147,7 +14145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324" s="10" t="s">
         <v>640</v>
       </c>
@@ -14184,7 +14182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325" s="10" t="s">
         <v>642</v>
       </c>
@@ -14260,7 +14258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A327" s="10" t="s">
         <v>646</v>
       </c>
@@ -14286,7 +14284,7 @@
       </c>
       <c r="L327" s="10"/>
     </row>
-    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328" s="10" t="s">
         <v>647</v>
       </c>
@@ -14308,7 +14306,7 @@
       <c r="K328" s="10"/>
       <c r="L328" s="10"/>
     </row>
-    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" s="10" t="s">
         <v>648</v>
       </c>
@@ -14345,7 +14343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330" s="10" t="s">
         <v>650</v>
       </c>
@@ -14382,7 +14380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A331" s="10" t="s">
         <v>652</v>
       </c>
@@ -14413,7 +14411,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A332" s="10" t="s">
         <v>656</v>
       </c>
@@ -14441,7 +14439,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A333" s="10" t="s">
         <v>659</v>
       </c>
@@ -14496,7 +14494,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335" s="10" t="s">
         <v>664</v>
       </c>
@@ -14550,7 +14548,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A337" s="18" t="s">
         <v>668</v>
       </c>
@@ -14590,7 +14588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A338" s="10" t="s">
         <v>670</v>
       </c>
@@ -14619,7 +14617,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="339" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A339" s="10" t="s">
         <v>672</v>
       </c>
@@ -14645,7 +14643,7 @@
       </c>
       <c r="L339" s="10"/>
     </row>
-    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A340" s="10" t="s">
         <v>674</v>
       </c>
@@ -14674,7 +14672,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341" s="10" t="s">
         <v>677</v>
       </c>
@@ -14708,7 +14706,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A342" s="10" t="s">
         <v>681</v>
       </c>
@@ -14728,7 +14726,7 @@
       <c r="K342" s="10"/>
       <c r="L342" s="10"/>
     </row>
-    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A343" s="10" t="s">
         <v>682</v>
       </c>
@@ -14754,7 +14752,7 @@
       </c>
       <c r="L343" s="10"/>
     </row>
-    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A344" s="10" t="s">
         <v>684</v>
       </c>
@@ -14783,7 +14781,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A345" s="10" t="s">
         <v>686</v>
       </c>
@@ -14812,7 +14810,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="346" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A346" s="10" t="s">
         <v>689</v>
       </c>
@@ -14843,7 +14841,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A347" s="10" t="s">
         <v>693</v>
       </c>
@@ -14865,7 +14863,7 @@
       <c r="K347" s="10"/>
       <c r="L347" s="10"/>
     </row>
-    <row r="348" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A348" s="10" t="s">
         <v>694</v>
       </c>
@@ -14893,7 +14891,7 @@
       </c>
       <c r="L348" s="10"/>
     </row>
-    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A349" s="10" t="s">
         <v>697</v>
       </c>
@@ -14915,7 +14913,7 @@
       <c r="K349" s="10"/>
       <c r="L349" s="10"/>
     </row>
-    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A350" s="10" t="s">
         <v>698</v>
       </c>
@@ -14937,7 +14935,7 @@
       <c r="K350" s="10"/>
       <c r="L350" s="10"/>
     </row>
-    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A351" s="10" t="s">
         <v>699</v>
       </c>
@@ -14959,7 +14957,7 @@
       <c r="K351" s="10"/>
       <c r="L351" s="10"/>
     </row>
-    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A352" s="10" t="s">
         <v>700</v>
       </c>
@@ -14981,7 +14979,7 @@
       <c r="K352" s="10"/>
       <c r="L352" s="10"/>
     </row>
-    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A353" s="10" t="s">
         <v>701</v>
       </c>
@@ -15003,7 +15001,7 @@
       <c r="K353" s="10"/>
       <c r="L353" s="10"/>
     </row>
-    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354" s="10" t="s">
         <v>702</v>
       </c>
@@ -15043,7 +15041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A355" s="10" t="s">
         <v>704</v>
       </c>
@@ -15083,7 +15081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A356" s="10" t="s">
         <v>705</v>
       </c>
@@ -15126,7 +15124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A357" s="10" t="s">
         <v>707</v>
       </c>
@@ -15153,7 +15151,7 @@
       <c r="L357" s="10"/>
       <c r="N357" s="14"/>
     </row>
-    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358" s="10" t="s">
         <v>708</v>
       </c>
@@ -15190,7 +15188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A359" s="10" t="s">
         <v>710</v>
       </c>
@@ -15216,7 +15214,7 @@
       </c>
       <c r="L359" s="10"/>
     </row>
-    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A360" s="10" t="s">
         <v>712</v>
       </c>
@@ -15245,7 +15243,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A361" s="10" t="s">
         <v>714</v>
       </c>
@@ -15274,7 +15272,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A362" s="10" t="s">
         <v>716</v>
       </c>
@@ -15300,7 +15298,7 @@
       </c>
       <c r="L362" s="10"/>
     </row>
-    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A363" s="10" t="s">
         <v>717</v>
       </c>
@@ -15327,7 +15325,7 @@
       <c r="L363" s="10"/>
       <c r="N363" s="1"/>
     </row>
-    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A364" s="10" t="s">
         <v>719</v>
       </c>
@@ -15358,7 +15356,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A365" s="10" t="s">
         <v>723</v>
       </c>
@@ -15387,7 +15385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A366" s="10" t="s">
         <v>725</v>
       </c>
@@ -15418,7 +15416,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A367" s="10" t="s">
         <v>729</v>
       </c>
@@ -15520,7 +15518,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" s="10" t="s">
         <v>736</v>
       </c>
@@ -15542,7 +15540,7 @@
       <c r="K370" s="10"/>
       <c r="L370" s="10"/>
     </row>
-    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371" s="10" t="s">
         <v>737</v>
       </c>
@@ -15564,7 +15562,7 @@
       <c r="K371" s="10"/>
       <c r="L371" s="10"/>
     </row>
-    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" s="10" t="s">
         <v>738</v>
       </c>
@@ -15586,7 +15584,7 @@
       <c r="K372" s="10"/>
       <c r="L372" s="10"/>
     </row>
-    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" s="10" t="s">
         <v>739</v>
       </c>
@@ -15608,7 +15606,7 @@
       <c r="K373" s="10"/>
       <c r="L373" s="10"/>
     </row>
-    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" s="10" t="s">
         <v>740</v>
       </c>
@@ -15630,7 +15628,7 @@
       <c r="K374" s="10"/>
       <c r="L374" s="10"/>
     </row>
-    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375" s="10" t="s">
         <v>741</v>
       </c>
@@ -15652,7 +15650,7 @@
       <c r="K375" s="10"/>
       <c r="L375" s="10"/>
     </row>
-    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" s="10" t="s">
         <v>742</v>
       </c>
@@ -15674,7 +15672,7 @@
       <c r="K376" s="10"/>
       <c r="L376" s="10"/>
     </row>
-    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" s="10" t="s">
         <v>743</v>
       </c>
@@ -15696,7 +15694,7 @@
       <c r="K377" s="10"/>
       <c r="L377" s="10"/>
     </row>
-    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" s="10" t="s">
         <v>744</v>
       </c>
@@ -15718,7 +15716,7 @@
       <c r="K378" s="10"/>
       <c r="L378" s="10"/>
     </row>
-    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379" s="10" t="s">
         <v>745</v>
       </c>
@@ -15740,7 +15738,7 @@
       <c r="K379" s="10"/>
       <c r="L379" s="10"/>
     </row>
-    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" s="10" t="s">
         <v>746</v>
       </c>
@@ -15762,7 +15760,7 @@
       <c r="K380" s="10"/>
       <c r="L380" s="10"/>
     </row>
-    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" s="10" t="s">
         <v>747</v>
       </c>
@@ -15784,7 +15782,7 @@
       <c r="K381" s="10"/>
       <c r="L381" s="10"/>
     </row>
-    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" s="10" t="s">
         <v>748</v>
       </c>
@@ -15806,7 +15804,7 @@
       <c r="K382" s="10"/>
       <c r="L382" s="10"/>
     </row>
-    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383" s="10" t="s">
         <v>749</v>
       </c>
@@ -15828,7 +15826,7 @@
       <c r="K383" s="10"/>
       <c r="L383" s="10"/>
     </row>
-    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" s="10" t="s">
         <v>750</v>
       </c>
@@ -15850,7 +15848,7 @@
       <c r="K384" s="10"/>
       <c r="L384" s="10"/>
     </row>
-    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A385" s="10" t="s">
         <v>751</v>
       </c>
@@ -15872,7 +15870,7 @@
       <c r="K385" s="10"/>
       <c r="L385" s="10"/>
     </row>
-    <row r="386" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A386" s="10" t="s">
         <v>752</v>
       </c>
@@ -15892,7 +15890,7 @@
       <c r="K386" s="9"/>
       <c r="L386" s="10"/>
     </row>
-    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A387" s="10" t="s">
         <v>753</v>
       </c>
@@ -15932,7 +15930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A388" s="10" t="s">
         <v>755</v>
       </c>
@@ -15961,7 +15959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A389" s="10" t="s">
         <v>757</v>
       </c>
@@ -15987,7 +15985,7 @@
       </c>
       <c r="L389" s="10"/>
     </row>
-    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390" s="10" t="s">
         <v>759</v>
       </c>
@@ -16027,7 +16025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A391" s="10" t="s">
         <v>761</v>
       </c>
@@ -16045,7 +16043,7 @@
       <c r="K391" s="10"/>
       <c r="L391" s="10"/>
     </row>
-    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A392" s="10" t="s">
         <v>762</v>
       </c>
@@ -16081,7 +16079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A393" s="10" t="s">
         <v>764</v>
       </c>
@@ -16107,7 +16105,7 @@
       </c>
       <c r="L393" s="10"/>
     </row>
-    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A394" s="10" t="s">
         <v>765</v>
       </c>
@@ -16136,7 +16134,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A395" s="10" t="s">
         <v>767</v>
       </c>
@@ -16173,7 +16171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A396" s="10" t="s">
         <v>769</v>
       </c>
@@ -16209,7 +16207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A397" s="10" t="s">
         <v>773</v>
       </c>
@@ -16249,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A398" s="10" t="s">
         <v>776</v>
       </c>
@@ -16279,7 +16277,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A399" s="10" t="s">
         <v>778</v>
       </c>
@@ -16301,7 +16299,7 @@
       <c r="K399" s="10"/>
       <c r="L399" s="10"/>
     </row>
-    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A400" s="10" t="s">
         <v>779</v>
       </c>
@@ -16327,7 +16325,7 @@
       </c>
       <c r="L400" s="10"/>
     </row>
-    <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A401" s="10" t="s">
         <v>780</v>
       </c>
@@ -16358,7 +16356,7 @@
       <c r="L401" s="10"/>
       <c r="N401" s="14"/>
     </row>
-    <row r="402" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A402" s="10" t="s">
         <v>782</v>
       </c>
@@ -16384,7 +16382,7 @@
       </c>
       <c r="L402" s="10"/>
     </row>
-    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A403" s="10" t="s">
         <v>784</v>
       </c>
@@ -16411,7 +16409,7 @@
       <c r="L403" s="10"/>
       <c r="N403" s="14"/>
     </row>
-    <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A404" s="10" t="s">
         <v>785</v>
       </c>
@@ -16433,7 +16431,7 @@
       <c r="K404" s="10"/>
       <c r="L404" s="10"/>
     </row>
-    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A405" s="10" t="s">
         <v>786</v>
       </c>
@@ -16455,7 +16453,7 @@
       <c r="K405" s="10"/>
       <c r="L405" s="10"/>
     </row>
-    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A406" s="10" t="s">
         <v>787</v>
       </c>
@@ -16477,7 +16475,7 @@
       <c r="K406" s="10"/>
       <c r="L406" s="10"/>
     </row>
-    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A407" s="10" t="s">
         <v>788</v>
       </c>
@@ -16508,7 +16506,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A408" s="10" t="s">
         <v>792</v>
       </c>
@@ -16530,7 +16528,7 @@
       <c r="K408" s="10"/>
       <c r="L408" s="10"/>
     </row>
-    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A409" s="10" t="s">
         <v>752</v>
       </c>
@@ -16556,7 +16554,7 @@
       </c>
       <c r="L409" s="10"/>
     </row>
-    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>794</v>
       </c>
@@ -16570,7 +16568,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>796</v>
       </c>
@@ -16604,7 +16602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>798</v>
       </c>
@@ -16632,7 +16630,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>801</v>
       </c>
@@ -16666,7 +16664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>803</v>
       </c>
@@ -16693,7 +16691,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="415" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>806</v>
       </c>
@@ -16720,7 +16718,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="416" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>808</v>
       </c>
@@ -16746,7 +16744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>809</v>
       </c>
@@ -16754,7 +16752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>810</v>
       </c>
@@ -16806,7 +16804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>814</v>
       </c>
@@ -16849,7 +16847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>816</v>
       </c>
@@ -16886,7 +16884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>818</v>
       </c>
@@ -16926,7 +16924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>820</v>
       </c>
@@ -16960,7 +16958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:20" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>822</v>
       </c>
@@ -16993,7 +16991,7 @@
       </c>
       <c r="R424" s="14"/>
     </row>
-    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>825</v>
       </c>
@@ -17036,7 +17034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>827</v>
       </c>
@@ -17070,7 +17068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>829</v>
       </c>
@@ -17104,7 +17102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>831</v>
       </c>
@@ -17144,7 +17142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>833</v>
       </c>
@@ -17169,7 +17167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>835</v>
       </c>
@@ -17217,7 +17215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>839</v>
       </c>
@@ -17260,7 +17258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>476</v>
       </c>
@@ -17295,7 +17293,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>842</v>
       </c>
@@ -17310,7 +17308,7 @@
       </c>
       <c r="F434" s="10"/>
     </row>
-    <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>843</v>
       </c>
@@ -17325,7 +17323,7 @@
       </c>
       <c r="F435" s="10"/>
     </row>
-    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>844</v>
       </c>
@@ -17340,7 +17338,7 @@
       </c>
       <c r="F436" s="10"/>
     </row>
-    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>845</v>
       </c>
@@ -17355,7 +17353,7 @@
       </c>
       <c r="F437" s="10"/>
     </row>
-    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>846</v>
       </c>
@@ -17370,7 +17368,7 @@
       </c>
       <c r="F438" s="10"/>
     </row>
-    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A439" s="10" t="s">
         <v>847</v>
       </c>
@@ -17414,7 +17412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A440" s="10" t="s">
         <v>850</v>
       </c>
@@ -17438,7 +17436,7 @@
       <c r="O440" s="10"/>
       <c r="P440" s="10"/>
     </row>
-    <row r="441" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A441" s="10" t="s">
         <v>851</v>
       </c>
@@ -17480,7 +17478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A442" s="10" t="s">
         <v>853</v>
       </c>
@@ -17502,7 +17500,7 @@
       <c r="O442" s="10"/>
       <c r="P442" s="10"/>
     </row>
-    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A443" s="10" t="s">
         <v>854</v>
       </c>
@@ -17542,7 +17540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A444" s="10" t="s">
         <v>855</v>
       </c>
@@ -17598,7 +17596,7 @@
       <c r="O445" s="10"/>
       <c r="P445" s="10"/>
     </row>
-    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A446" s="10" t="s">
         <v>858</v>
       </c>
@@ -17623,7 +17621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A447" s="10" t="s">
         <v>860</v>
       </c>
@@ -17663,7 +17661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A448" s="10" t="s">
         <v>861</v>
       </c>
@@ -17695,7 +17693,7 @@
       <c r="O448" s="10"/>
       <c r="P448" s="10"/>
     </row>
-    <row r="449" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A449" s="10" t="s">
         <v>864</v>
       </c>
@@ -17727,7 +17725,7 @@
       <c r="O449" s="10"/>
       <c r="P449" s="10"/>
     </row>
-    <row r="450" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A450" s="10" t="s">
         <v>866</v>
       </c>
@@ -17757,7 +17755,7 @@
       <c r="O450" s="10"/>
       <c r="P450" s="10"/>
     </row>
-    <row r="451" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A451" s="10" t="s">
         <v>868</v>
       </c>
@@ -17804,7 +17802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A452" s="10" t="s">
         <v>872</v>
       </c>
@@ -17870,7 +17868,7 @@
       </c>
       <c r="R453" s="14"/>
     </row>
-    <row r="454" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A454" s="10" t="s">
         <v>876</v>
       </c>
@@ -17902,7 +17900,7 @@
       <c r="O454" s="10"/>
       <c r="P454" s="10"/>
     </row>
-    <row r="455" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" ht="23" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
         <v>879</v>
       </c>
@@ -17936,7 +17934,7 @@
       <c r="O455" s="10"/>
       <c r="P455" s="10"/>
     </row>
-    <row r="456" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A456" s="10" t="s">
         <v>883</v>
       </c>
@@ -17968,7 +17966,7 @@
       <c r="O456" s="10"/>
       <c r="P456" s="10"/>
     </row>
-    <row r="457" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A457" s="10" t="s">
         <v>886</v>
       </c>
@@ -17990,7 +17988,7 @@
       <c r="O457" s="10"/>
       <c r="P457" s="10"/>
     </row>
-    <row r="458" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A458" s="10" t="s">
         <v>887</v>
       </c>
@@ -18012,7 +18010,7 @@
       <c r="O458" s="10"/>
       <c r="P458" s="10"/>
     </row>
-    <row r="459" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A459" s="10" t="s">
         <v>888</v>
       </c>
@@ -18078,7 +18076,7 @@
       <c r="O460" s="10"/>
       <c r="P460" s="10"/>
     </row>
-    <row r="461" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A461" s="10" t="s">
         <v>893</v>
       </c>
@@ -18118,7 +18116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A462" s="10" t="s">
         <v>895</v>
       </c>
@@ -18142,7 +18140,7 @@
       <c r="O462" s="10"/>
       <c r="P462" s="10"/>
     </row>
-    <row r="463" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A463" s="10" t="s">
         <v>896</v>
       </c>
@@ -18166,7 +18164,7 @@
       <c r="O463" s="10"/>
       <c r="P463" s="10"/>
     </row>
-    <row r="464" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A464" s="10" t="s">
         <v>897</v>
       </c>
@@ -18196,7 +18194,7 @@
       <c r="O464" s="10"/>
       <c r="P464" s="10"/>
     </row>
-    <row r="465" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A465" s="10" t="s">
         <v>899</v>
       </c>
@@ -18222,7 +18220,7 @@
       <c r="O465" s="10"/>
       <c r="P465" s="10"/>
     </row>
-    <row r="466" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A466" s="10" t="s">
         <v>900</v>
       </c>
@@ -18246,7 +18244,7 @@
       <c r="O466" s="10"/>
       <c r="P466" s="10"/>
     </row>
-    <row r="467" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A467" s="10" t="s">
         <v>902</v>
       </c>
@@ -18272,7 +18270,7 @@
       <c r="O467" s="10"/>
       <c r="P467" s="10"/>
     </row>
-    <row r="468" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A468" s="10" t="s">
         <v>687</v>
       </c>
@@ -18298,7 +18296,7 @@
       <c r="O468" s="10"/>
       <c r="P468" s="10"/>
     </row>
-    <row r="469" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A469" s="10" t="s">
         <v>64</v>
       </c>
@@ -18328,7 +18326,7 @@
       <c r="O469" s="10"/>
       <c r="P469" s="10"/>
     </row>
-    <row r="470" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A470" s="10" t="s">
         <v>906</v>
       </c>
@@ -18372,7 +18370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A471" s="10" t="s">
         <v>907</v>
       </c>
@@ -18406,7 +18404,7 @@
       <c r="O471" s="10"/>
       <c r="P471" s="10"/>
     </row>
-    <row r="472" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A472" s="10" t="s">
         <v>909</v>
       </c>
@@ -18446,7 +18444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A473" s="10" t="s">
         <v>911</v>
       </c>
@@ -18486,7 +18484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A474" s="10" t="s">
         <v>913</v>
       </c>
@@ -18516,7 +18514,7 @@
       <c r="O474" s="10"/>
       <c r="P474" s="10"/>
     </row>
-    <row r="475" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A475" s="10" t="s">
         <v>914</v>
       </c>
@@ -18586,7 +18584,7 @@
       <c r="O476" s="10"/>
       <c r="P476" s="10"/>
     </row>
-    <row r="477" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A477" s="10" t="s">
         <v>919</v>
       </c>
@@ -18610,7 +18608,7 @@
       <c r="O477" s="10"/>
       <c r="P477" s="10"/>
     </row>
-    <row r="478" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A478" s="10" t="s">
         <v>920</v>
       </c>
@@ -18640,7 +18638,7 @@
       <c r="O478" s="10"/>
       <c r="P478" s="10"/>
     </row>
-    <row r="479" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A479" s="10" t="s">
         <v>922</v>
       </c>
@@ -18670,7 +18668,7 @@
       <c r="O479" s="10"/>
       <c r="P479" s="10"/>
     </row>
-    <row r="480" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A480" s="10" t="s">
         <v>924</v>
       </c>
@@ -18698,7 +18696,7 @@
       <c r="O480" s="10"/>
       <c r="P480" s="10"/>
     </row>
-    <row r="481" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" ht="23" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
         <v>926</v>
       </c>
@@ -18732,7 +18730,7 @@
       <c r="O481" s="10"/>
       <c r="P481" s="10"/>
     </row>
-    <row r="482" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" s="10" t="s">
         <v>929</v>
       </c>
@@ -18758,7 +18756,7 @@
       <c r="O482" s="10"/>
       <c r="P482" s="10"/>
     </row>
-    <row r="483" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" s="10" t="s">
         <v>930</v>
       </c>
@@ -18784,7 +18782,7 @@
       <c r="O483" s="10"/>
       <c r="P483" s="10"/>
     </row>
-    <row r="484" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484" s="10" t="s">
         <v>931</v>
       </c>
@@ -18810,7 +18808,7 @@
       <c r="O484" s="10"/>
       <c r="P484" s="10"/>
     </row>
-    <row r="485" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A485" s="10" t="s">
         <v>932</v>
       </c>
@@ -18836,7 +18834,7 @@
       <c r="O485" s="10"/>
       <c r="P485" s="10"/>
     </row>
-    <row r="486" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A486" s="10" t="s">
         <v>933</v>
       </c>
@@ -18862,7 +18860,7 @@
       <c r="O486" s="10"/>
       <c r="P486" s="10"/>
     </row>
-    <row r="487" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A487" s="10" t="s">
         <v>752</v>
       </c>
@@ -18896,7 +18894,7 @@
       <c r="O487" s="10"/>
       <c r="P487" s="10"/>
     </row>
-    <row r="488" spans="1:20" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>973</v>
       </c>
@@ -18934,7 +18932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:20" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" ht="23" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>977</v>
       </c>
@@ -18966,7 +18964,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="490" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>980</v>
       </c>
@@ -19016,7 +19014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>983</v>
       </c>
@@ -19048,7 +19046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>985</v>
       </c>
@@ -19086,7 +19084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>653</v>
       </c>
@@ -19097,7 +19095,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="495" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>988</v>
       </c>
@@ -19155,7 +19153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>992</v>
       </c>
@@ -19225,7 +19223,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="499" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>997</v>
       </c>
@@ -19257,7 +19255,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="500" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>1000</v>
       </c>
@@ -19289,7 +19287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>1002</v>
       </c>
@@ -19368,7 +19366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>1008</v>
       </c>
@@ -19382,7 +19380,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="505" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>1010</v>
       </c>
@@ -19412,7 +19410,7 @@
       </c>
       <c r="R505" s="1"/>
     </row>
-    <row r="506" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>1013</v>
       </c>
@@ -19447,7 +19445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>1015</v>
       </c>
@@ -19506,7 +19504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>1019</v>
       </c>
@@ -19538,7 +19536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>1021</v>
       </c>
@@ -19570,7 +19568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>1022</v>
       </c>
@@ -19608,7 +19606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>1024</v>
       </c>
@@ -19640,7 +19638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>1026</v>
       </c>
@@ -19698,7 +19696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>1029</v>
       </c>
@@ -19730,7 +19728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>1031</v>
       </c>
@@ -19762,7 +19760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>1033</v>
       </c>
@@ -19794,7 +19792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:20" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>1035</v>
       </c>
@@ -19808,7 +19806,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="519" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>1037</v>
       </c>
@@ -19848,7 +19846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>1040</v>
       </c>
@@ -19880,7 +19878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>1042</v>
       </c>
@@ -19909,7 +19907,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="523" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>1044</v>
       </c>
@@ -19941,7 +19939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>1046</v>
       </c>
@@ -20039,7 +20037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>1051</v>
       </c>
@@ -20071,7 +20069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>1053</v>
       </c>
@@ -20082,7 +20080,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="530" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>1054</v>
       </c>
@@ -20096,7 +20094,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="531" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>1055</v>
       </c>
@@ -20110,7 +20108,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="532" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>1056</v>
       </c>
@@ -20121,7 +20119,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="533" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>1057</v>
       </c>
@@ -20251,7 +20249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>1068</v>
       </c>
@@ -20329,7 +20327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>1072</v>
       </c>
@@ -20346,7 +20344,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="542" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>1073</v>
       </c>
@@ -20389,7 +20387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>484</v>
       </c>
@@ -20400,7 +20398,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>1076</v>
       </c>
@@ -20417,7 +20415,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>1077</v>
       </c>
@@ -20434,7 +20432,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>1078</v>
       </c>
@@ -20452,31 +20450,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:GZ547" xr:uid="{2F709631-1FEE-054E-B459-7355ECDF4D6B}">
-    <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="AD"/>
-        <filter val="MCI not exclusive AD"/>
-        <filter val="migraine"/>
-        <filter val="MS"/>
-        <filter val="TBI"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters blank="1">
-        <filter val="?"/>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:GZ547" xr:uid="{2F709631-1FEE-054E-B459-7355ECDF4D6B}"/>
   <conditionalFormatting sqref="A1:A487 A548:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
